--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F93E2-EA1B-44AE-B208-3D49676815C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C3FFC-7A61-42A9-A7EF-59BC50279E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45310" yWindow="3560" windowWidth="21910" windowHeight="17550" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="38410" yWindow="1650" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <author>tc={98C85431-240B-43D6-9320-F54389B2CF7C}</author>
     <author>tc={7C8D1D3B-4771-4143-BB65-4092E4163BCF}</author>
     <author>tc={7B7B344C-1B40-43A1-8992-C1140C2C51FA}</author>
+    <author>tc={B77F9B6D-5145-4ED4-BC37-5F249706B128}</author>
   </authors>
   <commentList>
     <comment ref="Z10" authorId="0" shapeId="0" xr:uid="{5142EDA3-8698-452C-9A8D-4CD833122C3B}">
@@ -130,6 +131,14 @@
     Pixel, content acquisition</t>
       </text>
     </comment>
+    <comment ref="AZ81" authorId="10" shapeId="0" xr:uid="{B77F9B6D-5145-4ED4-BC37-5F249706B128}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q2 call: increased from 75B to 85B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -955,7 +964,7 @@
     <numFmt numFmtId="164" formatCode="0.00000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -989,6 +998,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1513,6 +1528,9 @@
   <threadedComment ref="T17" dT="2023-09-29T16:29:01.58" personId="{93A3133D-971F-4E59-B338-0D905228406B}" id="{7B7B344C-1B40-43A1-8992-C1140C2C51FA}">
     <text>Pixel, content acquisition</text>
   </threadedComment>
+  <threadedComment ref="AZ81" dT="2025-08-27T14:29:45.98" personId="{93A3133D-971F-4E59-B338-0D905228406B}" id="{B77F9B6D-5145-4ED4-BC37-5F249706B128}">
+    <text>Q2 call: increased from 75B to 85B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1524,21 +1542,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>208</v>
       </c>
@@ -1549,7 +1567,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>209</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>216</v>
       </c>
@@ -1581,7 +1599,7 @@
         <v>2396745</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>213</v>
       </c>
@@ -1599,7 +1617,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>210</v>
       </c>
@@ -1616,7 +1634,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>211</v>
       </c>
@@ -1628,13 +1646,13 @@
         <v>2261274</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>212</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>238</v>
       </c>
@@ -1645,13 +1663,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>218</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>219</v>
       </c>
@@ -1660,7 +1678,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>223</v>
       </c>
@@ -1671,7 +1689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>224</v>
       </c>
@@ -1685,7 +1703,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>228</v>
       </c>
@@ -1700,7 +1718,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>242</v>
       </c>
@@ -1711,7 +1729,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>244</v>
       </c>
@@ -1725,7 +1743,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>246</v>
       </c>
@@ -1739,7 +1757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>248</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>250</v>
       </c>
@@ -1764,7 +1782,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>116</v>
       </c>
@@ -1772,7 +1790,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1783,7 +1801,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>254</v>
       </c>
@@ -1792,17 +1810,17 @@
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>221</v>
       </c>
@@ -1819,7 +1837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>222</v>
       </c>
@@ -1833,7 +1851,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>227</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1861,7 +1879,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>261</v>
       </c>
@@ -1875,7 +1893,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>262</v>
       </c>
@@ -1889,7 +1907,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>226</v>
       </c>
@@ -1906,7 +1924,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>253</v>
       </c>
@@ -1920,7 +1938,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>252</v>
       </c>
@@ -1934,7 +1952,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>255</v>
       </c>
@@ -1948,7 +1966,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>257</v>
       </c>
@@ -1962,7 +1980,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>260</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>143</v>
       </c>
@@ -1987,7 +2005,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K38" s="7" t="s">
         <v>125</v>
       </c>
@@ -2001,7 +2019,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>140</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>138</v>
       </c>
@@ -2023,7 +2041,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>134</v>
       </c>
@@ -2037,7 +2055,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>130</v>
       </c>
@@ -2051,7 +2069,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K43" s="7" t="s">
         <v>127</v>
       </c>
@@ -2062,7 +2080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K44" s="7" t="s">
         <v>123</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K45" s="7" t="s">
         <v>121</v>
       </c>
@@ -2081,17 +2099,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K47" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
         <v>178</v>
       </c>
@@ -2099,87 +2117,87 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:11" ht="13" x14ac:dyDescent="0.3">
       <c r="K52" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K53" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K55" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="11:11" ht="13" x14ac:dyDescent="0.3">
       <c r="K57" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K59" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K61" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K62" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K63" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K65" t="s">
         <v>196</v>
       </c>
@@ -2195,33 +2213,33 @@
   <dimension ref="A1:DJ109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BH24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="V73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BM42" sqref="BM42"/>
+      <selection pane="bottomRight" activeCell="AD81" sqref="AA81:AD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="26" width="9.140625" style="2"/>
-    <col min="27" max="27" width="8.28515625" style="2" customWidth="1"/>
-    <col min="28" max="35" width="8.85546875" style="2"/>
-    <col min="49" max="49" width="9.140625" customWidth="1"/>
-    <col min="56" max="57" width="9.28515625" customWidth="1"/>
-    <col min="58" max="62" width="9.42578125" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="17" width="9.1796875" style="2"/>
+    <col min="18" max="18" width="8.7265625" style="2" customWidth="1"/>
+    <col min="19" max="26" width="9.1796875" style="2"/>
+    <col min="27" max="27" width="8.26953125" style="2" customWidth="1"/>
+    <col min="28" max="35" width="8.81640625" style="2"/>
+    <col min="49" max="49" width="9.1796875" customWidth="1"/>
+    <col min="56" max="57" width="9.26953125" customWidth="1"/>
+    <col min="58" max="62" width="9.453125" customWidth="1"/>
+    <col min="65" max="65" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
@@ -2411,7 +2429,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>197</v>
       </c>
@@ -2487,7 +2505,7 @@
         <v>170447</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>198</v>
       </c>
@@ -2563,7 +2581,7 @@
         <v>102127</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>199</v>
       </c>
@@ -2639,7 +2657,7 @@
         <v>56815</v>
       </c>
     </row>
-    <row r="6" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>200</v>
       </c>
@@ -2715,7 +2733,7 @@
         <v>20418</v>
       </c>
     </row>
-    <row r="8" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2828,7 +2846,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2991,7 +3009,7 @@
         <v>1779.5462440374508</v>
       </c>
     </row>
-    <row r="10" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
@@ -3154,7 +3172,7 @@
         <v>203537.2644207933</v>
       </c>
     </row>
-    <row r="11" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>256</v>
       </c>
@@ -3317,7 +3335,7 @@
         <v>61954.410696126099</v>
       </c>
     </row>
-    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
@@ -3480,7 +3498,7 @@
         <v>40676.343931936135</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
@@ -3643,7 +3661,7 @@
         <v>65879.47037588236</v>
       </c>
     </row>
-    <row r="14" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
@@ -3806,7 +3824,7 @@
         <v>407843.22874379007</v>
       </c>
     </row>
-    <row r="15" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
@@ -4003,7 +4021,7 @@
         <v>576353.45374773466</v>
       </c>
     </row>
-    <row r="16" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
@@ -4230,7 +4248,7 @@
         <v>781670.26441256539</v>
       </c>
     </row>
-    <row r="17" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -4401,7 +4419,7 @@
         <v>343934.9163415287</v>
       </c>
     </row>
-    <row r="18" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
@@ -4477,7 +4495,7 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -4678,7 +4696,7 @@
         <v>437735.34807103669</v>
       </c>
     </row>
-    <row r="20" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -4849,7 +4867,7 @@
         <v>75667.550705149712</v>
       </c>
     </row>
-    <row r="21" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -5019,7 +5037,7 @@
         <v>40708.07818152554</v>
       </c>
     </row>
-    <row r="22" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -5189,7 +5207,7 @@
         <v>24420.148590894903</v>
       </c>
     </row>
-    <row r="23" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -5390,7 +5408,7 @@
         <v>140795.77747757017</v>
       </c>
     </row>
-    <row r="24" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -5591,7 +5609,7 @@
         <v>296939.57059346652</v>
       </c>
     </row>
-    <row r="25" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -5764,7 +5782,7 @@
         <v>59096.691348449705</v>
       </c>
     </row>
-    <row r="26" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
@@ -5965,7 +5983,7 @@
         <v>356036.26194191619</v>
       </c>
     </row>
-    <row r="27" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -6135,7 +6153,7 @@
         <v>64086.527149544912</v>
       </c>
     </row>
-    <row r="28" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -6544,7 +6562,7 @@
         <v>817555.07107319916</v>
       </c>
     </row>
-    <row r="29" spans="2:114" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:114" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>23.888696720251307</v>
       </c>
     </row>
-    <row r="30" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
@@ -6879,7 +6897,7 @@
         <v>12221.25</v>
       </c>
     </row>
-    <row r="32" spans="2:114" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:114" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
@@ -7070,7 +7088,7 @@
         <v>5.9745619769687286E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:65" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:65" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
@@ -7138,7 +7156,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:65" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
@@ -7314,7 +7332,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:65" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
@@ -7490,7 +7508,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
@@ -7666,7 +7684,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>264</v>
       </c>
@@ -7743,7 +7761,7 @@
       <c r="BI37" s="15"/>
       <c r="BJ37" s="15"/>
     </row>
-    <row r="38" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>265</v>
       </c>
@@ -7820,7 +7838,7 @@
       <c r="BI38" s="15"/>
       <c r="BJ38" s="15"/>
     </row>
-    <row r="39" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>43</v>
       </c>
@@ -7997,7 +8015,7 @@
         <v>3601476.0384379262</v>
       </c>
     </row>
-    <row r="40" spans="2:65" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:65" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
         <v>33</v>
       </c>
@@ -8202,7 +8220,7 @@
         <v>293.01733288080106</v>
       </c>
     </row>
-    <row r="41" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>70</v>
       </c>
@@ -8406,7 +8424,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:65" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
@@ -8587,7 +8605,7 @@
         <v>0.71355165427369038</v>
       </c>
     </row>
-    <row r="43" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>104</v>
       </c>
@@ -8779,7 +8797,7 @@
         <v>0.65807677030951872</v>
       </c>
     </row>
-    <row r="45" spans="2:65" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>71</v>
       </c>
@@ -8920,7 +8938,7 @@
         <v>2261839.4464073614</v>
       </c>
     </row>
-    <row r="46" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
@@ -9018,7 +9036,7 @@
         <v>133639</v>
       </c>
     </row>
-    <row r="47" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>53</v>
       </c>
@@ -9100,7 +9118,7 @@
         <v>52340</v>
       </c>
     </row>
-    <row r="48" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>30</v>
       </c>
@@ -9182,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>54</v>
       </c>
@@ -9264,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>55</v>
       </c>
@@ -9346,7 +9364,7 @@
         <v>15714</v>
       </c>
     </row>
-    <row r="51" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>56</v>
       </c>
@@ -9418,7 +9436,7 @@
         <v>17180</v>
       </c>
     </row>
-    <row r="52" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>57</v>
       </c>
@@ -9490,7 +9508,7 @@
         <v>171036</v>
       </c>
     </row>
-    <row r="53" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>58</v>
       </c>
@@ -9562,7 +9580,7 @@
         <v>13588</v>
       </c>
     </row>
-    <row r="54" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>61</v>
       </c>
@@ -9643,7 +9661,7 @@
         <v>31885</v>
       </c>
     </row>
-    <row r="55" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>60</v>
       </c>
@@ -9715,7 +9733,7 @@
         <v>14874</v>
       </c>
     </row>
-    <row r="56" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>59</v>
       </c>
@@ -9803,7 +9821,7 @@
         <v>450256</v>
       </c>
     </row>
-    <row r="57" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="G57" s="11"/>
       <c r="P57" s="11"/>
@@ -9827,7 +9845,7 @@
       <c r="AH57" s="11"/>
       <c r="AI57" s="11"/>
     </row>
-    <row r="58" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>62</v>
       </c>
@@ -9899,7 +9917,7 @@
         <v>7987</v>
       </c>
     </row>
-    <row r="59" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>63</v>
       </c>
@@ -9971,7 +9989,7 @@
         <v>15069</v>
       </c>
     </row>
-    <row r="60" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>64</v>
       </c>
@@ -10043,7 +10061,7 @@
         <v>51228</v>
       </c>
     </row>
-    <row r="61" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>65</v>
       </c>
@@ -10115,7 +10133,7 @@
         <v>9802</v>
       </c>
     </row>
-    <row r="62" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>66</v>
       </c>
@@ -10200,7 +10218,7 @@
         <v>5036</v>
       </c>
     </row>
-    <row r="63" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>30</v>
       </c>
@@ -10285,7 +10303,7 @@
         <v>8782</v>
       </c>
     </row>
-    <row r="64" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>4</v>
       </c>
@@ -10358,7 +10376,7 @@
         <v>10883</v>
       </c>
     </row>
-    <row r="65" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>58</v>
       </c>
@@ -10430,7 +10448,7 @@
         <v>11691</v>
       </c>
     </row>
-    <row r="66" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>69</v>
       </c>
@@ -10502,7 +10520,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="67" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
@@ -10574,7 +10592,7 @@
         <v>325084</v>
       </c>
     </row>
-    <row r="68" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
@@ -10662,7 +10680,7 @@
         <v>450256</v>
       </c>
     </row>
-    <row r="70" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>82</v>
       </c>
@@ -10781,7 +10799,7 @@
         <v>94757</v>
       </c>
     </row>
-    <row r="71" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>83</v>
       </c>
@@ -10868,7 +10886,7 @@
         <v>100118</v>
       </c>
     </row>
-    <row r="72" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>84</v>
       </c>
@@ -10956,7 +10974,7 @@
         <v>15311</v>
       </c>
     </row>
-    <row r="73" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>85</v>
       </c>
@@ -11041,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>86</v>
       </c>
@@ -11129,7 +11147,7 @@
         <v>22785</v>
       </c>
     </row>
-    <row r="75" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>56</v>
       </c>
@@ -11217,7 +11235,7 @@
         <v>-5257</v>
       </c>
     </row>
-    <row r="76" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>87</v>
       </c>
@@ -11305,7 +11323,7 @@
         <v>-2671</v>
       </c>
     </row>
-    <row r="77" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>28</v>
       </c>
@@ -11393,7 +11411,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="78" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>88</v>
       </c>
@@ -11494,7 +11512,7 @@
         <v>-8406</v>
       </c>
     </row>
-    <row r="79" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>35</v>
       </c>
@@ -11602,7 +11620,7 @@
         <v>125299</v>
       </c>
     </row>
-    <row r="80" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:51" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
@@ -11645,7 +11663,7 @@
         <v>0.23148821575295342</v>
       </c>
     </row>
-    <row r="81" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>36</v>
       </c>
@@ -11746,8 +11764,12 @@
         <f t="shared" ref="AY81:AY84" si="303">SUM(W81:Z81)</f>
         <v>-52535</v>
       </c>
-    </row>
-    <row r="82" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AZ81" s="3">
+        <f>SUM(AA81:AD81)</f>
+        <v>-86035</v>
+      </c>
+    </row>
+    <row r="82" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>89</v>
       </c>
@@ -11842,7 +11864,7 @@
         <v>12597</v>
       </c>
     </row>
-    <row r="83" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>91</v>
       </c>
@@ -11926,7 +11948,7 @@
         <v>-2931</v>
       </c>
     </row>
-    <row r="84" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>28</v>
       </c>
@@ -12010,7 +12032,7 @@
         <v>-2667</v>
       </c>
     </row>
-    <row r="85" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>92</v>
       </c>
@@ -12105,7 +12127,7 @@
         <v>-45536</v>
       </c>
     </row>
-    <row r="86" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -12140,7 +12162,7 @@
       <c r="AH86" s="11"/>
       <c r="AI86" s="11"/>
     </row>
-    <row r="87" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
@@ -12224,7 +12246,7 @@
         <v>-12190</v>
       </c>
     </row>
-    <row r="88" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>93</v>
       </c>
@@ -12308,7 +12330,7 @@
         <v>-62222</v>
       </c>
     </row>
-    <row r="89" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>233</v>
       </c>
@@ -12373,7 +12395,7 @@
         <v>-7363</v>
       </c>
     </row>
-    <row r="90" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>4</v>
       </c>
@@ -12468,7 +12490,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="91" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>94</v>
       </c>
@@ -12552,7 +12574,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="92" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>90</v>
       </c>
@@ -12647,7 +12669,7 @@
         <v>-79733</v>
       </c>
     </row>
-    <row r="93" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>41</v>
       </c>
@@ -12731,7 +12753,7 @@
         <v>-612</v>
       </c>
     </row>
-    <row r="94" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>95</v>
       </c>
@@ -12826,7 +12848,7 @@
         <v>-582</v>
       </c>
     </row>
-    <row r="95" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -12861,7 +12883,7 @@
       <c r="AH95" s="11"/>
       <c r="AI95" s="11"/>
     </row>
-    <row r="96" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>37</v>
       </c>
@@ -12965,7 +12987,7 @@
         <v>72764</v>
       </c>
     </row>
-    <row r="97" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:51" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
         <v>205</v>
       </c>
@@ -13057,7 +13079,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:51" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -13113,10 +13135,10 @@
       <c r="AX98" s="10"/>
       <c r="AY98" s="10"/>
     </row>
-    <row r="99" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:51" x14ac:dyDescent="0.25">
       <c r="R99" s="11"/>
     </row>
-    <row r="100" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>52</v>
       </c>
@@ -13206,7 +13228,7 @@
         <v>181798</v>
       </c>
     </row>
-    <row r="101" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>81</v>
       </c>
@@ -13275,7 +13297,7 @@
         <v>-4.6735636643927214E-2</v>
       </c>
     </row>
-    <row r="102" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>100</v>
       </c>
@@ -13368,10 +13390,10 @@
         <v>1925.3127097107779</v>
       </c>
     </row>
-    <row r="103" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AW103" s="11"/>
     </row>
-    <row r="105" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>241</v>
       </c>
@@ -13400,13 +13422,13 @@
         <v>88.73</v>
       </c>
     </row>
-    <row r="106" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AW106" s="5">
         <f>AW105/AP105-1</f>
         <v>1.3386926726410122</v>
       </c>
     </row>
-    <row r="108" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>240</v>
       </c>
@@ -13435,7 +13457,7 @@
         <v>10466.48</v>
       </c>
     </row>
-    <row r="109" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AW109" s="5">
         <f>AW108/AP108-1</f>
         <v>1.0901983260807482</v>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C3FFC-7A61-42A9-A7EF-59BC50279E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0B4D3-B5A3-4DFE-8025-0309372285D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38410" yWindow="1650" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="51750" yWindow="4010" windowWidth="24340" windowHeight="15680" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="270">
   <si>
     <t>Price</t>
   </si>
@@ -964,7 +964,7 @@
     <numFmt numFmtId="164" formatCode="0.00000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1000,19 +1000,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1028,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1070,6 +1070,9 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1094,16 +1097,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>22241</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>52896</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>74448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>22241</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>52896</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>150648</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1118,8 +1121,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17167241" y="0"/>
-          <a:ext cx="0" cy="19713028"/>
+          <a:off x="18660586" y="74448"/>
+          <a:ext cx="0" cy="18775855"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1538,9 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1564,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>195</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -1577,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>12291</v>
+        <v>12203</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1596,7 +1597,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>2396745</v>
+        <v>3526667</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -1611,10 +1612,11 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>146357</v>
+        <f>Model!AC46</f>
+        <v>162296</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1628,10 +1630,11 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>10886</v>
+        <f>Model!AC64</f>
+        <v>21607</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -1643,7 +1646,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>2261274</v>
+        <v>3385978</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="13" x14ac:dyDescent="0.3">
@@ -2213,10 +2216,10 @@
   <dimension ref="A1:DJ109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD81" sqref="AA81:AD81"/>
+      <selection pane="bottomRight" activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2809,7 +2812,9 @@
       <c r="AB8" s="11">
         <v>-112</v>
       </c>
-      <c r="AC8" s="11"/>
+      <c r="AC8" s="11">
+        <v>-207</v>
+      </c>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
@@ -2923,8 +2928,7 @@
         <v>373</v>
       </c>
       <c r="AC9" s="11">
-        <f>+Y9</f>
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="AD9" s="11">
         <f>+Z9</f>
@@ -2966,47 +2970,47 @@
       </c>
       <c r="AZ9" s="3">
         <f>SUM(AA9:AD9)</f>
-        <v>1611</v>
+        <v>1567</v>
       </c>
       <c r="BA9" s="3">
         <f t="shared" ref="BA9:BE9" si="6">+AZ9*1.01</f>
-        <v>1627.1100000000001</v>
+        <v>1582.67</v>
       </c>
       <c r="BB9" s="3">
         <f t="shared" si="6"/>
-        <v>1643.3811000000001</v>
+        <v>1598.4967000000001</v>
       </c>
       <c r="BC9" s="3">
         <f t="shared" si="6"/>
-        <v>1659.8149110000002</v>
+        <v>1614.4816670000002</v>
       </c>
       <c r="BD9" s="3">
         <f t="shared" si="6"/>
-        <v>1676.4130601100003</v>
+        <v>1630.6264836700002</v>
       </c>
       <c r="BE9" s="3">
         <f t="shared" si="6"/>
-        <v>1693.1771907111004</v>
+        <v>1646.9327485067001</v>
       </c>
       <c r="BF9" s="3">
         <f t="shared" ref="BF9" si="7">+BE9*1.01</f>
-        <v>1710.1089626182113</v>
+        <v>1663.4020759917671</v>
       </c>
       <c r="BG9" s="3">
         <f t="shared" ref="BG9" si="8">+BF9*1.01</f>
-        <v>1727.2100522443934</v>
+        <v>1680.0360967516847</v>
       </c>
       <c r="BH9" s="3">
         <f t="shared" ref="BH9" si="9">+BG9*1.01</f>
-        <v>1744.4821527668373</v>
+        <v>1696.8364577192015</v>
       </c>
       <c r="BI9" s="3">
         <f t="shared" ref="BI9" si="10">+BH9*1.01</f>
-        <v>1761.9269742945057</v>
+        <v>1713.8048222963935</v>
       </c>
       <c r="BJ9" s="3">
         <f t="shared" ref="BJ9" si="11">+BI9*1.01</f>
-        <v>1779.5462440374508</v>
+        <v>1730.9428705193575</v>
       </c>
     </row>
     <row r="10" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3086,8 +3090,7 @@
         <v>13624</v>
       </c>
       <c r="AC10" s="11">
-        <f>+Y10*1.3</f>
-        <v>14758.9</v>
+        <v>15157</v>
       </c>
       <c r="AD10" s="11">
         <f>+Z10*1.3</f>
@@ -3129,47 +3132,47 @@
       </c>
       <c r="AZ10" s="3">
         <f t="shared" ref="AZ10:AZ15" si="12">SUM(AA10:AD10)</f>
-        <v>56184.4</v>
+        <v>56582.5</v>
       </c>
       <c r="BA10" s="3">
         <f>+AZ10*1.3</f>
-        <v>73039.72</v>
+        <v>73557.25</v>
       </c>
       <c r="BB10" s="3">
         <f>+BA10*1.3</f>
-        <v>94951.635999999999</v>
+        <v>95624.425000000003</v>
       </c>
       <c r="BC10" s="3">
         <f>+BB10*1.1</f>
-        <v>104446.79960000001</v>
+        <v>105186.86750000001</v>
       </c>
       <c r="BD10" s="3">
         <f>+BC10*1.1</f>
-        <v>114891.47956000002</v>
+        <v>115705.55425000002</v>
       </c>
       <c r="BE10" s="3">
         <f>+BD10*1.1</f>
-        <v>126380.62751600004</v>
+        <v>127276.10967500003</v>
       </c>
       <c r="BF10" s="3">
         <f t="shared" ref="BF10:BJ10" si="13">+BE10*1.1</f>
-        <v>139018.69026760006</v>
+        <v>140003.72064250003</v>
       </c>
       <c r="BG10" s="3">
         <f t="shared" si="13"/>
-        <v>152920.55929436008</v>
+        <v>154004.09270675006</v>
       </c>
       <c r="BH10" s="3">
         <f t="shared" si="13"/>
-        <v>168212.61522379611</v>
+        <v>169404.50197742507</v>
       </c>
       <c r="BI10" s="3">
         <f t="shared" si="13"/>
-        <v>185033.87674617572</v>
+        <v>186344.95217516759</v>
       </c>
       <c r="BJ10" s="3">
         <f t="shared" si="13"/>
-        <v>203537.2644207933</v>
+        <v>204979.44739268438</v>
       </c>
     </row>
     <row r="11" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3249,8 +3252,7 @@
         <v>11203</v>
       </c>
       <c r="AC11" s="11">
-        <f>+Y11*1.1</f>
-        <v>11721.6</v>
+        <v>12870</v>
       </c>
       <c r="AD11" s="11">
         <f>+Z11*1.1</f>
@@ -3292,47 +3294,47 @@
       </c>
       <c r="AZ11" s="3">
         <f t="shared" si="12"/>
-        <v>46099.9</v>
+        <v>47248.3</v>
       </c>
       <c r="BA11" s="3">
         <f t="shared" ref="BA11:BE11" si="14">+AZ11*1.03</f>
-        <v>47482.897000000004</v>
+        <v>48665.749000000003</v>
       </c>
       <c r="BB11" s="3">
         <f t="shared" si="14"/>
-        <v>48907.383910000004</v>
+        <v>50125.721470000004</v>
       </c>
       <c r="BC11" s="3">
         <f t="shared" si="14"/>
-        <v>50374.605427300005</v>
+        <v>51629.493114100005</v>
       </c>
       <c r="BD11" s="3">
         <f t="shared" si="14"/>
-        <v>51885.84359011901</v>
+        <v>53178.377907523005</v>
       </c>
       <c r="BE11" s="3">
         <f t="shared" si="14"/>
-        <v>53442.418897822579</v>
+        <v>54773.729244748698</v>
       </c>
       <c r="BF11" s="3">
         <f t="shared" ref="BF11:BF12" si="15">+BE11*1.03</f>
-        <v>55045.691464757256</v>
+        <v>56416.941122091157</v>
       </c>
       <c r="BG11" s="3">
         <f t="shared" ref="BG11:BG12" si="16">+BF11*1.03</f>
-        <v>56697.062208699972</v>
+        <v>58109.449355753895</v>
       </c>
       <c r="BH11" s="3">
         <f t="shared" ref="BH11:BH12" si="17">+BG11*1.03</f>
-        <v>58397.97407496097</v>
+        <v>59852.732836426512</v>
       </c>
       <c r="BI11" s="3">
         <f t="shared" ref="BI11:BI12" si="18">+BH11*1.03</f>
-        <v>60149.913297209801</v>
+        <v>61648.314821519307</v>
       </c>
       <c r="BJ11" s="3">
         <f t="shared" ref="BJ11:BJ12" si="19">+BI11*1.03</f>
-        <v>61954.410696126099</v>
+        <v>63497.764266164886</v>
       </c>
     </row>
     <row r="12" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3412,8 +3414,7 @@
         <v>7354</v>
       </c>
       <c r="AC12" s="11">
-        <f>+Y12*1.01</f>
-        <v>7623.4800000000005</v>
+        <v>7354</v>
       </c>
       <c r="AD12" s="11">
         <f>+Z12*1.01</f>
@@ -3455,47 +3456,47 @@
       </c>
       <c r="AZ12" s="3">
         <f t="shared" si="12"/>
-        <v>30267.02</v>
+        <v>29997.54</v>
       </c>
       <c r="BA12" s="3">
         <f t="shared" ref="BA12:BE12" si="20">+AZ12*1.03</f>
-        <v>31175.030600000002</v>
+        <v>30897.466200000003</v>
       </c>
       <c r="BB12" s="3">
         <f t="shared" si="20"/>
-        <v>32110.281518000003</v>
+        <v>31824.390186000004</v>
       </c>
       <c r="BC12" s="3">
         <f t="shared" si="20"/>
-        <v>33073.589963540006</v>
+        <v>32779.121891580005</v>
       </c>
       <c r="BD12" s="3">
         <f t="shared" si="20"/>
-        <v>34065.79766244621</v>
+        <v>33762.49554832741</v>
       </c>
       <c r="BE12" s="3">
         <f t="shared" si="20"/>
-        <v>35087.771592319594</v>
+        <v>34775.37041477723</v>
       </c>
       <c r="BF12" s="3">
         <f t="shared" si="15"/>
-        <v>36140.40474008918</v>
+        <v>35818.631527220547</v>
       </c>
       <c r="BG12" s="3">
         <f t="shared" si="16"/>
-        <v>37224.616882291855</v>
+        <v>36893.190473037161</v>
       </c>
       <c r="BH12" s="3">
         <f t="shared" si="17"/>
-        <v>38341.35538876061</v>
+        <v>37999.986187228278</v>
       </c>
       <c r="BI12" s="3">
         <f t="shared" si="18"/>
-        <v>39491.596050423432</v>
+        <v>39139.985772845124</v>
       </c>
       <c r="BJ12" s="3">
         <f t="shared" si="19"/>
-        <v>40676.343931936135</v>
+        <v>40314.185346030477</v>
       </c>
     </row>
     <row r="13" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3575,8 +3576,7 @@
         <v>9796</v>
       </c>
       <c r="AC13" s="11">
-        <f>+Y13*1.12</f>
-        <v>9991.52</v>
+        <v>10261</v>
       </c>
       <c r="AD13" s="11">
         <f>+Z13*1.12</f>
@@ -3618,47 +3618,47 @@
       </c>
       <c r="AZ13" s="3">
         <f t="shared" si="12"/>
-        <v>40444.28</v>
+        <v>40713.760000000002</v>
       </c>
       <c r="BA13" s="3">
         <f t="shared" ref="BA13:BE13" si="21">+AZ13*1.05</f>
-        <v>42466.493999999999</v>
+        <v>42749.448000000004</v>
       </c>
       <c r="BB13" s="3">
         <f t="shared" si="21"/>
-        <v>44589.818700000003</v>
+        <v>44886.920400000003</v>
       </c>
       <c r="BC13" s="3">
         <f t="shared" si="21"/>
-        <v>46819.309635000005</v>
+        <v>47131.266420000007</v>
       </c>
       <c r="BD13" s="3">
         <f t="shared" si="21"/>
-        <v>49160.27511675001</v>
+        <v>49487.829741000009</v>
       </c>
       <c r="BE13" s="3">
         <f t="shared" si="21"/>
-        <v>51618.288872587509</v>
+        <v>51962.22122805001</v>
       </c>
       <c r="BF13" s="3">
         <f t="shared" ref="BF13:BF14" si="22">+BE13*1.05</f>
-        <v>54199.203316216888</v>
+        <v>54560.332289452512</v>
       </c>
       <c r="BG13" s="3">
         <f t="shared" ref="BG13:BG14" si="23">+BF13*1.05</f>
-        <v>56909.163482027732</v>
+        <v>57288.348903925136</v>
       </c>
       <c r="BH13" s="3">
         <f t="shared" ref="BH13:BH14" si="24">+BG13*1.05</f>
-        <v>59754.621656129122</v>
+        <v>60152.766349121397</v>
       </c>
       <c r="BI13" s="3">
         <f t="shared" ref="BI13:BI14" si="25">+BH13*1.05</f>
-        <v>62742.35273893558</v>
+        <v>63160.404666577473</v>
       </c>
       <c r="BJ13" s="3">
         <f t="shared" ref="BJ13:BJ14" si="26">+BI13*1.05</f>
-        <v>65879.47037588236</v>
+        <v>66318.424899906357</v>
       </c>
     </row>
     <row r="14" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3738,11 +3738,10 @@
         <v>54190</v>
       </c>
       <c r="AC14" s="11">
-        <f t="shared" ref="AC14:AD14" si="27">+Y14*1.11</f>
-        <v>54817.350000000006</v>
+        <v>56567</v>
       </c>
       <c r="AD14" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="AD14" si="27">+Z14*1.11</f>
         <v>59977.740000000005</v>
       </c>
       <c r="AE14" s="11"/>
@@ -3781,47 +3780,47 @@
       </c>
       <c r="AZ14" s="3">
         <f t="shared" si="12"/>
-        <v>219687.09000000003</v>
+        <v>221436.74</v>
       </c>
       <c r="BA14" s="3">
         <f t="shared" ref="BA14:BB14" si="28">+AZ14*1.1</f>
-        <v>241655.79900000006</v>
+        <v>243580.41400000002</v>
       </c>
       <c r="BB14" s="3">
         <f t="shared" si="28"/>
-        <v>265821.37890000007</v>
+        <v>267938.45540000004</v>
       </c>
       <c r="BC14" s="3">
         <f>+BB14*1.07</f>
-        <v>284428.87542300008</v>
+        <v>286694.14727800008</v>
       </c>
       <c r="BD14" s="3">
         <f>+BC14*1.07</f>
-        <v>304338.89670261007</v>
+        <v>306762.73758746008</v>
       </c>
       <c r="BE14" s="3">
         <f>+BD14*1.05</f>
-        <v>319555.84153774061</v>
+        <v>322100.87446683308</v>
       </c>
       <c r="BF14" s="3">
         <f t="shared" si="22"/>
-        <v>335533.63361462764</v>
+        <v>338205.91819017474</v>
       </c>
       <c r="BG14" s="3">
         <f t="shared" si="23"/>
-        <v>352310.31529535906</v>
+        <v>355116.21409968351</v>
       </c>
       <c r="BH14" s="3">
         <f t="shared" si="24"/>
-        <v>369925.83106012701</v>
+        <v>372872.02480466769</v>
       </c>
       <c r="BI14" s="3">
         <f t="shared" si="25"/>
-        <v>388422.1226131334</v>
+        <v>391515.62604490109</v>
       </c>
       <c r="BJ14" s="3">
         <f t="shared" si="26"/>
-        <v>407843.22874379007</v>
+        <v>411091.40734714613</v>
       </c>
     </row>
     <row r="15" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3933,7 +3932,7 @@
       </c>
       <c r="AC15" s="11">
         <f>SUM(AC11:AC14)</f>
-        <v>84153.950000000012</v>
+        <v>87052</v>
       </c>
       <c r="AD15" s="11">
         <f>SUM(AD11:AD14)</f>
@@ -3978,47 +3977,47 @@
       </c>
       <c r="AZ15" s="3">
         <f t="shared" si="12"/>
-        <v>336498.29000000004</v>
+        <v>339396.33999999997</v>
       </c>
       <c r="BA15" s="11">
         <f t="shared" ref="BA15:BE15" si="35">SUM(BA11:BA14)</f>
-        <v>362780.22060000006</v>
+        <v>365893.07720000006</v>
       </c>
       <c r="BB15" s="11">
         <f t="shared" si="35"/>
-        <v>391428.86302800011</v>
+        <v>394775.48745600006</v>
       </c>
       <c r="BC15" s="11">
         <f t="shared" si="35"/>
-        <v>414696.38044884009</v>
+        <v>418234.02870368009</v>
       </c>
       <c r="BD15" s="11">
         <f t="shared" si="35"/>
-        <v>439450.81307192531</v>
+        <v>443191.44078431051</v>
       </c>
       <c r="BE15" s="11">
         <f t="shared" si="35"/>
-        <v>459704.32090047031</v>
+        <v>463612.19535440905</v>
       </c>
       <c r="BF15" s="11">
         <f t="shared" ref="BF15:BJ15" si="36">SUM(BF11:BF14)</f>
-        <v>480918.93313569098</v>
+        <v>485001.82312893897</v>
       </c>
       <c r="BG15" s="11">
         <f t="shared" si="36"/>
-        <v>503141.15786837862</v>
+        <v>507407.20283239969</v>
       </c>
       <c r="BH15" s="11">
         <f t="shared" si="36"/>
-        <v>526419.78217997774</v>
+        <v>530877.51017744385</v>
       </c>
       <c r="BI15" s="11">
         <f t="shared" si="36"/>
-        <v>550805.98469970224</v>
+        <v>555464.33130584296</v>
       </c>
       <c r="BJ15" s="11">
         <f t="shared" si="36"/>
-        <v>576353.45374773466</v>
+        <v>581221.78185924783</v>
       </c>
     </row>
     <row r="16" spans="1:62" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -4130,7 +4129,7 @@
       </c>
       <c r="AC16" s="10">
         <f t="shared" si="40"/>
-        <v>99300.85</v>
+        <v>102346</v>
       </c>
       <c r="AD16" s="10">
         <f t="shared" si="40"/>
@@ -4205,47 +4204,47 @@
       </c>
       <c r="AZ16" s="10">
         <f t="shared" ref="AZ16" si="43">AZ15+AZ10+AZ9+AZ8</f>
-        <v>394293.69000000006</v>
+        <v>397545.83999999997</v>
       </c>
       <c r="BA16" s="10">
         <f t="shared" ref="BA16" si="44">BA15+BA10+BA9+BA8</f>
-        <v>437447.05060000008</v>
+        <v>441032.99720000004</v>
       </c>
       <c r="BB16" s="10">
         <f t="shared" ref="BB16" si="45">BB15+BB10+BB9+BB8</f>
-        <v>488023.88012800011</v>
+        <v>491998.40915600007</v>
       </c>
       <c r="BC16" s="10">
         <f t="shared" ref="BC16" si="46">BC15+BC10+BC9+BC8</f>
-        <v>520802.99495984014</v>
+        <v>525035.37787068007</v>
       </c>
       <c r="BD16" s="10">
         <f t="shared" ref="BD16" si="47">BD15+BD10+BD9+BD8</f>
-        <v>556018.70569203526</v>
+        <v>560527.62151798047</v>
       </c>
       <c r="BE16" s="10">
         <f t="shared" ref="BE16:BJ16" si="48">BE15+BE10+BE9+BE8</f>
-        <v>587778.12560718146</v>
+        <v>592535.23777791578</v>
       </c>
       <c r="BF16" s="10">
         <f t="shared" si="48"/>
-        <v>621647.73236590915</v>
+        <v>626668.94584743073</v>
       </c>
       <c r="BG16" s="10">
         <f t="shared" si="48"/>
-        <v>657788.92721498304</v>
+        <v>663091.33163590147</v>
       </c>
       <c r="BH16" s="10">
         <f t="shared" si="48"/>
-        <v>696376.87955654063</v>
+        <v>701978.84861258813</v>
       </c>
       <c r="BI16" s="10">
         <f t="shared" si="48"/>
-        <v>737601.78842017241</v>
+        <v>743523.08830330695</v>
       </c>
       <c r="BJ16" s="10">
         <f t="shared" si="48"/>
-        <v>781670.26441256539</v>
+        <v>787932.17212245159</v>
       </c>
     </row>
     <row r="17" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4326,8 +4325,7 @@
         <v>39039</v>
       </c>
       <c r="AC17" s="11">
-        <f>+AC16-AC19</f>
-        <v>41706.357000000004</v>
+        <v>41369</v>
       </c>
       <c r="AD17" s="11">
         <f>+AD16-AD19</f>
@@ -4376,47 +4374,47 @@
       </c>
       <c r="AZ17" s="3">
         <f t="shared" ref="AZ17:BE17" si="49">+AZ16-AZ19</f>
-        <v>164056.74980000008</v>
+        <v>163926.39279999997</v>
       </c>
       <c r="BA17" s="3">
         <f t="shared" si="49"/>
-        <v>192476.70226400002</v>
+        <v>194054.51876800001</v>
       </c>
       <c r="BB17" s="3">
         <f t="shared" si="49"/>
-        <v>214730.50725632004</v>
+        <v>216479.30002864002</v>
       </c>
       <c r="BC17" s="3">
         <f t="shared" si="49"/>
-        <v>229153.31778232963</v>
+        <v>231015.5662630992</v>
       </c>
       <c r="BD17" s="3">
         <f t="shared" si="49"/>
-        <v>244648.2305044955</v>
+        <v>246632.15346791135</v>
       </c>
       <c r="BE17" s="3">
         <f t="shared" si="49"/>
-        <v>258622.37526715983</v>
+        <v>260715.50462228293</v>
       </c>
       <c r="BF17" s="3">
         <f t="shared" ref="BF17:BJ17" si="50">+BF16-BF19</f>
-        <v>273525.00224100001</v>
+        <v>275734.33617286949</v>
       </c>
       <c r="BG17" s="3">
         <f t="shared" si="50"/>
-        <v>289427.1279745925</v>
+        <v>291760.18591979664</v>
       </c>
       <c r="BH17" s="3">
         <f t="shared" si="50"/>
-        <v>306405.82700487785</v>
+        <v>308870.69338953873</v>
       </c>
       <c r="BI17" s="3">
         <f t="shared" si="50"/>
-        <v>324544.78690487583</v>
+        <v>327150.15885345504</v>
       </c>
       <c r="BJ17" s="3">
         <f t="shared" si="50"/>
-        <v>343934.9163415287</v>
+        <v>346690.15573387867</v>
       </c>
     </row>
     <row r="18" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4483,8 +4481,8 @@
       <c r="AB18" s="11">
         <v>14705</v>
       </c>
-      <c r="AC18" s="11" t="s">
-        <v>239</v>
+      <c r="AC18" s="11">
+        <v>14876</v>
       </c>
       <c r="AD18" s="11" t="s">
         <v>239</v>
@@ -4595,8 +4593,8 @@
         <v>57389</v>
       </c>
       <c r="AC19" s="11">
-        <f>+AC16*0.58</f>
-        <v>57594.493000000002</v>
+        <f>+AC16-AC17</f>
+        <v>60977</v>
       </c>
       <c r="AD19" s="11">
         <f>+AD16*0.58</f>
@@ -4653,47 +4651,47 @@
       </c>
       <c r="AZ19" s="3">
         <f>SUM(AA19:AD19)</f>
-        <v>230236.94019999998</v>
+        <v>233619.4472</v>
       </c>
       <c r="BA19" s="3">
         <f t="shared" ref="BA19:BJ19" si="58">+BA16*0.56</f>
-        <v>244970.34833600005</v>
+        <v>246978.47843200003</v>
       </c>
       <c r="BB19" s="3">
         <f t="shared" si="58"/>
-        <v>273293.37287168007</v>
+        <v>275519.10912736005</v>
       </c>
       <c r="BC19" s="3">
         <f t="shared" si="58"/>
-        <v>291649.67717751052</v>
+        <v>294019.81160758086</v>
       </c>
       <c r="BD19" s="3">
         <f t="shared" si="58"/>
-        <v>311370.47518753976</v>
+        <v>313895.46805006912</v>
       </c>
       <c r="BE19" s="3">
         <f t="shared" si="58"/>
-        <v>329155.75034002162</v>
+        <v>331819.73315563286</v>
       </c>
       <c r="BF19" s="3">
         <f t="shared" si="58"/>
-        <v>348122.73012490914</v>
+        <v>350934.60967456124</v>
       </c>
       <c r="BG19" s="3">
         <f t="shared" si="58"/>
-        <v>368361.79924039054</v>
+        <v>371331.14571610483</v>
       </c>
       <c r="BH19" s="3">
         <f t="shared" si="58"/>
-        <v>389971.05255166278</v>
+        <v>393108.1552230494</v>
       </c>
       <c r="BI19" s="3">
         <f t="shared" si="58"/>
-        <v>413057.00151529658</v>
+        <v>416372.92944985192</v>
       </c>
       <c r="BJ19" s="3">
         <f t="shared" si="58"/>
-        <v>437735.34807103669</v>
+        <v>441242.01638857293</v>
       </c>
     </row>
     <row r="20" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4774,11 +4772,10 @@
         <v>13808</v>
       </c>
       <c r="AC20" s="11">
-        <f t="shared" ref="AC20:AC22" si="59">+Y20*1.05</f>
-        <v>13069.35</v>
+        <v>15151</v>
       </c>
       <c r="AD20" s="11">
-        <f t="shared" ref="AD20:AD22" si="60">+Z20*1.05</f>
+        <f t="shared" ref="AD20:AD22" si="59">+Z20*1.05</f>
         <v>13771.800000000001</v>
       </c>
       <c r="AE20" s="11"/>
@@ -4811,7 +4808,7 @@
         <v>31562</v>
       </c>
       <c r="AW20" s="3">
-        <f t="shared" ref="AW20:AW22" si="61">SUM(O20:R20)</f>
+        <f t="shared" ref="AW20:AW22" si="60">SUM(O20:R20)</f>
         <v>39500</v>
       </c>
       <c r="AX20" s="3">
@@ -4823,48 +4820,48 @@
         <v>49326</v>
       </c>
       <c r="AZ20" s="3">
-        <f t="shared" ref="AZ20:AZ22" si="62">SUM(AA20:AD20)</f>
-        <v>53147.3</v>
+        <f t="shared" ref="AZ20:AZ22" si="61">SUM(AA20:AD20)</f>
+        <v>55228.950000000004</v>
       </c>
       <c r="BA20" s="3">
-        <f t="shared" ref="BA20:BC20" si="63">+AZ20*1.05</f>
-        <v>55804.665000000008</v>
+        <f t="shared" ref="BA20:BC20" si="62">+AZ20*1.05</f>
+        <v>57990.397500000006</v>
       </c>
       <c r="BB20" s="3">
-        <f t="shared" si="63"/>
-        <v>58594.898250000013</v>
+        <f t="shared" si="62"/>
+        <v>60889.917375000012</v>
       </c>
       <c r="BC20" s="3">
-        <f t="shared" si="63"/>
-        <v>61524.643162500019</v>
+        <f t="shared" si="62"/>
+        <v>63934.413243750016</v>
       </c>
       <c r="BD20" s="3">
         <f>+BC20*1.03</f>
-        <v>63370.382457375024</v>
+        <v>65852.445641062513</v>
       </c>
       <c r="BE20" s="3">
-        <f t="shared" ref="BE20:BJ20" si="64">+BD20*1.03</f>
-        <v>65271.49393109628</v>
+        <f t="shared" ref="BE20:BJ20" si="63">+BD20*1.03</f>
+        <v>67828.019010294389</v>
       </c>
       <c r="BF20" s="3">
-        <f t="shared" si="64"/>
-        <v>67229.638749029167</v>
+        <f t="shared" si="63"/>
+        <v>69862.859580603224</v>
       </c>
       <c r="BG20" s="3">
-        <f t="shared" si="64"/>
-        <v>69246.527911500045</v>
+        <f t="shared" si="63"/>
+        <v>71958.745368021322</v>
       </c>
       <c r="BH20" s="3">
-        <f t="shared" si="64"/>
-        <v>71323.923748845045</v>
+        <f t="shared" si="63"/>
+        <v>74117.507729061967</v>
       </c>
       <c r="BI20" s="3">
-        <f t="shared" si="64"/>
-        <v>73463.641461310399</v>
+        <f t="shared" si="63"/>
+        <v>76341.032960933822</v>
       </c>
       <c r="BJ20" s="3">
-        <f t="shared" si="64"/>
-        <v>75667.550705149712</v>
+        <f t="shared" si="63"/>
+        <v>78631.263949761837</v>
       </c>
     </row>
     <row r="21" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4944,11 +4941,10 @@
         <v>7101</v>
       </c>
       <c r="AC21" s="11">
+        <v>7205</v>
+      </c>
+      <c r="AD21" s="11">
         <f t="shared" si="59"/>
-        <v>7588.35</v>
-      </c>
-      <c r="AD21" s="11">
-        <f t="shared" si="60"/>
         <v>7731.1500000000005</v>
       </c>
       <c r="AE21" s="11"/>
@@ -4981,7 +4977,7 @@
         <v>22912</v>
       </c>
       <c r="AW21" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>26567</v>
       </c>
       <c r="AX21" s="3">
@@ -4993,48 +4989,48 @@
         <v>27808</v>
       </c>
       <c r="AZ21" s="3">
-        <f t="shared" si="62"/>
-        <v>28592.5</v>
+        <f t="shared" si="61"/>
+        <v>28209.15</v>
       </c>
       <c r="BA21" s="3">
-        <f t="shared" ref="BA21:BC21" si="65">+AZ21*1.05</f>
-        <v>30022.125</v>
+        <f t="shared" ref="BA21:BC21" si="64">+AZ21*1.05</f>
+        <v>29619.607500000002</v>
       </c>
       <c r="BB21" s="3">
+        <f t="shared" si="64"/>
+        <v>31100.587875000005</v>
+      </c>
+      <c r="BC21" s="3">
+        <f t="shared" si="64"/>
+        <v>32655.617268750007</v>
+      </c>
+      <c r="BD21" s="3">
+        <f t="shared" ref="BD21:BJ22" si="65">+BC21*1.03</f>
+        <v>33635.285786812507</v>
+      </c>
+      <c r="BE21" s="3">
         <f t="shared" si="65"/>
-        <v>31523.231250000001</v>
-      </c>
-      <c r="BC21" s="3">
+        <v>34644.344360416886</v>
+      </c>
+      <c r="BF21" s="3">
         <f t="shared" si="65"/>
-        <v>33099.392812500002</v>
-      </c>
-      <c r="BD21" s="3">
-        <f t="shared" ref="BD21:BJ22" si="66">+BC21*1.03</f>
-        <v>34092.374596875001</v>
-      </c>
-      <c r="BE21" s="3">
-        <f t="shared" si="66"/>
-        <v>35115.145834781251</v>
-      </c>
-      <c r="BF21" s="3">
-        <f t="shared" si="66"/>
-        <v>36168.60020982469</v>
+        <v>35683.674691229397</v>
       </c>
       <c r="BG21" s="3">
-        <f t="shared" si="66"/>
-        <v>37253.658216119431</v>
+        <f t="shared" si="65"/>
+        <v>36754.18493196628</v>
       </c>
       <c r="BH21" s="3">
-        <f t="shared" si="66"/>
-        <v>38371.267962603015</v>
+        <f t="shared" si="65"/>
+        <v>37856.810479925269</v>
       </c>
       <c r="BI21" s="3">
-        <f t="shared" si="66"/>
-        <v>39522.406001481104</v>
+        <f t="shared" si="65"/>
+        <v>38992.514794323026</v>
       </c>
       <c r="BJ21" s="3">
-        <f t="shared" si="66"/>
-        <v>40708.07818152554</v>
+        <f t="shared" si="65"/>
+        <v>40162.290238152716</v>
       </c>
     </row>
     <row r="22" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5114,11 +5110,10 @@
         <v>5209</v>
       </c>
       <c r="AC22" s="11">
+        <v>7393</v>
+      </c>
+      <c r="AD22" s="11">
         <f t="shared" si="59"/>
-        <v>3778.9500000000003</v>
-      </c>
-      <c r="AD22" s="11">
-        <f t="shared" si="60"/>
         <v>4625.25</v>
       </c>
       <c r="AE22" s="11"/>
@@ -5151,7 +5146,7 @@
         <v>13510</v>
       </c>
       <c r="AW22" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>15724</v>
       </c>
       <c r="AX22" s="3">
@@ -5163,48 +5158,48 @@
         <v>14188</v>
       </c>
       <c r="AZ22" s="3">
-        <f t="shared" si="62"/>
-        <v>17152.2</v>
+        <f t="shared" si="61"/>
+        <v>20766.25</v>
       </c>
       <c r="BA22" s="3">
-        <f t="shared" ref="BA22:BC22" si="67">+AZ22*1.05</f>
-        <v>18009.810000000001</v>
+        <f t="shared" ref="BA22:BC22" si="66">+AZ22*1.05</f>
+        <v>21804.5625</v>
       </c>
       <c r="BB22" s="3">
-        <f t="shared" si="67"/>
-        <v>18910.300500000001</v>
+        <f t="shared" si="66"/>
+        <v>22894.790625000001</v>
       </c>
       <c r="BC22" s="3">
-        <f t="shared" si="67"/>
-        <v>19855.815525000002</v>
+        <f t="shared" si="66"/>
+        <v>24039.530156250003</v>
       </c>
       <c r="BD22" s="3">
-        <f t="shared" si="66"/>
-        <v>20451.489990750004</v>
+        <f t="shared" si="65"/>
+        <v>24760.716060937502</v>
       </c>
       <c r="BE22" s="3">
-        <f t="shared" si="66"/>
-        <v>21065.034690472505</v>
+        <f t="shared" si="65"/>
+        <v>25503.537542765629</v>
       </c>
       <c r="BF22" s="3">
-        <f t="shared" si="66"/>
-        <v>21696.98573118668</v>
+        <f t="shared" si="65"/>
+        <v>26268.643669048597</v>
       </c>
       <c r="BG22" s="3">
-        <f t="shared" si="66"/>
-        <v>22347.895303122281</v>
+        <f t="shared" si="65"/>
+        <v>27056.702979120055</v>
       </c>
       <c r="BH22" s="3">
-        <f t="shared" si="66"/>
-        <v>23018.332162215949</v>
+        <f t="shared" si="65"/>
+        <v>27868.404068493655</v>
       </c>
       <c r="BI22" s="3">
-        <f t="shared" si="66"/>
-        <v>23708.88212708243</v>
+        <f t="shared" si="65"/>
+        <v>28704.456190548466</v>
       </c>
       <c r="BJ22" s="3">
-        <f t="shared" si="66"/>
-        <v>24420.148590894903</v>
+        <f t="shared" si="65"/>
+        <v>29565.589876264919</v>
       </c>
     </row>
     <row r="23" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5212,26 +5207,26 @@
         <v>26</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23" si="68">SUM(C20:C22)</f>
+        <f t="shared" ref="C23" si="67">SUM(C20:C22)</f>
         <v>12022</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f t="shared" ref="G23" si="69">SUM(G20:G22)</f>
+        <f t="shared" ref="G23" si="68">SUM(G20:G22)</f>
         <v>14200</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23" si="70">SUM(H20:H22)</f>
+        <f t="shared" ref="H23" si="69">SUM(H20:H22)</f>
         <v>13361</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" ref="I23" si="71">SUM(I20:I22)</f>
+        <f t="shared" ref="I23" si="70">SUM(I20:I22)</f>
         <v>13843</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" ref="J23" si="72">SUM(J20:J22)</f>
+        <f t="shared" ref="J23" si="71">SUM(J20:J22)</f>
         <v>15167</v>
       </c>
       <c r="K23" s="11">
@@ -5239,27 +5234,27 @@
         <v>14774</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ref="L23:O23" si="73">SUM(L20:L22)</f>
+        <f t="shared" ref="L23:O23" si="72">SUM(L20:L22)</f>
         <v>16292</v>
       </c>
       <c r="M23" s="11">
+        <f t="shared" si="72"/>
+        <v>16466</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="72"/>
+        <v>20452</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" si="72"/>
+        <v>18318</v>
+      </c>
+      <c r="P23" s="11">
+        <f t="shared" ref="P23:Q23" si="73">SUM(P20:P22)</f>
+        <v>20128</v>
+      </c>
+      <c r="Q23" s="11">
         <f t="shared" si="73"/>
-        <v>16466</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" si="73"/>
-        <v>20452</v>
-      </c>
-      <c r="O23" s="11">
-        <f t="shared" si="73"/>
-        <v>18318</v>
-      </c>
-      <c r="P23" s="11">
-        <f t="shared" ref="P23:Q23" si="74">SUM(P20:P22)</f>
-        <v>20128</v>
-      </c>
-      <c r="Q23" s="11">
-        <f t="shared" si="74"/>
         <v>20799</v>
       </c>
       <c r="R23" s="11">
@@ -5267,7 +5262,7 @@
         <v>22546</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23:W23" si="75">SUM(S20:S22)</f>
+        <f t="shared" ref="S23:W23" si="74">SUM(S20:S22)</f>
         <v>21760</v>
       </c>
       <c r="T23" s="11">
@@ -5275,43 +5270,43 @@
         <v>20850</v>
       </c>
       <c r="U23" s="11">
+        <f t="shared" si="74"/>
+        <v>22121</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="74"/>
+        <v>25038</v>
+      </c>
+      <c r="W23" s="11">
+        <f t="shared" si="74"/>
+        <v>21355</v>
+      </c>
+      <c r="X23" s="11">
+        <f t="shared" ref="X23:Z23" si="75">SUM(X20:X22)</f>
+        <v>21810</v>
+      </c>
+      <c r="Y23" s="11">
         <f t="shared" si="75"/>
-        <v>22121</v>
-      </c>
-      <c r="V23" s="11">
+        <v>23273</v>
+      </c>
+      <c r="Z23" s="11">
         <f t="shared" si="75"/>
-        <v>25038</v>
-      </c>
-      <c r="W23" s="11">
-        <f t="shared" si="75"/>
-        <v>21355</v>
-      </c>
-      <c r="X23" s="11">
-        <f t="shared" ref="X23:Z23" si="76">SUM(X20:X22)</f>
-        <v>21810</v>
-      </c>
-      <c r="Y23" s="11">
+        <v>24884</v>
+      </c>
+      <c r="AA23" s="11">
+        <f t="shared" ref="AA23:AD23" si="76">SUM(AA20:AA22)</f>
+        <v>22209.15</v>
+      </c>
+      <c r="AB23" s="11">
         <f t="shared" si="76"/>
-        <v>23273</v>
-      </c>
-      <c r="Z23" s="11">
+        <v>26118</v>
+      </c>
+      <c r="AC23" s="11">
         <f t="shared" si="76"/>
-        <v>24884</v>
-      </c>
-      <c r="AA23" s="11">
-        <f t="shared" ref="AA23:AD23" si="77">SUM(AA20:AA22)</f>
-        <v>22209.15</v>
-      </c>
-      <c r="AB23" s="11">
-        <f t="shared" si="77"/>
-        <v>26118</v>
-      </c>
-      <c r="AC23" s="11">
-        <f t="shared" si="77"/>
-        <v>24436.65</v>
+        <v>29749</v>
       </c>
       <c r="AD23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>26128.2</v>
       </c>
       <c r="AE23" s="11"/>
@@ -5324,23 +5319,23 @@
         <v>23814</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" ref="AP23:AT23" si="78">SUM(AP20:AP22)</f>
+        <f t="shared" ref="AP23:AT23" si="77">SUM(AP20:AP22)</f>
         <v>27465</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>31418</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>36390</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>45878</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>54033</v>
       </c>
       <c r="AU23" s="3">
@@ -5348,64 +5343,64 @@
         <v>56571</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" ref="AV23:AX23" si="79">SUM(AV20:AV22)</f>
+        <f t="shared" ref="AV23:AX23" si="78">SUM(AV20:AV22)</f>
         <v>67984</v>
       </c>
       <c r="AW23" s="3">
+        <f t="shared" si="78"/>
+        <v>81791</v>
+      </c>
+      <c r="AX23" s="3">
+        <f t="shared" si="78"/>
+        <v>85880.55</v>
+      </c>
+      <c r="AY23" s="3">
+        <f t="shared" ref="AY23:BE23" si="79">SUM(AY20:AY22)</f>
+        <v>91322</v>
+      </c>
+      <c r="AZ23" s="3">
         <f t="shared" si="79"/>
-        <v>81791</v>
-      </c>
-      <c r="AX23" s="3">
+        <v>104204.35</v>
+      </c>
+      <c r="BA23" s="3">
         <f t="shared" si="79"/>
-        <v>85880.55</v>
-      </c>
-      <c r="AY23" s="3">
-        <f t="shared" ref="AY23:BE23" si="80">SUM(AY20:AY22)</f>
-        <v>91322</v>
-      </c>
-      <c r="AZ23" s="3">
+        <v>109414.5675</v>
+      </c>
+      <c r="BB23" s="3">
+        <f t="shared" si="79"/>
+        <v>114885.29587500001</v>
+      </c>
+      <c r="BC23" s="3">
+        <f t="shared" si="79"/>
+        <v>120629.56066875003</v>
+      </c>
+      <c r="BD23" s="3">
+        <f t="shared" si="79"/>
+        <v>124248.44748881253</v>
+      </c>
+      <c r="BE23" s="3">
+        <f t="shared" si="79"/>
+        <v>127975.9009134769</v>
+      </c>
+      <c r="BF23" s="3">
+        <f t="shared" ref="BF23:BJ23" si="80">SUM(BF20:BF22)</f>
+        <v>131815.1779408812</v>
+      </c>
+      <c r="BG23" s="3">
         <f t="shared" si="80"/>
-        <v>98892</v>
-      </c>
-      <c r="BA23" s="3">
+        <v>135769.63327910766</v>
+      </c>
+      <c r="BH23" s="3">
         <f t="shared" si="80"/>
-        <v>103836.6</v>
-      </c>
-      <c r="BB23" s="3">
+        <v>139842.72227748091</v>
+      </c>
+      <c r="BI23" s="3">
         <f t="shared" si="80"/>
-        <v>109028.43000000001</v>
-      </c>
-      <c r="BC23" s="3">
+        <v>144038.00394580531</v>
+      </c>
+      <c r="BJ23" s="3">
         <f t="shared" si="80"/>
-        <v>114479.85150000002</v>
-      </c>
-      <c r="BD23" s="3">
-        <f t="shared" si="80"/>
-        <v>117914.24704500003</v>
-      </c>
-      <c r="BE23" s="3">
-        <f t="shared" si="80"/>
-        <v>121451.67445635004</v>
-      </c>
-      <c r="BF23" s="3">
-        <f t="shared" ref="BF23:BJ23" si="81">SUM(BF20:BF22)</f>
-        <v>125095.22469004053</v>
-      </c>
-      <c r="BG23" s="3">
-        <f t="shared" si="81"/>
-        <v>128848.08143074175</v>
-      </c>
-      <c r="BH23" s="3">
-        <f t="shared" si="81"/>
-        <v>132713.523873664</v>
-      </c>
-      <c r="BI23" s="3">
-        <f t="shared" si="81"/>
-        <v>136694.92958987394</v>
-      </c>
-      <c r="BJ23" s="3">
-        <f t="shared" si="81"/>
-        <v>140795.77747757017</v>
+        <v>148359.14406417948</v>
       </c>
     </row>
     <row r="24" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5413,42 +5408,42 @@
         <v>27</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24" si="82">C19-C23</f>
+        <f t="shared" ref="C24" si="81">C19-C23</f>
         <v>8305</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
-        <f t="shared" ref="G24" si="83">G19-G23</f>
+        <f t="shared" ref="G24" si="82">G19-G23</f>
         <v>7977</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24" si="84">H19-H23</f>
+        <f t="shared" ref="H24" si="83">H19-H23</f>
         <v>6383</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" ref="I24" si="85">I19-I23</f>
+        <f t="shared" ref="I24" si="84">I19-I23</f>
         <v>11213</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" ref="J24" si="86">J19-J23</f>
+        <f t="shared" ref="J24" si="85">J19-J23</f>
         <v>15651</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:N24" si="87">K19-K23</f>
+        <f t="shared" ref="K24:N24" si="86">K19-K23</f>
         <v>16437</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>19361</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>21031</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>21885</v>
       </c>
       <c r="O24" s="11">
@@ -5456,19 +5451,19 @@
         <v>20094</v>
       </c>
       <c r="P24" s="11">
-        <f t="shared" ref="P24:R24" si="88">P19-P23</f>
+        <f t="shared" ref="P24:R24" si="87">P19-P23</f>
         <v>19453</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>17135</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>18160</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" ref="S24:W24" si="89">S19-S23</f>
+        <f t="shared" ref="S24:W24" si="88">S19-S23</f>
         <v>17415</v>
       </c>
       <c r="T24" s="11">
@@ -5476,43 +5471,43 @@
         <v>21838</v>
       </c>
       <c r="U24" s="11">
+        <f t="shared" si="88"/>
+        <v>21343</v>
+      </c>
+      <c r="V24" s="11">
+        <f t="shared" si="88"/>
+        <v>23697</v>
+      </c>
+      <c r="W24" s="11">
+        <f t="shared" si="88"/>
+        <v>25472</v>
+      </c>
+      <c r="X24" s="11">
+        <f t="shared" ref="X24:Z24" si="89">X19-X23</f>
+        <v>27425</v>
+      </c>
+      <c r="Y24" s="11">
         <f t="shared" si="89"/>
-        <v>21343</v>
-      </c>
-      <c r="V24" s="11">
+        <v>28521</v>
+      </c>
+      <c r="Z24" s="11">
         <f t="shared" si="89"/>
-        <v>23697</v>
-      </c>
-      <c r="W24" s="11">
-        <f t="shared" si="89"/>
-        <v>25472</v>
-      </c>
-      <c r="X24" s="11">
-        <f t="shared" ref="X24:Z24" si="90">X19-X23</f>
-        <v>27425</v>
-      </c>
-      <c r="Y24" s="11">
+        <v>30972</v>
+      </c>
+      <c r="AA24" s="11">
+        <f t="shared" ref="AA24:AD24" si="90">AA19-AA23</f>
+        <v>30126.569999999992</v>
+      </c>
+      <c r="AB24" s="11">
         <f t="shared" si="90"/>
-        <v>28521</v>
-      </c>
-      <c r="Z24" s="11">
+        <v>31271</v>
+      </c>
+      <c r="AC24" s="11">
         <f t="shared" si="90"/>
-        <v>30972</v>
-      </c>
-      <c r="AA24" s="11">
-        <f t="shared" ref="AA24:AD24" si="91">AA19-AA23</f>
-        <v>30126.569999999992</v>
-      </c>
-      <c r="AB24" s="11">
-        <f t="shared" si="91"/>
-        <v>31271</v>
-      </c>
-      <c r="AC24" s="11">
-        <f t="shared" si="91"/>
-        <v>33157.843000000001</v>
+        <v>31228</v>
       </c>
       <c r="AD24" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>36789.527199999997</v>
       </c>
       <c r="AE24" s="11"/>
@@ -5525,23 +5520,23 @@
         <v>16496</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" ref="AP24:AT24" si="92">AP19-AP23</f>
+        <f t="shared" ref="AP24:AT24" si="91">AP19-AP23</f>
         <v>19360</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>23716</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>28882</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>31392</v>
       </c>
       <c r="AT24" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>35928</v>
       </c>
       <c r="AU24" s="3">
@@ -5549,64 +5544,64 @@
         <v>41224</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" ref="AV24:AX24" si="93">AV19-AV23</f>
+        <f t="shared" ref="AV24:AX24" si="92">AV19-AV23</f>
         <v>78714</v>
       </c>
       <c r="AW24" s="3">
+        <f t="shared" si="92"/>
+        <v>74842</v>
+      </c>
+      <c r="AX24" s="3">
+        <f t="shared" si="92"/>
+        <v>86260.090000000011</v>
+      </c>
+      <c r="AY24" s="3">
+        <f t="shared" ref="AY24:BE24" si="93">AY19-AY23</f>
+        <v>112390</v>
+      </c>
+      <c r="AZ24" s="3">
         <f t="shared" si="93"/>
-        <v>74842</v>
-      </c>
-      <c r="AX24" s="3">
+        <v>129415.09719999999</v>
+      </c>
+      <c r="BA24" s="3">
         <f t="shared" si="93"/>
-        <v>86260.090000000011</v>
-      </c>
-      <c r="AY24" s="3">
-        <f t="shared" ref="AY24:BE24" si="94">AY19-AY23</f>
-        <v>112390</v>
-      </c>
-      <c r="AZ24" s="3">
+        <v>137563.91093200003</v>
+      </c>
+      <c r="BB24" s="3">
+        <f t="shared" si="93"/>
+        <v>160633.81325236004</v>
+      </c>
+      <c r="BC24" s="3">
+        <f t="shared" si="93"/>
+        <v>173390.25093883084</v>
+      </c>
+      <c r="BD24" s="3">
+        <f t="shared" si="93"/>
+        <v>189647.02056125659</v>
+      </c>
+      <c r="BE24" s="3">
+        <f t="shared" si="93"/>
+        <v>203843.83224215597</v>
+      </c>
+      <c r="BF24" s="3">
+        <f t="shared" ref="BF24:BJ24" si="94">BF19-BF23</f>
+        <v>219119.43173368004</v>
+      </c>
+      <c r="BG24" s="3">
         <f t="shared" si="94"/>
-        <v>131344.94019999998</v>
-      </c>
-      <c r="BA24" s="3">
+        <v>235561.51243699717</v>
+      </c>
+      <c r="BH24" s="3">
         <f t="shared" si="94"/>
-        <v>141133.74833600005</v>
-      </c>
-      <c r="BB24" s="3">
+        <v>253265.43294556849</v>
+      </c>
+      <c r="BI24" s="3">
         <f t="shared" si="94"/>
-        <v>164264.94287168008</v>
-      </c>
-      <c r="BC24" s="3">
+        <v>272334.92550404661</v>
+      </c>
+      <c r="BJ24" s="3">
         <f t="shared" si="94"/>
-        <v>177169.8256775105</v>
-      </c>
-      <c r="BD24" s="3">
-        <f t="shared" si="94"/>
-        <v>193456.22814253974</v>
-      </c>
-      <c r="BE24" s="3">
-        <f t="shared" si="94"/>
-        <v>207704.07588367158</v>
-      </c>
-      <c r="BF24" s="3">
-        <f t="shared" ref="BF24:BJ24" si="95">BF19-BF23</f>
-        <v>223027.50543486862</v>
-      </c>
-      <c r="BG24" s="3">
-        <f t="shared" si="95"/>
-        <v>239513.71780964878</v>
-      </c>
-      <c r="BH24" s="3">
-        <f t="shared" si="95"/>
-        <v>257257.52867799878</v>
-      </c>
-      <c r="BI24" s="3">
-        <f t="shared" si="95"/>
-        <v>276362.07192542264</v>
-      </c>
-      <c r="BJ24" s="3">
-        <f t="shared" si="95"/>
-        <v>296939.57059346652</v>
+        <v>292882.87232439348</v>
       </c>
     </row>
     <row r="25" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5688,9 +5683,9 @@
       <c r="AB25" s="11">
         <v>2662</v>
       </c>
-      <c r="AC25" s="11">
-        <f>+Y25</f>
-        <v>0</v>
+      <c r="AC25" s="23">
+        <f>12759-10734</f>
+        <v>2025</v>
       </c>
       <c r="AD25" s="11">
         <f>+Z25</f>
@@ -5726,7 +5721,7 @@
         <v>12020</v>
       </c>
       <c r="AW25" s="3">
-        <f t="shared" ref="AW25:AW27" si="96">SUM(O25:R25)</f>
+        <f t="shared" ref="AW25:AW27" si="95">SUM(O25:R25)</f>
         <v>-3514</v>
       </c>
       <c r="AX25" s="3">
@@ -5738,48 +5733,48 @@
         <v>2064</v>
       </c>
       <c r="AZ25" s="3">
-        <f t="shared" ref="AZ25:AZ27" si="97">SUM(AA25:AD25)</f>
-        <v>4000</v>
+        <f t="shared" ref="AZ25:AZ27" si="96">SUM(AA25:AD25)</f>
+        <v>6025</v>
       </c>
       <c r="BA25" s="3">
-        <f t="shared" ref="BA25:BJ25" si="98">+AZ45*$BM$36</f>
-        <v>6968.5072069199996</v>
+        <f t="shared" ref="BA25:BJ25" si="97">+AZ45*$BM$36</f>
+        <v>6880.1742691199988</v>
       </c>
       <c r="BB25" s="3">
-        <f t="shared" si="98"/>
-        <v>10611.822693275833</v>
+        <f t="shared" si="97"/>
+        <v>10433.498765067552</v>
       </c>
       <c r="BC25" s="3">
-        <f t="shared" si="98"/>
-        <v>14913.79112617375</v>
+        <f t="shared" si="97"/>
+        <v>14641.75464069627</v>
       </c>
       <c r="BD25" s="3">
-        <f t="shared" si="98"/>
-        <v>19639.048099544383</v>
+        <f t="shared" si="97"/>
+        <v>19267.341977952638</v>
       </c>
       <c r="BE25" s="3">
-        <f t="shared" si="98"/>
-        <v>24881.191895099651</v>
+        <f t="shared" si="97"/>
+        <v>24406.635296417182</v>
       </c>
       <c r="BF25" s="3">
-        <f t="shared" si="98"/>
-        <v>30602.789482457425</v>
+        <f t="shared" si="97"/>
+        <v>30021.596797866081</v>
       </c>
       <c r="BG25" s="3">
-        <f t="shared" si="98"/>
-        <v>36842.094737423642</v>
+        <f t="shared" si="97"/>
+        <v>36150.466099742116</v>
       </c>
       <c r="BH25" s="3">
-        <f t="shared" si="98"/>
-        <v>43640.447726081627</v>
+        <f t="shared" si="97"/>
+        <v>42834.580771745896</v>
       </c>
       <c r="BI25" s="3">
-        <f t="shared" si="98"/>
-        <v>51042.537945622003</v>
+        <f t="shared" si="97"/>
+        <v>50118.641109191834</v>
       </c>
       <c r="BJ25" s="3">
-        <f t="shared" si="98"/>
-        <v>59096.691348449705</v>
+        <f t="shared" si="97"/>
+        <v>58050.998847877505</v>
       </c>
     </row>
     <row r="26" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5787,26 +5782,26 @@
         <v>29</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26" si="99">C24+C25</f>
+        <f t="shared" ref="C26" si="98">C24+C25</f>
         <v>9843</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11">
-        <f t="shared" ref="G26" si="100">G24+G25</f>
+        <f t="shared" ref="G26" si="99">G24+G25</f>
         <v>7757</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" ref="H26" si="101">H24+H25</f>
+        <f t="shared" ref="H26" si="100">H24+H25</f>
         <v>8277</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" ref="I26" si="102">I24+I25</f>
+        <f t="shared" ref="I26" si="101">I24+I25</f>
         <v>13359</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" ref="J26" si="103">J24+J25</f>
+        <f t="shared" ref="J26" si="102">J24+J25</f>
         <v>18689</v>
       </c>
       <c r="K26" s="11">
@@ -5814,79 +5809,79 @@
         <v>21283</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" ref="L26:O26" si="104">L24+L25</f>
+        <f t="shared" ref="L26:O26" si="103">L24+L25</f>
         <v>21625</v>
       </c>
       <c r="M26" s="11">
+        <f t="shared" si="103"/>
+        <v>23064</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="103"/>
+        <v>24402</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="103"/>
+        <v>18934</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" ref="P26:AD26" si="104">P24+P25</f>
+        <v>19014</v>
+      </c>
+      <c r="Q26" s="11">
         <f t="shared" si="104"/>
-        <v>23064</v>
-      </c>
-      <c r="N26" s="11">
+        <v>16233</v>
+      </c>
+      <c r="R26" s="11">
         <f t="shared" si="104"/>
-        <v>24402</v>
-      </c>
-      <c r="O26" s="11">
+        <v>17147</v>
+      </c>
+      <c r="S26" s="11">
         <f t="shared" si="104"/>
-        <v>18934</v>
-      </c>
-      <c r="P26" s="11">
-        <f t="shared" ref="P26:AD26" si="105">P24+P25</f>
-        <v>19014</v>
-      </c>
-      <c r="Q26" s="11">
-        <f t="shared" si="105"/>
-        <v>16233</v>
-      </c>
-      <c r="R26" s="11">
-        <f t="shared" si="105"/>
-        <v>17147</v>
-      </c>
-      <c r="S26" s="11">
-        <f t="shared" si="105"/>
         <v>18205</v>
       </c>
       <c r="T26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>21903</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>21197</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>23941</v>
       </c>
       <c r="W26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>26072</v>
       </c>
       <c r="X26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>27551</v>
       </c>
       <c r="Y26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>28521</v>
       </c>
       <c r="Z26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>32310</v>
       </c>
       <c r="AA26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>30126.569999999992</v>
       </c>
       <c r="AB26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>33933</v>
       </c>
       <c r="AC26" s="11">
-        <f t="shared" si="105"/>
-        <v>33157.843000000001</v>
+        <f t="shared" si="104"/>
+        <v>33253</v>
       </c>
       <c r="AD26" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>38127.527199999997</v>
       </c>
       <c r="AE26" s="11"/>
@@ -5895,27 +5890,27 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
       <c r="AO26" s="3">
-        <f t="shared" ref="AO26:AT26" si="106">+AO24+AO25</f>
+        <f t="shared" ref="AO26:AT26" si="105">+AO24+AO25</f>
         <v>17259</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>19651</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>24150</v>
       </c>
       <c r="AR26" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>29929</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>39984</v>
       </c>
       <c r="AT26" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>41322</v>
       </c>
       <c r="AU26" s="3">
@@ -5923,64 +5918,64 @@
         <v>48082</v>
       </c>
       <c r="AV26" s="3">
-        <f t="shared" ref="AV26:AX26" si="107">AV24+AV25</f>
+        <f t="shared" ref="AV26:AX26" si="106">AV24+AV25</f>
         <v>90734</v>
       </c>
       <c r="AW26" s="3">
+        <f t="shared" si="106"/>
+        <v>71328</v>
+      </c>
+      <c r="AX26" s="3">
+        <f t="shared" si="106"/>
+        <v>90146.680000000008</v>
+      </c>
+      <c r="AY26" s="3">
+        <f t="shared" ref="AY26:BJ26" si="107">AY24+AY25</f>
+        <v>114454</v>
+      </c>
+      <c r="AZ26" s="3">
         <f t="shared" si="107"/>
-        <v>71328</v>
-      </c>
-      <c r="AX26" s="3">
+        <v>135440.09719999999</v>
+      </c>
+      <c r="BA26" s="3">
         <f t="shared" si="107"/>
-        <v>90146.680000000008</v>
-      </c>
-      <c r="AY26" s="3">
-        <f t="shared" ref="AY26:BJ26" si="108">AY24+AY25</f>
-        <v>114454</v>
-      </c>
-      <c r="AZ26" s="3">
-        <f t="shared" si="108"/>
-        <v>135344.94019999998</v>
-      </c>
-      <c r="BA26" s="3">
-        <f t="shared" si="108"/>
-        <v>148102.25554292006</v>
+        <v>144444.08520112003</v>
       </c>
       <c r="BB26" s="3">
-        <f t="shared" si="108"/>
-        <v>174876.76556495592</v>
+        <f t="shared" si="107"/>
+        <v>171067.31201742758</v>
       </c>
       <c r="BC26" s="3">
-        <f t="shared" si="108"/>
-        <v>192083.61680368424</v>
+        <f t="shared" si="107"/>
+        <v>188032.00557952712</v>
       </c>
       <c r="BD26" s="3">
-        <f t="shared" si="108"/>
-        <v>213095.27624208413</v>
+        <f t="shared" si="107"/>
+        <v>208914.36253920922</v>
       </c>
       <c r="BE26" s="3">
-        <f t="shared" si="108"/>
-        <v>232585.26777877123</v>
+        <f t="shared" si="107"/>
+        <v>228250.46753857314</v>
       </c>
       <c r="BF26" s="3">
-        <f t="shared" si="108"/>
-        <v>253630.29491732604</v>
+        <f t="shared" si="107"/>
+        <v>249141.02853154612</v>
       </c>
       <c r="BG26" s="3">
-        <f t="shared" si="108"/>
-        <v>276355.81254707242</v>
+        <f t="shared" si="107"/>
+        <v>271711.97853673931</v>
       </c>
       <c r="BH26" s="3">
-        <f t="shared" si="108"/>
-        <v>300897.9764040804</v>
+        <f t="shared" si="107"/>
+        <v>296100.0137173144</v>
       </c>
       <c r="BI26" s="3">
-        <f t="shared" si="108"/>
-        <v>327404.60987104464</v>
+        <f t="shared" si="107"/>
+        <v>322453.56661323842</v>
       </c>
       <c r="BJ26" s="3">
-        <f t="shared" si="108"/>
-        <v>356036.26194191619</v>
+        <f t="shared" si="107"/>
+        <v>350933.87117227097</v>
       </c>
     </row>
     <row r="27" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6060,8 +6055,7 @@
         <v>5737</v>
       </c>
       <c r="AC27" s="11">
-        <f>+AC26*0.18</f>
-        <v>5968.4117399999996</v>
+        <v>9008</v>
       </c>
       <c r="AD27" s="11">
         <f>+AD26*0.18</f>
@@ -6097,7 +6091,7 @@
         <v>14701</v>
       </c>
       <c r="AW27" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>11356</v>
       </c>
       <c r="AX27" s="3">
@@ -6109,48 +6103,48 @@
         <v>19697</v>
       </c>
       <c r="AZ27" s="3">
-        <f t="shared" si="97"/>
-        <v>25817.366635999999</v>
+        <f t="shared" si="96"/>
+        <v>28856.954895999999</v>
       </c>
       <c r="BA27" s="3">
-        <f t="shared" ref="BA27:BJ27" si="109">+BA26*0.18</f>
-        <v>26658.405997725611</v>
+        <f t="shared" ref="BA27:BJ27" si="108">+BA26*0.18</f>
+        <v>25999.935336201605</v>
       </c>
       <c r="BB27" s="3">
-        <f t="shared" si="109"/>
-        <v>31477.817801692065</v>
+        <f t="shared" si="108"/>
+        <v>30792.116163136965</v>
       </c>
       <c r="BC27" s="3">
-        <f t="shared" si="109"/>
-        <v>34575.05102466316</v>
+        <f t="shared" si="108"/>
+        <v>33845.761004314882</v>
       </c>
       <c r="BD27" s="3">
-        <f t="shared" si="109"/>
-        <v>38357.149723575145</v>
+        <f t="shared" si="108"/>
+        <v>37604.585257057661</v>
       </c>
       <c r="BE27" s="3">
-        <f t="shared" si="109"/>
-        <v>41865.348200178822</v>
+        <f t="shared" si="108"/>
+        <v>41085.084156943165</v>
       </c>
       <c r="BF27" s="3">
-        <f t="shared" si="109"/>
-        <v>45653.453085118686</v>
+        <f t="shared" si="108"/>
+        <v>44845.385135678298</v>
       </c>
       <c r="BG27" s="3">
-        <f t="shared" si="109"/>
-        <v>49744.046258473034</v>
+        <f t="shared" si="108"/>
+        <v>48908.15613661307</v>
       </c>
       <c r="BH27" s="3">
-        <f t="shared" si="109"/>
-        <v>54161.635752734473</v>
+        <f t="shared" si="108"/>
+        <v>53298.002469116589</v>
       </c>
       <c r="BI27" s="3">
-        <f t="shared" si="109"/>
-        <v>58932.829776788036</v>
+        <f t="shared" si="108"/>
+        <v>58041.641990382916</v>
       </c>
       <c r="BJ27" s="3">
-        <f t="shared" si="109"/>
-        <v>64086.527149544912</v>
+        <f t="shared" si="108"/>
+        <v>63168.096811008771</v>
       </c>
     </row>
     <row r="28" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6158,26 +6152,26 @@
         <v>31</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28" si="110">C26-C27</f>
+        <f t="shared" ref="C28" si="109">C26-C27</f>
         <v>8354</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11">
-        <f t="shared" ref="G28" si="111">G26-G27</f>
+        <f t="shared" ref="G28" si="110">G26-G27</f>
         <v>6836</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ref="H28" si="112">H26-H27</f>
+        <f t="shared" ref="H28" si="111">H26-H27</f>
         <v>6959</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ref="I28" si="113">I26-I27</f>
+        <f t="shared" ref="I28" si="112">I26-I27</f>
         <v>11247</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" ref="J28" si="114">J26-J27</f>
+        <f t="shared" ref="J28" si="113">J26-J27</f>
         <v>15227</v>
       </c>
       <c r="K28" s="11">
@@ -6185,79 +6179,79 @@
         <v>17930</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" ref="L28:O28" si="115">L26-L27</f>
+        <f t="shared" ref="L28:O28" si="114">L26-L27</f>
         <v>18165</v>
       </c>
       <c r="M28" s="11">
+        <f t="shared" si="114"/>
+        <v>18936</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="114"/>
+        <v>20642</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="114"/>
+        <v>16436</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" ref="P28:AD28" si="115">P26-P27</f>
+        <v>16002</v>
+      </c>
+      <c r="Q28" s="11">
         <f t="shared" si="115"/>
-        <v>18936</v>
-      </c>
-      <c r="N28" s="11">
+        <v>13910</v>
+      </c>
+      <c r="R28" s="11">
         <f t="shared" si="115"/>
-        <v>20642</v>
-      </c>
-      <c r="O28" s="11">
+        <v>13624</v>
+      </c>
+      <c r="S28" s="11">
         <f t="shared" si="115"/>
-        <v>16436</v>
-      </c>
-      <c r="P28" s="11">
-        <f t="shared" ref="P28:AD28" si="116">P26-P27</f>
-        <v>16002</v>
-      </c>
-      <c r="Q28" s="11">
-        <f t="shared" si="116"/>
-        <v>13910</v>
-      </c>
-      <c r="R28" s="11">
-        <f t="shared" si="116"/>
-        <v>13624</v>
-      </c>
-      <c r="S28" s="11">
-        <f t="shared" si="116"/>
         <v>15051</v>
       </c>
       <c r="T28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>18368</v>
       </c>
       <c r="U28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>19689</v>
       </c>
       <c r="V28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>20216</v>
       </c>
       <c r="W28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>21419</v>
       </c>
       <c r="X28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>23619</v>
       </c>
       <c r="Y28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>23116</v>
       </c>
       <c r="Z28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>26603</v>
       </c>
       <c r="AA28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>22877.569999999992</v>
       </c>
       <c r="AB28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>28196</v>
       </c>
       <c r="AC28" s="11">
-        <f t="shared" si="116"/>
-        <v>27189.431260000001</v>
+        <f t="shared" si="115"/>
+        <v>24245</v>
       </c>
       <c r="AD28" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>31264.572303999998</v>
       </c>
       <c r="AE28" s="11"/>
@@ -6266,27 +6260,27 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
       <c r="AO28" s="3">
-        <f t="shared" ref="AO28:AT28" si="117">+AO26-AO27</f>
+        <f t="shared" ref="AO28:AT28" si="116">+AO26-AO27</f>
         <v>13620</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>16348</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>19478</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>15398</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>35807</v>
       </c>
       <c r="AT28" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>36040</v>
       </c>
       <c r="AU28" s="3">
@@ -6294,272 +6288,272 @@
         <v>40269</v>
       </c>
       <c r="AV28" s="3">
-        <f t="shared" ref="AV28:AX28" si="118">AV26-AV27</f>
+        <f t="shared" ref="AV28:AX28" si="117">AV26-AV27</f>
         <v>76033</v>
       </c>
       <c r="AW28" s="3">
+        <f t="shared" si="117"/>
+        <v>59972</v>
+      </c>
+      <c r="AX28" s="3">
+        <f t="shared" si="117"/>
+        <v>73920.277600000001</v>
+      </c>
+      <c r="AY28" s="3">
+        <f t="shared" ref="AY28:BJ28" si="118">AY26-AY27</f>
+        <v>94757</v>
+      </c>
+      <c r="AZ28" s="3">
         <f t="shared" si="118"/>
-        <v>59972</v>
-      </c>
-      <c r="AX28" s="3">
+        <v>106583.14230399999</v>
+      </c>
+      <c r="BA28" s="3">
         <f t="shared" si="118"/>
-        <v>73920.277600000001</v>
-      </c>
-      <c r="AY28" s="3">
-        <f t="shared" ref="AY28:BJ28" si="119">AY26-AY27</f>
-        <v>94757</v>
-      </c>
-      <c r="AZ28" s="3">
+        <v>118444.14986491844</v>
+      </c>
+      <c r="BB28" s="3">
+        <f t="shared" si="118"/>
+        <v>140275.19585429062</v>
+      </c>
+      <c r="BC28" s="3">
+        <f t="shared" si="118"/>
+        <v>154186.24457521224</v>
+      </c>
+      <c r="BD28" s="3">
+        <f t="shared" si="118"/>
+        <v>171309.77728215157</v>
+      </c>
+      <c r="BE28" s="3">
+        <f t="shared" si="118"/>
+        <v>187165.38338162997</v>
+      </c>
+      <c r="BF28" s="3">
+        <f t="shared" si="118"/>
+        <v>204295.64339586784</v>
+      </c>
+      <c r="BG28" s="3">
+        <f t="shared" si="118"/>
+        <v>222803.82240012623</v>
+      </c>
+      <c r="BH28" s="3">
+        <f t="shared" si="118"/>
+        <v>242802.01124819781</v>
+      </c>
+      <c r="BI28" s="3">
+        <f t="shared" si="118"/>
+        <v>264411.9246228555</v>
+      </c>
+      <c r="BJ28" s="3">
+        <f t="shared" si="118"/>
+        <v>287765.77436126221</v>
+      </c>
+      <c r="BK28" s="3">
+        <f t="shared" ref="BK28:CP28" si="119">+BJ28*(1+$BM$34)</f>
+        <v>293521.08984848746</v>
+      </c>
+      <c r="BL28" s="3">
         <f t="shared" si="119"/>
-        <v>109527.57356399999</v>
-      </c>
-      <c r="BA28" s="3">
+        <v>299391.51164545724</v>
+      </c>
+      <c r="BM28" s="3">
         <f t="shared" si="119"/>
-        <v>121443.84954519445</v>
-      </c>
-      <c r="BB28" s="3">
+        <v>305379.34187836637</v>
+      </c>
+      <c r="BN28" s="3">
         <f t="shared" si="119"/>
-        <v>143398.94776326386</v>
-      </c>
-      <c r="BC28" s="3">
+        <v>311486.9287159337</v>
+      </c>
+      <c r="BO28" s="3">
         <f t="shared" si="119"/>
-        <v>157508.56577902107</v>
-      </c>
-      <c r="BD28" s="3">
+        <v>317716.6672902524</v>
+      </c>
+      <c r="BP28" s="3">
         <f t="shared" si="119"/>
-        <v>174738.126518509</v>
-      </c>
-      <c r="BE28" s="3">
+        <v>324071.00063605746</v>
+      </c>
+      <c r="BQ28" s="3">
         <f t="shared" si="119"/>
-        <v>190719.91957859241</v>
-      </c>
-      <c r="BF28" s="3">
+        <v>330552.42064877861</v>
+      </c>
+      <c r="BR28" s="3">
         <f t="shared" si="119"/>
-        <v>207976.84183220734</v>
-      </c>
-      <c r="BG28" s="3">
+        <v>337163.46906175418</v>
+      </c>
+      <c r="BS28" s="3">
         <f t="shared" si="119"/>
-        <v>226611.76628859938</v>
-      </c>
-      <c r="BH28" s="3">
+        <v>343906.73844298924</v>
+      </c>
+      <c r="BT28" s="3">
         <f t="shared" si="119"/>
-        <v>246736.34065134593</v>
-      </c>
-      <c r="BI28" s="3">
+        <v>350784.87321184902</v>
+      </c>
+      <c r="BU28" s="3">
         <f t="shared" si="119"/>
-        <v>268471.78009425662</v>
-      </c>
-      <c r="BJ28" s="3">
+        <v>357800.570676086</v>
+      </c>
+      <c r="BV28" s="3">
         <f t="shared" si="119"/>
-        <v>291949.73479237128</v>
-      </c>
-      <c r="BK28" s="3">
-        <f t="shared" ref="BK28:CP28" si="120">+BJ28*(1+$BM$34)</f>
-        <v>297788.72948821873</v>
-      </c>
-      <c r="BL28" s="3">
+        <v>364956.58208960772</v>
+      </c>
+      <c r="BW28" s="3">
+        <f t="shared" si="119"/>
+        <v>372255.71373139985</v>
+      </c>
+      <c r="BX28" s="3">
+        <f t="shared" si="119"/>
+        <v>379700.82800602785</v>
+      </c>
+      <c r="BY28" s="3">
+        <f t="shared" si="119"/>
+        <v>387294.84456614841</v>
+      </c>
+      <c r="BZ28" s="3">
+        <f t="shared" si="119"/>
+        <v>395040.74145747139</v>
+      </c>
+      <c r="CA28" s="3">
+        <f t="shared" si="119"/>
+        <v>402941.55628662085</v>
+      </c>
+      <c r="CB28" s="3">
+        <f t="shared" si="119"/>
+        <v>411000.3874123533</v>
+      </c>
+      <c r="CC28" s="3">
+        <f t="shared" si="119"/>
+        <v>419220.39516060037</v>
+      </c>
+      <c r="CD28" s="3">
+        <f t="shared" si="119"/>
+        <v>427604.80306381237</v>
+      </c>
+      <c r="CE28" s="3">
+        <f t="shared" si="119"/>
+        <v>436156.89912508865</v>
+      </c>
+      <c r="CF28" s="3">
+        <f t="shared" si="119"/>
+        <v>444880.03710759041</v>
+      </c>
+      <c r="CG28" s="3">
+        <f t="shared" si="119"/>
+        <v>453777.63784974226</v>
+      </c>
+      <c r="CH28" s="3">
+        <f t="shared" si="119"/>
+        <v>462853.1906067371</v>
+      </c>
+      <c r="CI28" s="3">
+        <f t="shared" si="119"/>
+        <v>472110.25441887183</v>
+      </c>
+      <c r="CJ28" s="3">
+        <f t="shared" si="119"/>
+        <v>481552.4595072493</v>
+      </c>
+      <c r="CK28" s="3">
+        <f t="shared" si="119"/>
+        <v>491183.50869739428</v>
+      </c>
+      <c r="CL28" s="3">
+        <f t="shared" si="119"/>
+        <v>501007.17887134216</v>
+      </c>
+      <c r="CM28" s="3">
+        <f t="shared" si="119"/>
+        <v>511027.322448769</v>
+      </c>
+      <c r="CN28" s="3">
+        <f t="shared" si="119"/>
+        <v>521247.8688977444</v>
+      </c>
+      <c r="CO28" s="3">
+        <f t="shared" si="119"/>
+        <v>531672.82627569931</v>
+      </c>
+      <c r="CP28" s="3">
+        <f t="shared" si="119"/>
+        <v>542306.28280121333</v>
+      </c>
+      <c r="CQ28" s="3">
+        <f t="shared" ref="CQ28:DJ28" si="120">+CP28*(1+$BM$34)</f>
+        <v>553152.40845723765</v>
+      </c>
+      <c r="CR28" s="3">
         <f t="shared" si="120"/>
-        <v>303744.50407798309</v>
-      </c>
-      <c r="BM28" s="3">
+        <v>564215.45662638242</v>
+      </c>
+      <c r="CS28" s="3">
         <f t="shared" si="120"/>
-        <v>309819.39415954275</v>
-      </c>
-      <c r="BN28" s="3">
+        <v>575499.7657589101</v>
+      </c>
+      <c r="CT28" s="3">
         <f t="shared" si="120"/>
-        <v>316015.78204273363</v>
-      </c>
-      <c r="BO28" s="3">
+        <v>587009.76107408828</v>
+      </c>
+      <c r="CU28" s="3">
         <f t="shared" si="120"/>
-        <v>322336.09768358828</v>
-      </c>
-      <c r="BP28" s="3">
+        <v>598749.95629557001</v>
+      </c>
+      <c r="CV28" s="3">
         <f t="shared" si="120"/>
-        <v>328782.81963726005</v>
-      </c>
-      <c r="BQ28" s="3">
+        <v>610724.9554214814</v>
+      </c>
+      <c r="CW28" s="3">
         <f t="shared" si="120"/>
-        <v>335358.47603000526</v>
-      </c>
-      <c r="BR28" s="3">
+        <v>622939.45452991105</v>
+      </c>
+      <c r="CX28" s="3">
         <f t="shared" si="120"/>
-        <v>342065.64555060538</v>
-      </c>
-      <c r="BS28" s="3">
+        <v>635398.24362050928</v>
+      </c>
+      <c r="CY28" s="3">
         <f t="shared" si="120"/>
-        <v>348906.95846161747</v>
-      </c>
-      <c r="BT28" s="3">
+        <v>648106.20849291945</v>
+      </c>
+      <c r="CZ28" s="3">
         <f t="shared" si="120"/>
-        <v>355885.09763084981</v>
-      </c>
-      <c r="BU28" s="3">
+        <v>661068.33266277786</v>
+      </c>
+      <c r="DA28" s="3">
         <f t="shared" si="120"/>
-        <v>363002.79958346678</v>
-      </c>
-      <c r="BV28" s="3">
+        <v>674289.6993160334</v>
+      </c>
+      <c r="DB28" s="3">
         <f t="shared" si="120"/>
-        <v>370262.85557513614</v>
-      </c>
-      <c r="BW28" s="3">
+        <v>687775.49330235412</v>
+      </c>
+      <c r="DC28" s="3">
         <f t="shared" si="120"/>
-        <v>377668.11268663889</v>
-      </c>
-      <c r="BX28" s="3">
+        <v>701531.00316840119</v>
+      </c>
+      <c r="DD28" s="3">
         <f t="shared" si="120"/>
-        <v>385221.4749403717</v>
-      </c>
-      <c r="BY28" s="3">
+        <v>715561.62323176919</v>
+      </c>
+      <c r="DE28" s="3">
         <f t="shared" si="120"/>
-        <v>392925.90443917917</v>
-      </c>
-      <c r="BZ28" s="3">
+        <v>729872.85569640459</v>
+      </c>
+      <c r="DF28" s="3">
         <f t="shared" si="120"/>
-        <v>400784.42252796277</v>
-      </c>
-      <c r="CA28" s="3">
+        <v>744470.31281033275</v>
+      </c>
+      <c r="DG28" s="3">
         <f t="shared" si="120"/>
-        <v>408800.11097852205</v>
-      </c>
-      <c r="CB28" s="3">
+        <v>759359.71906653943</v>
+      </c>
+      <c r="DH28" s="3">
         <f t="shared" si="120"/>
-        <v>416976.1131980925</v>
-      </c>
-      <c r="CC28" s="3">
+        <v>774546.91344787017</v>
+      </c>
+      <c r="DI28" s="3">
         <f t="shared" si="120"/>
-        <v>425315.63546205434</v>
-      </c>
-      <c r="CD28" s="3">
+        <v>790037.8517168276</v>
+      </c>
+      <c r="DJ28" s="3">
         <f t="shared" si="120"/>
-        <v>433821.94817129546</v>
-      </c>
-      <c r="CE28" s="3">
-        <f t="shared" si="120"/>
-        <v>442498.38713472139</v>
-      </c>
-      <c r="CF28" s="3">
-        <f t="shared" si="120"/>
-        <v>451348.35487741581</v>
-      </c>
-      <c r="CG28" s="3">
-        <f t="shared" si="120"/>
-        <v>460375.32197496411</v>
-      </c>
-      <c r="CH28" s="3">
-        <f t="shared" si="120"/>
-        <v>469582.82841446338</v>
-      </c>
-      <c r="CI28" s="3">
-        <f t="shared" si="120"/>
-        <v>478974.48498275265</v>
-      </c>
-      <c r="CJ28" s="3">
-        <f t="shared" si="120"/>
-        <v>488553.97468240769</v>
-      </c>
-      <c r="CK28" s="3">
-        <f t="shared" si="120"/>
-        <v>498325.05417605583</v>
-      </c>
-      <c r="CL28" s="3">
-        <f t="shared" si="120"/>
-        <v>508291.55525957694</v>
-      </c>
-      <c r="CM28" s="3">
-        <f t="shared" si="120"/>
-        <v>518457.38636476849</v>
-      </c>
-      <c r="CN28" s="3">
-        <f t="shared" si="120"/>
-        <v>528826.5340920639</v>
-      </c>
-      <c r="CO28" s="3">
-        <f t="shared" si="120"/>
-        <v>539403.06477390521</v>
-      </c>
-      <c r="CP28" s="3">
-        <f t="shared" si="120"/>
-        <v>550191.12606938335</v>
-      </c>
-      <c r="CQ28" s="3">
-        <f t="shared" ref="CQ28:DJ28" si="121">+CP28*(1+$BM$34)</f>
-        <v>561194.94859077106</v>
-      </c>
-      <c r="CR28" s="3">
-        <f t="shared" si="121"/>
-        <v>572418.84756258654</v>
-      </c>
-      <c r="CS28" s="3">
-        <f t="shared" si="121"/>
-        <v>583867.2245138383</v>
-      </c>
-      <c r="CT28" s="3">
-        <f t="shared" si="121"/>
-        <v>595544.56900411507</v>
-      </c>
-      <c r="CU28" s="3">
-        <f t="shared" si="121"/>
-        <v>607455.46038419742</v>
-      </c>
-      <c r="CV28" s="3">
-        <f t="shared" si="121"/>
-        <v>619604.56959188136</v>
-      </c>
-      <c r="CW28" s="3">
-        <f t="shared" si="121"/>
-        <v>631996.66098371905</v>
-      </c>
-      <c r="CX28" s="3">
-        <f t="shared" si="121"/>
-        <v>644636.59420339344</v>
-      </c>
-      <c r="CY28" s="3">
-        <f t="shared" si="121"/>
-        <v>657529.32608746132</v>
-      </c>
-      <c r="CZ28" s="3">
-        <f t="shared" si="121"/>
-        <v>670679.91260921059</v>
-      </c>
-      <c r="DA28" s="3">
-        <f t="shared" si="121"/>
-        <v>684093.51086139481</v>
-      </c>
-      <c r="DB28" s="3">
-        <f t="shared" si="121"/>
-        <v>697775.38107862277</v>
-      </c>
-      <c r="DC28" s="3">
-        <f t="shared" si="121"/>
-        <v>711730.88870019524</v>
-      </c>
-      <c r="DD28" s="3">
-        <f t="shared" si="121"/>
-        <v>725965.50647419912</v>
-      </c>
-      <c r="DE28" s="3">
-        <f t="shared" si="121"/>
-        <v>740484.81660368317</v>
-      </c>
-      <c r="DF28" s="3">
-        <f t="shared" si="121"/>
-        <v>755294.51293575682</v>
-      </c>
-      <c r="DG28" s="3">
-        <f t="shared" si="121"/>
-        <v>770400.40319447196</v>
-      </c>
-      <c r="DH28" s="3">
-        <f t="shared" si="121"/>
-        <v>785808.41125836142</v>
-      </c>
-      <c r="DI28" s="3">
-        <f t="shared" si="121"/>
-        <v>801524.57948352862</v>
-      </c>
-      <c r="DJ28" s="3">
-        <f t="shared" si="121"/>
-        <v>817555.07107319916</v>
+        <v>805838.60875116417</v>
       </c>
     </row>
     <row r="29" spans="2:114" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -6567,42 +6561,42 @@
         <v>32</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29" si="122">C28/C30</f>
+        <f t="shared" ref="C29" si="121">C28/C30</f>
         <v>11.919318455824756</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
-        <f t="shared" ref="G29" si="123">G28/G30</f>
+        <f t="shared" ref="G29" si="122">G28/G30</f>
         <v>9.8748026411774639</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29" si="124">H28/H30</f>
+        <f t="shared" ref="H29" si="123">H28/H30</f>
         <v>10.129194904399265</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" ref="I29" si="125">I28/I30</f>
+        <f t="shared" ref="I29" si="124">I28/I30</f>
         <v>16.398605528022852</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" ref="J29" si="126">J28/J30</f>
+        <f t="shared" ref="J29" si="125">J28/J30</f>
         <v>22.295301836540162</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" ref="K29:N29" si="127">K28/K30</f>
+        <f t="shared" ref="K29:N29" si="126">K28/K30</f>
         <v>26.287585896482916</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>27.990344690984287</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>30.69474329100823</v>
       </c>
       <c r="O29" s="14">
@@ -6610,64 +6604,64 @@
         <v>24.621339792764896</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" ref="P29:AD29" si="128">P28/P30</f>
+        <f t="shared" ref="P29:AD29" si="127">P28/P30</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.0620752844162786</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.0522901058160192</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.1737502924432659</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.4544302795154012</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.5508034026465027</v>
       </c>
       <c r="V29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.6041898111410886</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.7098267741677975</v>
       </c>
       <c r="X29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.8902761104441776</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.8613414928738223</v>
       </c>
       <c r="Z29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>2.1544379656624555</v>
       </c>
       <c r="AA29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.8613269872264253</v>
       </c>
       <c r="AB29" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>2.3115264797507789</v>
       </c>
       <c r="AC29" s="14">
-        <f t="shared" si="128"/>
-        <v>2.229007317593048</v>
+        <f t="shared" si="127"/>
+        <v>1.9868065229861509</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="128"/>
-        <v>2.5630900396786358</v>
+        <f t="shared" si="127"/>
+        <v>2.5620398511841347</v>
       </c>
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
@@ -6691,52 +6685,52 @@
         <v>5.8262287763546796</v>
       </c>
       <c r="AY29" s="17">
-        <f t="shared" ref="AY29:BE29" si="129">AY28/AY30</f>
-        <v>7.7534622072210286</v>
+        <f t="shared" ref="AY29:BE29" si="128">AY28/AY30</f>
+        <v>7.7518764699867058</v>
       </c>
       <c r="AZ29" s="17">
+        <f t="shared" si="128"/>
+        <v>8.7193489971571729</v>
+      </c>
+      <c r="BA29" s="17">
+        <f t="shared" si="128"/>
+        <v>9.6896737797254069</v>
+      </c>
+      <c r="BB29" s="17">
+        <f t="shared" si="128"/>
+        <v>11.475627025609214</v>
+      </c>
+      <c r="BC29" s="17">
+        <f t="shared" si="128"/>
+        <v>12.613661484831761</v>
+      </c>
+      <c r="BD29" s="17">
+        <f t="shared" si="128"/>
+        <v>14.014502692066802</v>
+      </c>
+      <c r="BE29" s="17">
+        <f t="shared" si="128"/>
+        <v>15.31161741541098</v>
+      </c>
+      <c r="BF29" s="17">
+        <f t="shared" ref="BF29:BJ29" si="129">BF28/BF30</f>
+        <v>16.713008969904312</v>
+      </c>
+      <c r="BG29" s="17">
         <f t="shared" si="129"/>
-        <v>8.9620598190856082</v>
-      </c>
-      <c r="BA29" s="17">
+        <v>18.227125260261886</v>
+      </c>
+      <c r="BH29" s="17">
         <f t="shared" si="129"/>
-        <v>9.9371054143556883</v>
-      </c>
-      <c r="BB29" s="17">
+        <v>19.863136210099015</v>
+      </c>
+      <c r="BI29" s="17">
         <f t="shared" si="129"/>
-        <v>11.733574533150362</v>
-      </c>
-      <c r="BC29" s="17">
+        <v>21.630999048807077</v>
+      </c>
+      <c r="BJ29" s="17">
         <f t="shared" si="129"/>
-        <v>12.888089661779365</v>
-      </c>
-      <c r="BD29" s="17">
-        <f t="shared" si="129"/>
-        <v>14.297893138468568</v>
-      </c>
-      <c r="BE29" s="17">
-        <f t="shared" si="129"/>
-        <v>15.605598410849334</v>
-      </c>
-      <c r="BF29" s="17">
-        <f t="shared" ref="BF29:BJ29" si="130">BF28/BF30</f>
-        <v>17.017640734966335</v>
-      </c>
-      <c r="BG29" s="17">
-        <f t="shared" si="130"/>
-        <v>18.54243766297223</v>
-      </c>
-      <c r="BH29" s="17">
-        <f t="shared" si="130"/>
-        <v>20.189124733668482</v>
-      </c>
-      <c r="BI29" s="17">
-        <f t="shared" si="130"/>
-        <v>21.967620341148134</v>
-      </c>
-      <c r="BJ29" s="17">
-        <f t="shared" si="130"/>
-        <v>23.888696720251307</v>
+        <v>23.54152975652007</v>
       </c>
     </row>
     <row r="30" spans="2:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6816,12 +6810,11 @@
         <v>12198</v>
       </c>
       <c r="AC30" s="11">
-        <f>+AB30</f>
-        <v>12198</v>
+        <v>12203</v>
       </c>
       <c r="AD30" s="11">
         <f>+AC30</f>
-        <v>12198</v>
+        <v>12203</v>
       </c>
       <c r="AE30" s="11"/>
       <c r="AF30" s="11"/>
@@ -6850,51 +6843,51 @@
       </c>
       <c r="AY30" s="3">
         <f>AVERAGE(AA30:AD30)</f>
-        <v>12221.25</v>
+        <v>12223.75</v>
       </c>
       <c r="AZ30" s="3">
-        <f t="shared" ref="AZ30:BE30" si="131">+AY30</f>
-        <v>12221.25</v>
+        <f t="shared" ref="AZ30:BE30" si="130">+AY30</f>
+        <v>12223.75</v>
       </c>
       <c r="BA30" s="3">
-        <f t="shared" si="131"/>
-        <v>12221.25</v>
+        <f t="shared" si="130"/>
+        <v>12223.75</v>
       </c>
       <c r="BB30" s="3">
-        <f t="shared" si="131"/>
-        <v>12221.25</v>
+        <f t="shared" si="130"/>
+        <v>12223.75</v>
       </c>
       <c r="BC30" s="3">
-        <f t="shared" si="131"/>
-        <v>12221.25</v>
+        <f t="shared" si="130"/>
+        <v>12223.75</v>
       </c>
       <c r="BD30" s="3">
-        <f t="shared" si="131"/>
-        <v>12221.25</v>
+        <f t="shared" si="130"/>
+        <v>12223.75</v>
       </c>
       <c r="BE30" s="3">
-        <f t="shared" si="131"/>
-        <v>12221.25</v>
+        <f t="shared" si="130"/>
+        <v>12223.75</v>
       </c>
       <c r="BF30" s="3">
-        <f t="shared" ref="BF30" si="132">+BE30</f>
-        <v>12221.25</v>
+        <f t="shared" ref="BF30" si="131">+BE30</f>
+        <v>12223.75</v>
       </c>
       <c r="BG30" s="3">
-        <f t="shared" ref="BG30" si="133">+BF30</f>
-        <v>12221.25</v>
+        <f t="shared" ref="BG30" si="132">+BF30</f>
+        <v>12223.75</v>
       </c>
       <c r="BH30" s="3">
-        <f t="shared" ref="BH30" si="134">+BG30</f>
-        <v>12221.25</v>
+        <f t="shared" ref="BH30" si="133">+BG30</f>
+        <v>12223.75</v>
       </c>
       <c r="BI30" s="3">
-        <f t="shared" ref="BI30" si="135">+BH30</f>
-        <v>12221.25</v>
+        <f t="shared" ref="BI30" si="134">+BH30</f>
+        <v>12223.75</v>
       </c>
       <c r="BJ30" s="3">
-        <f t="shared" ref="BJ30" si="136">+BI30</f>
-        <v>12221.25</v>
+        <f t="shared" ref="BJ30" si="135">+BI30</f>
+        <v>12223.75</v>
       </c>
     </row>
     <row r="32" spans="2:114" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -6910,19 +6903,19 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
-        <f t="shared" ref="K32:L32" si="137">K16/G16-1</f>
+        <f t="shared" ref="K32:L32" si="136">K16/G16-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>0.61579235971486024</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" ref="M32" si="138">M16/I16-1</f>
+        <f t="shared" ref="M32" si="137">M16/I16-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" ref="N32" si="139">N16/J16-1</f>
+        <f t="shared" ref="N32" si="138">N16/J16-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="O32" s="16">
@@ -6930,11 +6923,11 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" ref="P32:T32" si="140">P16/L16-1</f>
+        <f t="shared" ref="P32:T32" si="139">P16/L16-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>6.1027672840074931E-2</v>
       </c>
       <c r="R32" s="16">
@@ -6946,47 +6939,47 @@
         <v>2.6113422828660138E-2</v>
       </c>
       <c r="T32" s="16">
+        <f t="shared" si="139"/>
+        <v>7.0589079428858392E-2</v>
+      </c>
+      <c r="U32" s="16">
+        <f t="shared" ref="U32:Z32" si="140">U16/Q16-1</f>
+        <v>0.11001273664100042</v>
+      </c>
+      <c r="V32" s="16">
         <f t="shared" si="140"/>
-        <v>7.0589079428858392E-2</v>
-      </c>
-      <c r="U32" s="16">
-        <f t="shared" ref="U32:Z32" si="141">U16/Q16-1</f>
-        <v>0.11001273664100042</v>
-      </c>
-      <c r="V32" s="16">
-        <f t="shared" si="141"/>
         <v>0.13494108983799702</v>
       </c>
       <c r="W32" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>0.15406880937710454</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="Y32" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>0.15092642092498654</v>
       </c>
       <c r="Z32" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>0.11770362646275045</v>
       </c>
       <c r="AA32" s="16">
-        <f t="shared" ref="AA32" si="142">AA16/W16-1</f>
+        <f t="shared" ref="AA32" si="141">AA16/W16-1</f>
         <v>0.12037646357665222</v>
       </c>
       <c r="AB32" s="16">
-        <f t="shared" ref="AB32" si="143">AB16/X16-1</f>
+        <f t="shared" ref="AB32" si="142">AB16/X16-1</f>
         <v>0.13790092280097244</v>
       </c>
       <c r="AC32" s="16">
-        <f t="shared" ref="AC32" si="144">AC16/Y16-1</f>
-        <v>0.12499263606289945</v>
+        <f t="shared" ref="AC32" si="143">AC16/Y16-1</f>
+        <v>0.1594915484660353</v>
       </c>
       <c r="AD32" s="16">
-        <f t="shared" ref="AD32" si="145">AD16/Z16-1</f>
+        <f t="shared" ref="AD32" si="144">AD16/Z16-1</f>
         <v>0.12449429350361263</v>
       </c>
       <c r="AE32" s="16"/>
@@ -6996,96 +6989,96 @@
       <c r="AI32" s="16"/>
       <c r="AJ32" s="16"/>
       <c r="AN32" s="18">
-        <f t="shared" ref="AN32:AW32" si="146">AN16/AM16-1</f>
+        <f t="shared" ref="AN32:AW32" si="145">AN16/AM16-1</f>
         <v>0.2059123786355046</v>
       </c>
       <c r="AO32" s="18">
+        <f t="shared" si="145"/>
+        <v>0.18880023055170292</v>
+      </c>
+      <c r="AP32" s="18">
+        <f t="shared" si="145"/>
+        <v>0.13617975485219924</v>
+      </c>
+      <c r="AQ32" s="18">
+        <f t="shared" si="145"/>
+        <v>0.20380322447292265</v>
+      </c>
+      <c r="AR32" s="18">
+        <f t="shared" si="145"/>
+        <v>0.22801090038993266</v>
+      </c>
+      <c r="AS32" s="18">
+        <f t="shared" si="145"/>
+        <v>0.23421586757475987</v>
+      </c>
+      <c r="AT32" s="18">
+        <f t="shared" si="145"/>
+        <v>0.18300089899794614</v>
+      </c>
+      <c r="AU32" s="18">
+        <f t="shared" si="145"/>
+        <v>0.12770532012826141</v>
+      </c>
+      <c r="AV32" s="18">
+        <f t="shared" si="145"/>
+        <v>0.41150076427049154</v>
+      </c>
+      <c r="AW32" s="18">
+        <f t="shared" si="145"/>
+        <v>9.7808156437157789E-2</v>
+      </c>
+      <c r="AX32" s="18">
+        <f t="shared" ref="AX32:BE32" si="146">AX16/AW16-1</f>
+        <v>8.6827702272695095E-2</v>
+      </c>
+      <c r="AY32" s="18">
         <f t="shared" si="146"/>
-        <v>0.18880023055170292</v>
-      </c>
-      <c r="AP32" s="18">
+        <v>0.13866243322901561</v>
+      </c>
+      <c r="AZ32" s="18">
         <f t="shared" si="146"/>
-        <v>0.13617975485219924</v>
-      </c>
-      <c r="AQ32" s="18">
+        <v>0.13578684524795848</v>
+      </c>
+      <c r="BA32" s="18">
         <f t="shared" si="146"/>
-        <v>0.20380322447292265</v>
-      </c>
-      <c r="AR32" s="18">
+        <v>0.10938903850685522</v>
+      </c>
+      <c r="BB32" s="18">
         <f t="shared" si="146"/>
-        <v>0.22801090038993266</v>
-      </c>
-      <c r="AS32" s="18">
+        <v>0.11555918101268103</v>
+      </c>
+      <c r="BC32" s="18">
         <f t="shared" si="146"/>
-        <v>0.23421586757475987</v>
-      </c>
-      <c r="AT32" s="18">
+        <v>6.7148527515268563E-2</v>
+      </c>
+      <c r="BD32" s="18">
         <f t="shared" si="146"/>
-        <v>0.18300089899794614</v>
-      </c>
-      <c r="AU32" s="18">
+        <v>6.7599718310872303E-2</v>
+      </c>
+      <c r="BE32" s="18">
         <f t="shared" si="146"/>
-        <v>0.12770532012826141</v>
-      </c>
-      <c r="AV32" s="18">
-        <f t="shared" si="146"/>
-        <v>0.41150076427049154</v>
-      </c>
-      <c r="AW32" s="18">
-        <f t="shared" si="146"/>
-        <v>9.7808156437157789E-2</v>
-      </c>
-      <c r="AX32" s="18">
-        <f t="shared" ref="AX32:BE32" si="147">AX16/AW16-1</f>
-        <v>8.6827702272695095E-2</v>
-      </c>
-      <c r="AY32" s="18">
-        <f t="shared" si="147"/>
-        <v>0.13866243322901561</v>
-      </c>
-      <c r="AZ32" s="18">
-        <f t="shared" si="147"/>
-        <v>0.12649546594746575</v>
-      </c>
-      <c r="BA32" s="18">
-        <f t="shared" si="147"/>
-        <v>0.1094447151817215</v>
-      </c>
-      <c r="BB32" s="18">
-        <f t="shared" si="147"/>
-        <v>0.11561817472224156</v>
-      </c>
-      <c r="BC32" s="18">
-        <f t="shared" si="147"/>
-        <v>6.7167030480645096E-2</v>
-      </c>
-      <c r="BD32" s="18">
-        <f t="shared" si="147"/>
-        <v>6.7618103338500601E-2</v>
-      </c>
-      <c r="BE32" s="18">
-        <f t="shared" si="147"/>
-        <v>5.711933715542461E-2</v>
+        <v>5.7102656552864506E-2</v>
       </c>
       <c r="BF32" s="18">
-        <f t="shared" ref="BF32" si="148">BF16/BE16-1</f>
-        <v>5.7623115395354363E-2</v>
+        <f t="shared" ref="BF32" si="147">BF16/BE16-1</f>
+        <v>5.7606207856128133E-2</v>
       </c>
       <c r="BG32" s="18">
-        <f t="shared" ref="BG32" si="149">BG16/BF16-1</f>
-        <v>5.8137740986402786E-2</v>
+        <f t="shared" ref="BG32" si="148">BG16/BF16-1</f>
+        <v>5.8120617001720998E-2</v>
       </c>
       <c r="BH32" s="18">
-        <f t="shared" ref="BH32" si="150">BH16/BG16-1</f>
-        <v>5.8663122386287903E-2</v>
+        <f t="shared" ref="BH32" si="149">BH16/BG16-1</f>
+        <v>5.8645793002221724E-2</v>
       </c>
       <c r="BI32" s="18">
-        <f t="shared" ref="BI32" si="151">BI16/BH16-1</f>
-        <v>5.919913494239526E-2</v>
+        <f t="shared" ref="BI32" si="150">BI16/BH16-1</f>
+        <v>5.9181611771961684E-2</v>
       </c>
       <c r="BJ32" s="18">
-        <f t="shared" ref="BJ32" si="152">BJ16/BI16-1</f>
-        <v>5.9745619769687286E-2</v>
+        <f t="shared" ref="BJ32" si="151">BJ16/BI16-1</f>
+        <v>5.9727915000574505E-2</v>
       </c>
     </row>
     <row r="33" spans="2:65" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -7142,7 +7135,9 @@
       <c r="AB33" s="16">
         <v>0.13</v>
       </c>
-      <c r="AC33" s="16"/>
+      <c r="AC33" s="16">
+        <v>0.15</v>
+      </c>
       <c r="AD33" s="16"/>
       <c r="AE33" s="16"/>
       <c r="AF33" s="16"/>
@@ -7169,19 +7164,19 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15">
-        <f t="shared" ref="K34" si="153">+K14/G14-1</f>
+        <f t="shared" ref="K34" si="152">+K14/G14-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" ref="L34:N34" si="154">+L14/H14-1</f>
+        <f t="shared" ref="L34:N34" si="153">+L14/H14-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O34" s="15">
@@ -7201,51 +7196,51 @@
         <v>-1.6096625943973542E-2</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34:V34" si="155">+S14/O14-1</f>
+        <f t="shared" ref="S34:V34" si="154">+S14/O14-1</f>
         <v>1.8703619566863505E-2</v>
       </c>
       <c r="T34" s="15">
+        <f t="shared" si="154"/>
+        <v>4.7654157143208309E-2</v>
+      </c>
+      <c r="U34" s="15">
+        <f t="shared" si="154"/>
+        <v>0.11348289031083225</v>
+      </c>
+      <c r="V34" s="15">
+        <f t="shared" si="154"/>
+        <v>0.12712421368885551</v>
+      </c>
+      <c r="W34" s="15">
+        <f t="shared" ref="W34:X34" si="155">+W14/S14-1</f>
+        <v>0.14363586808394668</v>
+      </c>
+      <c r="X34" s="15">
         <f t="shared" si="155"/>
-        <v>4.7654157143208309E-2</v>
-      </c>
-      <c r="U34" s="15">
-        <f t="shared" si="155"/>
-        <v>0.11348289031083225</v>
-      </c>
-      <c r="V34" s="15">
-        <f t="shared" si="155"/>
-        <v>0.12712421368885551</v>
-      </c>
-      <c r="W34" s="15">
-        <f t="shared" ref="W34:X34" si="156">+W14/S14-1</f>
-        <v>0.14363586808394668</v>
-      </c>
-      <c r="X34" s="15">
-        <f t="shared" si="156"/>
         <v>0.13796096462419061</v>
       </c>
       <c r="Y34" s="15">
-        <f t="shared" ref="Y34" si="157">+Y14/U14-1</f>
+        <f t="shared" ref="Y34" si="156">+Y14/U14-1</f>
         <v>0.12172352700676869</v>
       </c>
       <c r="Z34" s="15">
-        <f t="shared" ref="Z34" si="158">+Z14/V14-1</f>
+        <f t="shared" ref="Z34" si="157">+Z14/V14-1</f>
         <v>0.12523948354852155</v>
       </c>
       <c r="AA34" s="15">
-        <f t="shared" ref="AA34" si="159">+AA14/W14-1</f>
+        <f t="shared" ref="AA34" si="158">+AA14/W14-1</f>
         <v>9.8492070370049367E-2</v>
       </c>
       <c r="AB34" s="15">
-        <f t="shared" ref="AB34" si="160">+AB14/X14-1</f>
+        <f t="shared" ref="AB34" si="159">+AB14/X14-1</f>
         <v>0.11711228844132027</v>
       </c>
       <c r="AC34" s="15">
-        <f t="shared" ref="AC34" si="161">+AC14/Y14-1</f>
-        <v>0.1100000000000001</v>
+        <f t="shared" ref="AC34" si="160">+AC14/Y14-1</f>
+        <v>0.14542877391920617</v>
       </c>
       <c r="AD34" s="15">
-        <f t="shared" ref="AD34" si="162">+AD14/Z14-1</f>
+        <f t="shared" ref="AD34" si="161">+AD14/Z14-1</f>
         <v>0.1100000000000001</v>
       </c>
       <c r="AE34" s="15"/>
@@ -7254,23 +7249,23 @@
       <c r="AH34" s="15"/>
       <c r="AI34" s="15"/>
       <c r="AS34" s="5">
-        <f t="shared" ref="AS34:AW34" si="163">+AS14/AR14-1</f>
+        <f t="shared" ref="AS34:AW34" si="162">+AS14/AR14-1</f>
         <v>0.22181318130380601</v>
       </c>
       <c r="AT34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.15028840742824978</v>
       </c>
       <c r="AU34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>6.0612546501554343E-2</v>
       </c>
       <c r="AV34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>0.43136783840402826</v>
       </c>
       <c r="AW34" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>9.0627118985438182E-2</v>
       </c>
       <c r="AX34" s="5">
@@ -7278,51 +7273,51 @@
         <v>7.7457679285934056E-2</v>
       </c>
       <c r="AY34" s="15">
-        <f t="shared" ref="AY34:BE34" si="164">+AY14/AX14-1</f>
+        <f t="shared" ref="AY34:BE34" si="163">+AY14/AX14-1</f>
         <v>0.13169516605440124</v>
       </c>
       <c r="AZ34" s="15">
         <f>+AZ14/AY14-1</f>
-        <v>0.10906024716786833</v>
+        <v>0.11789311605177599</v>
       </c>
       <c r="BA34" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB34" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BC34" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="BD34" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="BE34" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF34" s="15">
-        <f t="shared" ref="BF34" si="165">+BF14/BE14-1</f>
+        <f t="shared" ref="BF34" si="164">+BF14/BE14-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BG34" s="15">
-        <f t="shared" ref="BG34" si="166">+BG14/BF14-1</f>
+        <f t="shared" ref="BG34" si="165">+BG14/BF14-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BH34" s="15">
-        <f t="shared" ref="BH34" si="167">+BH14/BG14-1</f>
+        <f t="shared" ref="BH34" si="166">+BH14/BG14-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BI34" s="15">
-        <f t="shared" ref="BI34" si="168">+BI14/BH14-1</f>
+        <f t="shared" ref="BI34" si="167">+BI14/BH14-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BJ34" s="15">
-        <f t="shared" ref="BJ34" si="169">+BJ14/BI14-1</f>
+        <f t="shared" ref="BJ34" si="168">+BJ14/BI14-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BL34" s="18" t="s">
@@ -7345,31 +7340,31 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15">
-        <f t="shared" ref="K35" si="170">+K13/G13-1</f>
+        <f t="shared" ref="K35" si="169">+K13/G13-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" ref="L35:Q35" si="171">+L13/H13-1</f>
+        <f t="shared" ref="L35:Q35" si="170">+L13/H13-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="R35" s="15">
@@ -7377,51 +7372,51 @@
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" ref="S35:V35" si="172">+S13/O13-1</f>
+        <f t="shared" ref="S35:V35" si="171">+S13/O13-1</f>
         <v>-2.5622361333527466E-2</v>
       </c>
       <c r="T35" s="15">
+        <f t="shared" si="171"/>
+        <v>4.4277929155313256E-2</v>
+      </c>
+      <c r="U35" s="15">
+        <f t="shared" si="171"/>
+        <v>0.12459340970159816</v>
+      </c>
+      <c r="V35" s="15">
+        <f t="shared" si="171"/>
+        <v>0.15534346351877426</v>
+      </c>
+      <c r="W35" s="15">
+        <f t="shared" ref="W35:X35" si="172">+W13/S13-1</f>
+        <v>0.20872553414014638</v>
+      </c>
+      <c r="X35" s="15">
         <f t="shared" si="172"/>
-        <v>4.4277929155313256E-2</v>
-      </c>
-      <c r="U35" s="15">
-        <f t="shared" si="172"/>
-        <v>0.12459340970159816</v>
-      </c>
-      <c r="V35" s="15">
-        <f t="shared" si="172"/>
-        <v>0.15534346351877426</v>
-      </c>
-      <c r="W35" s="15">
-        <f t="shared" ref="W35:X35" si="173">+W13/S13-1</f>
-        <v>0.20872553414014638</v>
-      </c>
-      <c r="X35" s="15">
-        <f t="shared" si="173"/>
         <v>0.13020221787345077</v>
       </c>
       <c r="Y35" s="15">
-        <f t="shared" ref="Y35" si="174">+Y13/U13-1</f>
+        <f t="shared" ref="Y35" si="173">+Y13/U13-1</f>
         <v>0.12185613682092544</v>
       </c>
       <c r="Z35" s="15">
-        <f t="shared" ref="Z35" si="175">+Z13/V13-1</f>
+        <f t="shared" ref="Z35" si="174">+Z13/V13-1</f>
         <v>0.1383695652173913</v>
       </c>
       <c r="AA35" s="15">
-        <f t="shared" ref="AA35" si="176">+AA13/W13-1</f>
+        <f t="shared" ref="AA35" si="175">+AA13/W13-1</f>
         <v>0.10346106304079106</v>
       </c>
       <c r="AB35" s="15">
-        <f t="shared" ref="AB35" si="177">+AB13/X13-1</f>
+        <f t="shared" ref="AB35" si="176">+AB13/X13-1</f>
         <v>0.1307861018123051</v>
       </c>
       <c r="AC35" s="15">
-        <f t="shared" ref="AC35" si="178">+AC13/Y13-1</f>
-        <v>0.12000000000000011</v>
+        <f t="shared" ref="AC35" si="177">+AC13/Y13-1</f>
+        <v>0.15020737585472488</v>
       </c>
       <c r="AD35" s="15">
-        <f t="shared" ref="AD35" si="179">+AD13/Z13-1</f>
+        <f t="shared" ref="AD35" si="178">+AD13/Z13-1</f>
         <v>0.12000000000000011</v>
       </c>
       <c r="AE35" s="15"/>
@@ -7430,19 +7425,19 @@
       <c r="AH35" s="15"/>
       <c r="AI35" s="15"/>
       <c r="AS35" s="5">
-        <f t="shared" ref="AS35:AV35" si="180">+AS13/AR13-1</f>
+        <f t="shared" ref="AS35:AV35" si="179">+AS13/AR13-1</f>
         <v>0.36871165644171788</v>
       </c>
       <c r="AT35" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.35804571940833707</v>
       </c>
       <c r="AU35" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.30516865799722748</v>
       </c>
       <c r="AV35" s="5">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>0.45888124620675708</v>
       </c>
       <c r="AW35" s="5">
@@ -7454,52 +7449,52 @@
         <v>7.7522825975447018E-2</v>
       </c>
       <c r="AY35" s="15">
-        <f t="shared" ref="AY35:BE35" si="181">+AY13/AX13-1</f>
+        <f t="shared" ref="AY35:BE35" si="180">+AY13/AX13-1</f>
         <v>0.14715963186290071</v>
       </c>
       <c r="AZ35" s="15">
-        <f t="shared" si="181"/>
-        <v>0.11888344814230778</v>
+        <f t="shared" si="180"/>
+        <v>0.12633856198301396</v>
       </c>
       <c r="BA35" s="15">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BB35" s="15">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BC35" s="15">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BD35" s="15">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BE35" s="15">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BF35" s="15">
-        <f t="shared" ref="BF35" si="182">+BF13/BE13-1</f>
+        <f t="shared" ref="BF35" si="181">+BF13/BE13-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BG35" s="15">
-        <f t="shared" ref="BG35" si="183">+BG13/BF13-1</f>
+        <f t="shared" ref="BG35" si="182">+BG13/BF13-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BH35" s="15">
-        <f t="shared" ref="BH35" si="184">+BH13/BG13-1</f>
+        <f t="shared" ref="BH35" si="183">+BH13/BG13-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BI35" s="15">
-        <f t="shared" ref="BI35" si="185">+BI13/BH13-1</f>
+        <f t="shared" ref="BI35" si="184">+BI13/BH13-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BJ35" s="15">
-        <f t="shared" ref="BJ35" si="186">+BJ13/BI13-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="BJ35" si="185">+BJ13/BI13-1</f>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="BL35" s="18" t="s">
         <v>73</v>
@@ -7521,19 +7516,19 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15">
-        <f t="shared" ref="K36" si="187">K15/G15-1</f>
+        <f t="shared" ref="K36" si="186">K15/G15-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" ref="L36" si="188">L15/H15-1</f>
+        <f t="shared" ref="L36" si="187">L15/H15-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" ref="M36" si="189">M15/I15-1</f>
+        <f t="shared" ref="M36" si="188">M15/I15-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" ref="N36" si="190">N15/J15-1</f>
+        <f t="shared" ref="N36" si="189">N15/J15-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O36" s="15">
@@ -7541,11 +7536,11 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" ref="P36:Q36" si="191">P15/L15-1</f>
+        <f t="shared" ref="P36:Q36" si="190">P15/L15-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="R36" s="15">
@@ -7553,51 +7548,51 @@
         <v>-2.2507204610951015E-2</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" ref="S36:V36" si="192">S15/O15-1</f>
+        <f t="shared" ref="S36:V36" si="191">S15/O15-1</f>
         <v>7.9548412285268544E-3</v>
       </c>
       <c r="T36" s="15">
+        <f t="shared" si="191"/>
+        <v>5.4804984007256419E-2</v>
+      </c>
+      <c r="U36" s="15">
+        <f t="shared" si="191"/>
+        <v>0.1076787721785033</v>
+      </c>
+      <c r="V36" s="15">
+        <f t="shared" si="191"/>
+        <v>0.12490049824582083</v>
+      </c>
+      <c r="W36" s="15">
+        <f t="shared" ref="W36:X36" si="192">W15/S15-1</f>
+        <v>0.13616629815529113</v>
+      </c>
+      <c r="X36" s="15">
         <f t="shared" si="192"/>
-        <v>5.4804984007256419E-2</v>
-      </c>
-      <c r="U36" s="15">
-        <f t="shared" si="192"/>
-        <v>0.1076787721785033</v>
-      </c>
-      <c r="V36" s="15">
-        <f t="shared" si="192"/>
-        <v>0.12490049824582083</v>
-      </c>
-      <c r="W36" s="15">
-        <f t="shared" ref="W36:X36" si="193">W15/S15-1</f>
-        <v>0.13616629815529113</v>
-      </c>
-      <c r="X36" s="15">
-        <f t="shared" si="193"/>
         <v>0.11530512182243347</v>
       </c>
       <c r="Y36" s="15">
-        <f t="shared" ref="Y36" si="194">Y15/U15-1</f>
+        <f t="shared" ref="Y36" si="193">Y15/U15-1</f>
         <v>0.12537875444944557</v>
       </c>
       <c r="Z36" s="15">
-        <f t="shared" ref="Z36" si="195">Z15/V15-1</f>
+        <f t="shared" ref="Z36" si="194">Z15/V15-1</f>
         <v>0.10199053871656782</v>
       </c>
       <c r="AA36" s="15">
-        <f t="shared" ref="AA36" si="196">AA15/W15-1</f>
+        <f t="shared" ref="AA36" si="195">AA15/W15-1</f>
         <v>9.7531179863064255E-2</v>
       </c>
       <c r="AB36" s="15">
-        <f t="shared" ref="AB36" si="197">AB15/X15-1</f>
+        <f t="shared" ref="AB36" si="196">AB15/X15-1</f>
         <v>0.11653230169895035</v>
       </c>
       <c r="AC36" s="15">
-        <f t="shared" ref="AC36" si="198">AC15/Y15-1</f>
-        <v>9.9907855182329364E-2</v>
+        <f t="shared" ref="AC36" si="197">AC15/Y15-1</f>
+        <v>0.13778591033851795</v>
       </c>
       <c r="AD36" s="15">
-        <f t="shared" ref="AD36" si="199">AD15/Z15-1</f>
+        <f t="shared" ref="AD36" si="198">AD15/Z15-1</f>
         <v>0.10040359597593174</v>
       </c>
       <c r="AE36" s="15"/>
@@ -7606,23 +7601,23 @@
       <c r="AH36" s="15"/>
       <c r="AI36" s="15"/>
       <c r="AS36" s="5">
-        <f t="shared" ref="AS36:AW36" si="200">+AS15/AR15-1</f>
+        <f t="shared" ref="AS36:AW36" si="199">+AS15/AR15-1</f>
         <v>0.22568104346846218</v>
       </c>
       <c r="AT36" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="199"/>
         <v>0.16319604057491333</v>
       </c>
       <c r="AU36" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="199"/>
         <v>0.11071957846204517</v>
       </c>
       <c r="AV36" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="199"/>
         <v>0.40853915260770313</v>
       </c>
       <c r="AW36" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="199"/>
         <v>6.7355986005919188E-2</v>
       </c>
       <c r="AX36" s="5">
@@ -7630,52 +7625,52 @@
         <v>7.5001577735003711E-2</v>
       </c>
       <c r="AY36" s="15">
-        <f t="shared" ref="AY36:BE36" si="201">+AY15/AX15-1</f>
+        <f t="shared" ref="AY36:BE36" si="200">+AY15/AX15-1</f>
         <v>0.11883262457667221</v>
       </c>
       <c r="AZ36" s="15">
-        <f t="shared" si="201"/>
-        <v>0.10352635030990731</v>
+        <f t="shared" si="200"/>
+        <v>0.11303033483094471</v>
       </c>
       <c r="BA36" s="15">
-        <f t="shared" si="201"/>
-        <v>7.8104202550330903E-2</v>
+        <f t="shared" si="200"/>
+        <v>7.8070191328521998E-2</v>
       </c>
       <c r="BB36" s="15">
-        <f t="shared" si="201"/>
-        <v>7.8969692395628011E-2</v>
+        <f t="shared" si="200"/>
+        <v>7.8936749711207677E-2</v>
       </c>
       <c r="BC36" s="15">
-        <f t="shared" si="201"/>
-        <v>5.9442518471550798E-2</v>
+        <f t="shared" si="200"/>
+        <v>5.9422486940237329E-2</v>
       </c>
       <c r="BD36" s="15">
-        <f t="shared" si="201"/>
-        <v>5.9692907365848313E-2</v>
+        <f t="shared" si="200"/>
+        <v>5.967331773071205E-2</v>
       </c>
       <c r="BE36" s="15">
-        <f t="shared" si="201"/>
-        <v>4.608822472523233E-2</v>
+        <f t="shared" si="200"/>
+        <v>4.6076599615642699E-2</v>
       </c>
       <c r="BF36" s="15">
-        <f t="shared" ref="BF36" si="202">+BF15/BE15-1</f>
-        <v>4.6148385539786618E-2</v>
+        <f t="shared" ref="BF36" si="201">+BF15/BE15-1</f>
+        <v>4.6136896287162221E-2</v>
       </c>
       <c r="BG36" s="15">
-        <f t="shared" ref="BG36" si="203">+BG15/BF15-1</f>
-        <v>4.62078392044043E-2</v>
+        <f t="shared" ref="BG36" si="202">+BG15/BF15-1</f>
+        <v>4.6196485528476439E-2</v>
       </c>
       <c r="BH36" s="15">
-        <f t="shared" ref="BH36" si="204">+BH15/BG15-1</f>
-        <v>4.6266587313631868E-2</v>
+        <f t="shared" ref="BH36" si="203">+BH15/BG15-1</f>
+        <v>4.6255368891159776E-2</v>
       </c>
       <c r="BI36" s="15">
-        <f t="shared" ref="BI36" si="205">+BI15/BH15-1</f>
-        <v>4.6324631682224782E-2</v>
+        <f t="shared" ref="BI36" si="204">+BI15/BH15-1</f>
+        <v>4.6313548148199102E-2</v>
       </c>
       <c r="BJ36" s="15">
-        <f t="shared" ref="BJ36" si="206">+BJ15/BI15-1</f>
-        <v>4.6381974338860488E-2</v>
+        <f t="shared" ref="BJ36" si="205">+BJ15/BI15-1</f>
+        <v>4.6371025287711198E-2</v>
       </c>
       <c r="BL36" s="5" t="s">
         <v>74</v>
@@ -7706,31 +7701,31 @@
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="207">T12/P12-1</f>
+        <f t="shared" ref="T37" si="206">T12/P12-1</f>
         <v>-4.9521733866085493E-2</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" ref="U37" si="208">U12/Q12-1</f>
+        <f t="shared" ref="U37" si="207">U12/Q12-1</f>
         <v>-2.5787601626016232E-2</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" ref="V37" si="209">V12/R12-1</f>
+        <f t="shared" ref="V37" si="208">V12/R12-1</f>
         <v>-2.1002949852507391E-2</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37" si="210">W12/S12-1</f>
+        <f t="shared" ref="W37" si="209">W12/S12-1</f>
         <v>-1.1072572038420492E-2</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:Z37" si="211">X12/T12-1</f>
+        <f t="shared" ref="X37:Z37" si="210">X12/T12-1</f>
         <v>-5.1719745222929991E-2</v>
       </c>
       <c r="Y37" s="15">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>-1.5777806754466051E-2</v>
       </c>
       <c r="Z37" s="15">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>-4.1340243461492121E-2</v>
       </c>
       <c r="AA37" s="15">
@@ -7741,7 +7736,10 @@
         <f>AB12/X12-1</f>
         <v>-1.2090274046211769E-2</v>
       </c>
-      <c r="AC37" s="15"/>
+      <c r="AC37" s="15">
+        <f>AC12/Y12-1</f>
+        <v>-2.5702172760996289E-2</v>
+      </c>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
       <c r="AF37" s="15"/>
@@ -7783,27 +7781,27 @@
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="15">
-        <f t="shared" ref="T38" si="212">T11/P11-1</f>
+        <f t="shared" ref="T38" si="211">T11/P11-1</f>
         <v>0.24248435830917137</v>
       </c>
       <c r="U38" s="15">
-        <f t="shared" ref="U38" si="213">U11/Q11-1</f>
+        <f t="shared" ref="U38" si="212">U11/Q11-1</f>
         <v>0.20942712110224804</v>
       </c>
       <c r="V38" s="15">
-        <f t="shared" ref="V38:Y38" si="214">V11/R11-1</f>
+        <f t="shared" ref="V38:Y38" si="213">V11/R11-1</f>
         <v>0.22714870395634379</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.17887494941319293</v>
       </c>
       <c r="X38" s="15">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.14369933677229185</v>
       </c>
       <c r="Y38" s="15">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.2778510612783307</v>
       </c>
       <c r="Z38" s="15">
@@ -7818,7 +7816,10 @@
         <f>AB11/X11-1</f>
         <v>0.20307130584192445</v>
       </c>
-      <c r="AC38" s="15"/>
+      <c r="AC38" s="15">
+        <f>AC11/Y11-1</f>
+        <v>0.20777027027027017</v>
+      </c>
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
@@ -7851,19 +7852,19 @@
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15">
-        <f t="shared" ref="K39" si="215">K10/G10-1</f>
+        <f t="shared" ref="K39" si="214">K10/G10-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" ref="L39" si="216">L10/H10-1</f>
+        <f t="shared" ref="L39" si="215">L10/H10-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" ref="M39" si="217">M10/I10-1</f>
+        <f t="shared" ref="M39" si="216">M10/I10-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" ref="N39" si="218">N10/J10-1</f>
+        <f t="shared" ref="N39" si="217">N10/J10-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O39" s="15">
@@ -7871,11 +7872,11 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" ref="P39:Q39" si="219">P10/L10-1</f>
+        <f t="shared" ref="P39:Q39" si="218">P10/L10-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="R39" s="15">
@@ -7883,27 +7884,27 @@
         <v>0.3201588160981772</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" ref="S39:V39" si="220">S10/O10-1</f>
+        <f t="shared" ref="S39:V39" si="219">S10/O10-1</f>
         <v>0.28053599037965982</v>
       </c>
       <c r="T39" s="15">
+        <f t="shared" si="219"/>
+        <v>0.2796367112810707</v>
+      </c>
+      <c r="U39" s="15">
+        <f t="shared" si="219"/>
+        <v>0.22466511357018049</v>
+      </c>
+      <c r="V39" s="15">
+        <f t="shared" si="219"/>
+        <v>0.25659603554340404</v>
+      </c>
+      <c r="W39" s="15">
+        <f t="shared" ref="W39:X39" si="220">W10/S10-1</f>
+        <v>0.28441105446740012</v>
+      </c>
+      <c r="X39" s="15">
         <f t="shared" si="220"/>
-        <v>0.2796367112810707</v>
-      </c>
-      <c r="U39" s="15">
-        <f t="shared" si="220"/>
-        <v>0.22466511357018049</v>
-      </c>
-      <c r="V39" s="15">
-        <f t="shared" si="220"/>
-        <v>0.25659603554340404</v>
-      </c>
-      <c r="W39" s="15">
-        <f t="shared" ref="W39:X39" si="221">W10/S10-1</f>
-        <v>0.28441105446740012</v>
-      </c>
-      <c r="X39" s="15">
-        <f t="shared" si="221"/>
         <v>0.28838251774374291</v>
       </c>
       <c r="Y39" s="15">
@@ -7911,23 +7912,23 @@
         <v>0.34978004993460954</v>
       </c>
       <c r="Z39" s="15">
-        <f t="shared" ref="Z39" si="222">Z10/V10-1</f>
+        <f t="shared" ref="Z39" si="221">Z10/V10-1</f>
         <v>0.3005874673629243</v>
       </c>
       <c r="AA39" s="15">
-        <f t="shared" ref="AA39" si="223">AA10/W10-1</f>
+        <f t="shared" ref="AA39" si="222">AA10/W10-1</f>
         <v>0.28055149362857734</v>
       </c>
       <c r="AB39" s="15">
-        <f t="shared" ref="AB39" si="224">AB10/X10-1</f>
+        <f t="shared" ref="AB39" si="223">AB10/X10-1</f>
         <v>0.31671015753358467</v>
       </c>
       <c r="AC39" s="15">
-        <f t="shared" ref="AC39" si="225">AC10/Y10-1</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" ref="AC39" si="224">AC10/Y10-1</f>
+        <v>0.33506562142165075</v>
       </c>
       <c r="AD39" s="15">
-        <f t="shared" ref="AD39" si="226">AD10/Z10-1</f>
+        <f t="shared" ref="AD39" si="225">AD10/Z10-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AE39" s="15"/>
@@ -7936,23 +7937,23 @@
       <c r="AH39" s="15"/>
       <c r="AI39" s="15"/>
       <c r="AS39" s="5">
-        <f t="shared" ref="AS39:AW39" si="227">+AS10/AR10-1</f>
+        <f t="shared" ref="AS39:AW39" si="226">+AS10/AR10-1</f>
         <v>0.43934911242603558</v>
       </c>
       <c r="AT39" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0.52757793764988015</v>
       </c>
       <c r="AU39" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0.46434178066831122</v>
       </c>
       <c r="AV39" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0.47070985527222597</v>
       </c>
       <c r="AW39" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>0.36832239925023424</v>
       </c>
       <c r="AX39" s="5">
@@ -7960,51 +7961,51 @@
         <v>0.25905631659056327</v>
       </c>
       <c r="AY39" s="15">
-        <f t="shared" ref="AY39:BE39" si="228">+AY10/AX10-1</f>
+        <f t="shared" ref="AY39:BE39" si="227">+AY10/AX10-1</f>
         <v>0.30648573500967125</v>
       </c>
       <c r="AZ39" s="15">
-        <f t="shared" si="228"/>
-        <v>0.29969233616322377</v>
+        <f t="shared" si="227"/>
+        <v>0.30890143190913499</v>
       </c>
       <c r="BA39" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BB39" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BC39" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BD39" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BE39" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BF39" s="15">
-        <f t="shared" ref="BF39" si="229">+BF10/BE10-1</f>
+        <f t="shared" ref="BF39" si="228">+BF10/BE10-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="BG39" s="15">
-        <f t="shared" ref="BG39" si="230">+BG10/BF10-1</f>
+        <f t="shared" ref="BG39" si="229">+BG10/BF10-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="BH39" s="15">
-        <f t="shared" ref="BH39" si="231">+BH10/BG10-1</f>
+        <f t="shared" ref="BH39" si="230">+BH10/BG10-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="BI39" s="15">
-        <f t="shared" ref="BI39" si="232">+BI10/BH10-1</f>
+        <f t="shared" ref="BI39" si="231">+BI10/BH10-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="BJ39" s="15">
-        <f t="shared" ref="BJ39" si="233">+BJ10/BI10-1</f>
+        <f t="shared" ref="BJ39" si="232">+BJ10/BI10-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="BL39" s="5" t="s">
@@ -8012,7 +8013,7 @@
       </c>
       <c r="BM39" s="3">
         <f>NPV(BM35,BA28:DM28)+Main!L5-Main!L6</f>
-        <v>3601476.0384379262</v>
+        <v>3551766.4987144182</v>
       </c>
     </row>
     <row r="40" spans="2:65" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -8024,19 +8025,19 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16">
-        <f t="shared" ref="G40:H40" si="234">G19/G16</f>
+        <f t="shared" ref="G40:H40" si="233">G19/G16</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="H40" s="16">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="I40" s="16">
-        <f t="shared" ref="I40" si="235">I19/I16</f>
+        <f t="shared" ref="I40" si="234">I19/I16</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="J40" s="16">
-        <f t="shared" ref="J40" si="236">J19/J16</f>
+        <f t="shared" ref="J40" si="235">J19/J16</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="K40" s="16">
@@ -8044,27 +8045,27 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="L40" s="16">
-        <f t="shared" ref="L40:O40" si="237">L19/L16</f>
+        <f t="shared" ref="L40:O40" si="236">L19/L16</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="M40" s="16">
+        <f t="shared" si="236"/>
+        <v>0.57583156730857832</v>
+      </c>
+      <c r="N40" s="16">
+        <f t="shared" si="236"/>
+        <v>0.56205774975107869</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" si="236"/>
+        <v>0.5647909896928438</v>
+      </c>
+      <c r="P40" s="16">
+        <f t="shared" ref="P40:Q40" si="237">P19/P16</f>
+        <v>0.56799885197675248</v>
+      </c>
+      <c r="Q40" s="16">
         <f t="shared" si="237"/>
-        <v>0.57583156730857832</v>
-      </c>
-      <c r="N40" s="16">
-        <f t="shared" si="237"/>
-        <v>0.56205774975107869</v>
-      </c>
-      <c r="O40" s="16">
-        <f t="shared" si="237"/>
-        <v>0.5647909896928438</v>
-      </c>
-      <c r="P40" s="16">
-        <f t="shared" ref="P40:Q40" si="238">P19/P16</f>
-        <v>0.56799885197675248</v>
-      </c>
-      <c r="Q40" s="16">
-        <f t="shared" si="238"/>
         <v>0.54903606785156023</v>
       </c>
       <c r="R40" s="16">
@@ -8072,51 +8073,51 @@
         <v>0.53526719966337055</v>
       </c>
       <c r="S40" s="16">
-        <f t="shared" ref="S40:V40" si="239">S19/S16</f>
+        <f t="shared" ref="S40:V40" si="238">S19/S16</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="T40" s="16">
+        <f t="shared" si="238"/>
+        <v>0.5721945204010509</v>
+      </c>
+      <c r="U40" s="16">
+        <f t="shared" si="238"/>
+        <v>0.56672708069836886</v>
+      </c>
+      <c r="V40" s="16">
+        <f t="shared" si="238"/>
+        <v>0.56465067778936395</v>
+      </c>
+      <c r="W40" s="16">
+        <f t="shared" ref="W40:AD40" si="239">W19/W16</f>
+        <v>0.58142018152696207</v>
+      </c>
+      <c r="X40" s="16">
         <f t="shared" si="239"/>
-        <v>0.5721945204010509</v>
-      </c>
-      <c r="U40" s="16">
+        <v>0.58099879634655782</v>
+      </c>
+      <c r="Y40" s="16">
         <f t="shared" si="239"/>
-        <v>0.56672708069836886</v>
-      </c>
-      <c r="V40" s="16">
+        <v>0.58678116644763678</v>
+      </c>
+      <c r="Z40" s="16">
         <f t="shared" si="239"/>
-        <v>0.56465067778936395</v>
-      </c>
-      <c r="W40" s="16">
-        <f t="shared" ref="W40:AD40" si="240">W19/W16</f>
-        <v>0.58142018152696207</v>
-      </c>
-      <c r="X40" s="16">
-        <f t="shared" si="240"/>
-        <v>0.58099879634655782</v>
-      </c>
-      <c r="Y40" s="16">
-        <f t="shared" si="240"/>
-        <v>0.58678116644763678</v>
-      </c>
-      <c r="Z40" s="16">
-        <f t="shared" si="240"/>
         <v>0.5790046543449191</v>
       </c>
       <c r="AA40" s="16">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="AB40" s="16">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>0.59514871199236741</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" si="240"/>
-        <v>0.57999999999999996</v>
+        <f t="shared" si="239"/>
+        <v>0.59579270318331934</v>
       </c>
       <c r="AD40" s="16">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="AE40" s="16"/>
@@ -8125,31 +8126,31 @@
       <c r="AH40" s="16"/>
       <c r="AI40" s="16"/>
       <c r="AO40" s="18">
-        <f t="shared" ref="AO40" si="241">AO19/AO16</f>
+        <f t="shared" ref="AO40" si="240">AO19/AO16</f>
         <v>0.6107483219951213</v>
       </c>
       <c r="AP40" s="18">
-        <f t="shared" ref="AP40" si="242">AP19/AP16</f>
+        <f t="shared" ref="AP40" si="241">AP19/AP16</f>
         <v>0.62442491565429592</v>
       </c>
       <c r="AQ40" s="18">
-        <f t="shared" ref="AQ40:AR40" si="243">AQ19/AQ16</f>
+        <f t="shared" ref="AQ40:AR40" si="242">AQ19/AQ16</f>
         <v>0.61075416518964909</v>
       </c>
       <c r="AR40" s="18">
+        <f t="shared" si="242"/>
+        <v>0.58880519597672631</v>
+      </c>
+      <c r="AS40" s="18">
+        <f t="shared" ref="AS40:AU40" si="243">AS19/AS16</f>
+        <v>0.5647607422945643</v>
+      </c>
+      <c r="AT40" s="18">
         <f t="shared" si="243"/>
-        <v>0.58880519597672631</v>
-      </c>
-      <c r="AS40" s="18">
-        <f t="shared" ref="AS40:AU40" si="244">AS19/AS16</f>
-        <v>0.5647607422945643</v>
-      </c>
-      <c r="AT40" s="18">
-        <f t="shared" si="244"/>
         <v>0.5558054331910266</v>
       </c>
       <c r="AU40" s="18">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="AV40" s="18">
@@ -8161,63 +8162,63 @@
         <v>0.55379442503783116</v>
       </c>
       <c r="AX40" s="18">
-        <f t="shared" ref="AX40" si="245">AX19/AX16</f>
+        <f t="shared" ref="AX40" si="244">AX19/AX16</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AY40" s="16">
-        <f t="shared" ref="AY40:BE40" si="246">AY19/AY16</f>
+        <f t="shared" ref="AY40:BE40" si="245">AY19/AY16</f>
         <v>0.58200435406179107</v>
       </c>
       <c r="AZ40" s="16">
-        <f t="shared" si="246"/>
-        <v>0.58392245688740274</v>
+        <f t="shared" si="245"/>
+        <v>0.58765411103283083</v>
       </c>
       <c r="BA40" s="16">
+        <f t="shared" si="245"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BB40" s="16">
+        <f t="shared" si="245"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BC40" s="16">
+        <f t="shared" si="245"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BD40" s="16">
+        <f t="shared" si="245"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BE40" s="16">
+        <f t="shared" si="245"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BF40" s="16">
+        <f t="shared" ref="BF40:BJ40" si="246">BF19/BF16</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BG40" s="16">
         <f t="shared" si="246"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="BB40" s="16">
+      <c r="BH40" s="16">
         <f t="shared" si="246"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="BC40" s="16">
+      <c r="BI40" s="16">
         <f t="shared" si="246"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="BD40" s="16">
+      <c r="BJ40" s="16">
         <f t="shared" si="246"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="BE40" s="16">
-        <f t="shared" si="246"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BF40" s="16">
-        <f t="shared" ref="BF40:BJ40" si="247">BF19/BF16</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BG40" s="16">
-        <f t="shared" si="247"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BH40" s="16">
-        <f t="shared" si="247"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BI40" s="16">
-        <f t="shared" si="247"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BJ40" s="16">
-        <f t="shared" si="247"/>
-        <v>0.56000000000000005</v>
-      </c>
       <c r="BL40" s="5" t="s">
         <v>76</v>
       </c>
       <c r="BM40" s="1">
         <f>+BM39/Main!L3</f>
-        <v>293.01733288080106</v>
+        <v>291.05683018228456</v>
       </c>
     </row>
     <row r="41" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8229,7 +8230,7 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15">
-        <f t="shared" ref="G41" si="248">+G27/G26</f>
+        <f t="shared" ref="G41" si="247">+G27/G26</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H41" s="15">
@@ -8237,39 +8238,39 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" ref="I41:Q41" si="249">+I27/I26</f>
+        <f t="shared" ref="I41:Q41" si="248">+I27/I26</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>0.16</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O41" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P41" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q41" s="15">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="R41" s="15">
@@ -8277,51 +8278,51 @@
         <v>0.20545868081880211</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" ref="S41:V41" si="250">+S27/S26</f>
+        <f t="shared" ref="S41:V41" si="249">+S27/S26</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="T41" s="15">
+        <f t="shared" si="249"/>
+        <v>0.16139341642697347</v>
+      </c>
+      <c r="U41" s="15">
+        <f t="shared" si="249"/>
+        <v>7.1142142756050381E-2</v>
+      </c>
+      <c r="V41" s="15">
+        <f t="shared" si="249"/>
+        <v>0.15559082745081659</v>
+      </c>
+      <c r="W41" s="15">
+        <f t="shared" ref="W41:X41" si="250">+W27/W26</f>
+        <v>0.17846732126419146</v>
+      </c>
+      <c r="X41" s="15">
         <f t="shared" si="250"/>
-        <v>0.16139341642697347</v>
-      </c>
-      <c r="U41" s="15">
-        <f t="shared" si="250"/>
-        <v>7.1142142756050381E-2</v>
-      </c>
-      <c r="V41" s="15">
-        <f t="shared" si="250"/>
-        <v>0.15559082745081659</v>
-      </c>
-      <c r="W41" s="15">
-        <f t="shared" ref="W41:X41" si="251">+W27/W26</f>
-        <v>0.17846732126419146</v>
-      </c>
-      <c r="X41" s="15">
+        <v>0.14271714275343908</v>
+      </c>
+      <c r="Y41" s="15">
+        <f t="shared" ref="Y41:Z41" si="251">+Y27/Y26</f>
+        <v>0.18950948423968303</v>
+      </c>
+      <c r="Z41" s="15">
         <f t="shared" si="251"/>
-        <v>0.14271714275343908</v>
-      </c>
-      <c r="Y41" s="15">
-        <f t="shared" ref="Y41:Z41" si="252">+Y27/Y26</f>
-        <v>0.18950948423968303</v>
-      </c>
-      <c r="Z41" s="15">
+        <v>0.17663262147941813</v>
+      </c>
+      <c r="AA41" s="15">
+        <f t="shared" ref="AA41:AD41" si="252">+AA27/AA26</f>
+        <v>0.24061816529395819</v>
+      </c>
+      <c r="AB41" s="15">
         <f t="shared" si="252"/>
-        <v>0.17663262147941813</v>
-      </c>
-      <c r="AA41" s="15">
-        <f t="shared" ref="AA41:AD41" si="253">+AA27/AA26</f>
-        <v>0.24061816529395819</v>
-      </c>
-      <c r="AB41" s="15">
-        <f t="shared" si="253"/>
         <v>0.16906845843279403</v>
       </c>
       <c r="AC41" s="15">
-        <f t="shared" si="253"/>
-        <v>0.18</v>
+        <f t="shared" si="252"/>
+        <v>0.27089285177277239</v>
       </c>
       <c r="AD41" s="15">
-        <f t="shared" si="253"/>
+        <f t="shared" si="252"/>
         <v>0.18</v>
       </c>
       <c r="AE41" s="15"/>
@@ -8330,35 +8331,35 @@
       <c r="AH41" s="15"/>
       <c r="AI41" s="15"/>
       <c r="AO41" s="15">
-        <f t="shared" ref="AO41" si="254">+AO27/AO26</f>
+        <f t="shared" ref="AO41" si="253">+AO27/AO26</f>
         <v>0.21084651486181122</v>
       </c>
       <c r="AP41" s="15">
-        <f t="shared" ref="AP41" si="255">+AP27/AP26</f>
+        <f t="shared" ref="AP41" si="254">+AP27/AP26</f>
         <v>0.16808304920869166</v>
       </c>
       <c r="AQ41" s="15">
-        <f t="shared" ref="AQ41:AR41" si="256">+AQ27/AQ26</f>
+        <f t="shared" ref="AQ41:AR41" si="255">+AQ27/AQ26</f>
         <v>0.19345755693581781</v>
       </c>
       <c r="AR41" s="15">
+        <f t="shared" si="255"/>
+        <v>0.48551572053860803</v>
+      </c>
+      <c r="AS41" s="15">
+        <f t="shared" ref="AS41:AU41" si="256">+AS27/AS26</f>
+        <v>0.10446678671468587</v>
+      </c>
+      <c r="AT41" s="15">
         <f t="shared" si="256"/>
-        <v>0.48551572053860803</v>
-      </c>
-      <c r="AS41" s="15">
-        <f t="shared" ref="AS41:AU41" si="257">+AS27/AS26</f>
-        <v>0.10446678671468587</v>
-      </c>
-      <c r="AT41" s="15">
-        <f t="shared" si="257"/>
         <v>0.12782537147282319</v>
       </c>
       <c r="AU41" s="15">
-        <f t="shared" si="257"/>
+        <f t="shared" si="256"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="AV41" s="15">
-        <f t="shared" ref="AV41:AX41" si="258">+AV27/AV26</f>
+        <f t="shared" ref="AV41:AX41" si="257">+AV27/AV26</f>
         <v>0.16202305640663919</v>
       </c>
       <c r="AW41" s="15">
@@ -8366,55 +8367,55 @@
         <v>0.1592081650964558</v>
       </c>
       <c r="AX41" s="15">
+        <f t="shared" si="257"/>
+        <v>0.18</v>
+      </c>
+      <c r="AY41" s="15">
+        <f t="shared" ref="AY41:BE41" si="258">+AY27/AY26</f>
+        <v>0.17209533961242071</v>
+      </c>
+      <c r="AZ41" s="15">
+        <f t="shared" si="258"/>
+        <v>0.2130606481578928</v>
+      </c>
+      <c r="BA41" s="15">
         <f t="shared" si="258"/>
         <v>0.18</v>
       </c>
-      <c r="AY41" s="15">
-        <f t="shared" ref="AY41:BE41" si="259">+AY27/AY26</f>
-        <v>0.17209533961242071</v>
-      </c>
-      <c r="AZ41" s="15">
-        <f t="shared" si="259"/>
-        <v>0.19075235910444477</v>
-      </c>
-      <c r="BA41" s="15">
+      <c r="BB41" s="15">
+        <f t="shared" si="258"/>
+        <v>0.18</v>
+      </c>
+      <c r="BC41" s="15">
+        <f t="shared" si="258"/>
+        <v>0.18</v>
+      </c>
+      <c r="BD41" s="15">
+        <f t="shared" si="258"/>
+        <v>0.18</v>
+      </c>
+      <c r="BE41" s="15">
+        <f t="shared" si="258"/>
+        <v>0.18</v>
+      </c>
+      <c r="BF41" s="15">
+        <f t="shared" ref="BF41:BJ41" si="259">+BF27/BF26</f>
+        <v>0.18</v>
+      </c>
+      <c r="BG41" s="15">
         <f t="shared" si="259"/>
         <v>0.18</v>
       </c>
-      <c r="BB41" s="15">
+      <c r="BH41" s="15">
         <f t="shared" si="259"/>
         <v>0.18</v>
       </c>
-      <c r="BC41" s="15">
+      <c r="BI41" s="15">
         <f t="shared" si="259"/>
         <v>0.18</v>
       </c>
-      <c r="BD41" s="15">
+      <c r="BJ41" s="15">
         <f t="shared" si="259"/>
-        <v>0.18</v>
-      </c>
-      <c r="BE41" s="15">
-        <f t="shared" si="259"/>
-        <v>0.18</v>
-      </c>
-      <c r="BF41" s="15">
-        <f t="shared" ref="BF41:BJ41" si="260">+BF27/BF26</f>
-        <v>0.18</v>
-      </c>
-      <c r="BG41" s="15">
-        <f t="shared" si="260"/>
-        <v>0.18</v>
-      </c>
-      <c r="BH41" s="15">
-        <f t="shared" si="260"/>
-        <v>0.18</v>
-      </c>
-      <c r="BI41" s="15">
-        <f t="shared" si="260"/>
-        <v>0.18</v>
-      </c>
-      <c r="BJ41" s="15">
-        <f t="shared" si="260"/>
         <v>0.18</v>
       </c>
       <c r="BL41" s="5" t="s">
@@ -8433,15 +8434,15 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15">
-        <f t="shared" ref="G42:H42" si="261">G14/G16</f>
+        <f t="shared" ref="G42:H42" si="260">G14/G16</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" si="261"/>
+        <f t="shared" si="260"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" ref="I42" si="262">I14/I16</f>
+        <f t="shared" ref="I42" si="261">I14/I16</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J42" s="15">
@@ -8449,31 +8450,31 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K42" s="15">
-        <f t="shared" ref="K42:O42" si="263">K14/K16</f>
+        <f t="shared" ref="K42:O42" si="262">K14/K16</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L42" s="15">
+        <f t="shared" si="262"/>
+        <v>0.57926632191338079</v>
+      </c>
+      <c r="M42" s="15">
+        <f t="shared" si="262"/>
+        <v>0.58241960748180222</v>
+      </c>
+      <c r="N42" s="15">
+        <f t="shared" si="262"/>
+        <v>0.5748556256223033</v>
+      </c>
+      <c r="O42" s="15">
+        <f t="shared" si="262"/>
+        <v>0.58252341532987306</v>
+      </c>
+      <c r="P42" s="15">
+        <f t="shared" ref="P42:Q42" si="263">P14/P16</f>
+        <v>0.58389897395422252</v>
+      </c>
+      <c r="Q42" s="15">
         <f t="shared" si="263"/>
-        <v>0.57926632191338079</v>
-      </c>
-      <c r="M42" s="15">
-        <f t="shared" si="263"/>
-        <v>0.58241960748180222</v>
-      </c>
-      <c r="N42" s="15">
-        <f t="shared" si="263"/>
-        <v>0.5748556256223033</v>
-      </c>
-      <c r="O42" s="15">
-        <f t="shared" si="263"/>
-        <v>0.58252341532987306</v>
-      </c>
-      <c r="P42" s="15">
-        <f t="shared" ref="P42:Q42" si="264">P14/P16</f>
-        <v>0.58389897395422252</v>
-      </c>
-      <c r="Q42" s="15">
-        <f t="shared" si="264"/>
         <v>0.57226596422161757</v>
       </c>
       <c r="R42" s="15">
@@ -8481,39 +8482,39 @@
         <v>0.56022512097622557</v>
       </c>
       <c r="S42" s="15">
-        <f t="shared" ref="S42:V42" si="265">S14/S16</f>
+        <f t="shared" ref="S42:V42" si="264">S14/S16</f>
         <v>0.57831687850172664</v>
       </c>
       <c r="T42" s="15">
+        <f t="shared" si="264"/>
+        <v>0.57139027397994746</v>
+      </c>
+      <c r="U42" s="15">
+        <f t="shared" si="264"/>
+        <v>0.574054998500515</v>
+      </c>
+      <c r="V42" s="15">
+        <f t="shared" si="264"/>
+        <v>0.55636658556366581</v>
+      </c>
+      <c r="W42" s="15">
+        <f t="shared" ref="W42:X42" si="265">W14/W16</f>
+        <v>0.57308881411490087</v>
+      </c>
+      <c r="X42" s="15">
         <f t="shared" si="265"/>
-        <v>0.57139027397994746</v>
-      </c>
-      <c r="U42" s="15">
-        <f t="shared" si="265"/>
-        <v>0.574054998500515</v>
-      </c>
-      <c r="V42" s="15">
-        <f t="shared" si="265"/>
-        <v>0.55636658556366581</v>
-      </c>
-      <c r="W42" s="15">
-        <f t="shared" ref="W42:X42" si="266">W14/W16</f>
-        <v>0.57308881411490087</v>
-      </c>
-      <c r="X42" s="15">
+        <v>0.57243161596374881</v>
+      </c>
+      <c r="Y42" s="15">
+        <f t="shared" ref="Y42:Z42" si="266">Y14/Y16</f>
+        <v>0.55948928263923503</v>
+      </c>
+      <c r="Z42" s="15">
         <f t="shared" si="266"/>
-        <v>0.57243161596374881</v>
-      </c>
-      <c r="Y42" s="15">
-        <f t="shared" ref="Y42:Z42" si="267">Y14/Y16</f>
-        <v>0.55948928263923503</v>
-      </c>
-      <c r="Z42" s="15">
-        <f t="shared" si="267"/>
         <v>0.5601177580362604</v>
       </c>
       <c r="AA42" s="15">
-        <f t="shared" ref="AA42:AD42" si="268">AA14/AA16</f>
+        <f t="shared" ref="AA42:AD42" si="267">AA14/AA16</f>
         <v>0.56189462951880664</v>
       </c>
       <c r="AB42" s="15">
@@ -8521,11 +8522,11 @@
         <v>0.56197370058489238</v>
       </c>
       <c r="AC42" s="15">
-        <f t="shared" si="268"/>
-        <v>0.55203303899211342</v>
+        <f t="shared" si="267"/>
+        <v>0.55270357415043092</v>
       </c>
       <c r="AD42" s="15">
-        <f t="shared" si="268"/>
+        <f t="shared" si="267"/>
         <v>0.55289805827569694</v>
       </c>
       <c r="AE42" s="15"/>
@@ -8534,75 +8535,75 @@
       <c r="AH42" s="15"/>
       <c r="AI42" s="15"/>
       <c r="AU42" s="15">
-        <f t="shared" ref="AU42:AX42" si="269">AU14/AU16</f>
+        <f t="shared" ref="AU42:AX42" si="268">AU14/AU16</f>
         <v>0.57011839344316184</v>
       </c>
       <c r="AV42" s="15">
+        <f t="shared" si="268"/>
+        <v>0.57814289096674776</v>
+      </c>
+      <c r="AW42" s="15">
+        <f t="shared" si="268"/>
+        <v>0.57436111386103605</v>
+      </c>
+      <c r="AX42" s="15">
+        <f t="shared" si="268"/>
+        <v>0.56940929230889348</v>
+      </c>
+      <c r="AY42" s="15">
+        <f t="shared" ref="AY42:BE42" si="269">AY14/AY16</f>
+        <v>0.56592518099069189</v>
+      </c>
+      <c r="AZ42" s="15">
         <f t="shared" si="269"/>
-        <v>0.57814289096674776</v>
-      </c>
-      <c r="AW42" s="15">
+        <v>0.55700932501268285</v>
+      </c>
+      <c r="BA42" s="15">
         <f t="shared" si="269"/>
-        <v>0.57436111386103605</v>
-      </c>
-      <c r="AX42" s="15">
+        <v>0.55229521497581047</v>
+      </c>
+      <c r="BB42" s="15">
         <f t="shared" si="269"/>
-        <v>0.56940929230889348</v>
-      </c>
-      <c r="AY42" s="15">
-        <f t="shared" ref="AY42:BE42" si="270">AY14/AY16</f>
-        <v>0.56592518099069189</v>
-      </c>
-      <c r="AZ42" s="15">
+        <v>0.54459211740061464</v>
+      </c>
+      <c r="BC42" s="15">
+        <f t="shared" si="269"/>
+        <v>0.54604729388086093</v>
+      </c>
+      <c r="BD42" s="15">
+        <f t="shared" si="269"/>
+        <v>0.54727497060128338</v>
+      </c>
+      <c r="BE42" s="15">
+        <f t="shared" si="269"/>
+        <v>0.54359783845894671</v>
+      </c>
+      <c r="BF42" s="15">
+        <f t="shared" ref="BF42:BJ42" si="270">BF14/BF16</f>
+        <v>0.53968833214294076</v>
+      </c>
+      <c r="BG42" s="15">
         <f t="shared" si="270"/>
-        <v>0.55716613167205387</v>
-      </c>
-      <c r="BA42" s="15">
+        <v>0.53554645816826207</v>
+      </c>
+      <c r="BH42" s="15">
         <f t="shared" si="270"/>
-        <v>0.55242297020529962</v>
-      </c>
-      <c r="BB42" s="15">
+        <v>0.53117273482188676</v>
+      </c>
+      <c r="BI42" s="15">
         <f t="shared" si="270"/>
-        <v>0.54468928616829115</v>
-      </c>
-      <c r="BC42" s="15">
+        <v>0.52656821584158964</v>
+      </c>
+      <c r="BJ42" s="15">
         <f t="shared" si="270"/>
-        <v>0.54613525301430499</v>
-      </c>
-      <c r="BD42" s="15">
-        <f t="shared" si="270"/>
-        <v>0.54735370156984564</v>
-      </c>
-      <c r="BE42" s="15">
-        <f t="shared" si="270"/>
-        <v>0.5436674616082996</v>
-      </c>
-      <c r="BF42" s="15">
-        <f t="shared" ref="BF42:BJ42" si="271">BF14/BF16</f>
-        <v>0.53974882581430961</v>
-      </c>
-      <c r="BG42" s="15">
-        <f t="shared" si="271"/>
-        <v>0.53559781978545618</v>
-      </c>
-      <c r="BH42" s="15">
-        <f t="shared" si="271"/>
-        <v>0.53121498131256062</v>
-      </c>
-      <c r="BI42" s="15">
-        <f t="shared" si="271"/>
-        <v>0.52660138398670753</v>
-      </c>
-      <c r="BJ42" s="15">
-        <f t="shared" si="271"/>
-        <v>0.52175865874888971</v>
+        <v>0.52173451204535781</v>
       </c>
       <c r="BL42" s="18" t="s">
         <v>230</v>
       </c>
       <c r="BM42" s="18">
         <f>+BM40/BM41-1</f>
-        <v>0.71355165427369038</v>
+        <v>0.70208672621219037</v>
       </c>
     </row>
     <row r="43" spans="2:65" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8614,47 +8615,47 @@
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15">
-        <f t="shared" ref="G43:J43" si="272">(G14+G13+G12)/G16</f>
+        <f t="shared" ref="G43:J43" si="271">(G14+G13+G12)/G16</f>
         <v>0.82030661580699238</v>
       </c>
       <c r="H43" s="15">
+        <f t="shared" si="271"/>
+        <v>0.7798783194506097</v>
+      </c>
+      <c r="I43" s="15">
+        <f t="shared" si="271"/>
+        <v>0.80339159248911707</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="271"/>
+        <v>0.81196175612499566</v>
+      </c>
+      <c r="K43" s="15">
+        <f t="shared" ref="K43:Q43" si="272">(K14+K13+K12)/K16</f>
+        <v>0.80782442058068482</v>
+      </c>
+      <c r="L43" s="15">
         <f t="shared" si="272"/>
-        <v>0.7798783194506097</v>
-      </c>
-      <c r="I43" s="15">
+        <v>0.81519069166127989</v>
+      </c>
+      <c r="M43" s="15">
         <f t="shared" si="272"/>
-        <v>0.80339159248911707</v>
-      </c>
-      <c r="J43" s="15">
+        <v>0.81590343683774069</v>
+      </c>
+      <c r="N43" s="15">
         <f t="shared" si="272"/>
-        <v>0.81196175612499566</v>
-      </c>
-      <c r="K43" s="15">
-        <f t="shared" ref="K43:Q43" si="273">(K14+K13+K12)/K16</f>
-        <v>0.80782442058068482</v>
-      </c>
-      <c r="L43" s="15">
-        <f t="shared" si="273"/>
-        <v>0.81519069166127989</v>
-      </c>
-      <c r="M43" s="15">
-        <f t="shared" si="273"/>
-        <v>0.81590343683774069</v>
-      </c>
-      <c r="N43" s="15">
-        <f t="shared" si="273"/>
         <v>0.81299701294390969</v>
       </c>
       <c r="O43" s="15">
-        <f t="shared" si="273"/>
+        <f t="shared" si="272"/>
         <v>0.80370822366970052</v>
       </c>
       <c r="P43" s="15">
-        <f t="shared" si="273"/>
+        <f t="shared" si="272"/>
         <v>0.80774915692042759</v>
       </c>
       <c r="Q43" s="15">
-        <f t="shared" si="273"/>
+        <f t="shared" si="272"/>
         <v>0.78854281248190816</v>
       </c>
       <c r="R43" s="15">
@@ -8662,39 +8663,39 @@
         <v>0.77637807700399752</v>
       </c>
       <c r="S43" s="15">
-        <f t="shared" ref="S43:V43" si="274">(S14+S13+S12)/S16</f>
+        <f t="shared" ref="S43:V43" si="273">(S14+S13+S12)/S16</f>
         <v>0.78163554816799685</v>
       </c>
       <c r="T43" s="15">
+        <f t="shared" si="273"/>
+        <v>0.779354994370275</v>
+      </c>
+      <c r="U43" s="15">
+        <f t="shared" si="273"/>
+        <v>0.77773721200109525</v>
+      </c>
+      <c r="V43" s="15">
+        <f t="shared" si="273"/>
+        <v>0.75908932916232186</v>
+      </c>
+      <c r="W43" s="15">
+        <f t="shared" ref="W43:X43" si="274">(W14+W13+W12)/W16</f>
+        <v>0.76557940873365704</v>
+      </c>
+      <c r="X43" s="15">
         <f t="shared" si="274"/>
-        <v>0.779354994370275</v>
-      </c>
-      <c r="U43" s="15">
-        <f t="shared" si="274"/>
-        <v>0.77773721200109525</v>
-      </c>
-      <c r="V43" s="15">
-        <f t="shared" si="274"/>
-        <v>0.75908932916232186</v>
-      </c>
-      <c r="W43" s="15">
-        <f t="shared" ref="W43:X43" si="275">(W14+W13+W12)/W16</f>
-        <v>0.76557940873365704</v>
-      </c>
-      <c r="X43" s="15">
+        <v>0.76250265511788728</v>
+      </c>
+      <c r="Y43" s="15">
+        <f t="shared" ref="Y43:Z43" si="275">(Y14+Y13+Y12)/Y16</f>
+        <v>0.74606879050165409</v>
+      </c>
+      <c r="Z43" s="15">
         <f t="shared" si="275"/>
-        <v>0.76250265511788728</v>
-      </c>
-      <c r="Y43" s="15">
-        <f t="shared" ref="Y43:Z43" si="276">(Y14+Y13+Y12)/Y16</f>
-        <v>0.74606879050165409</v>
-      </c>
-      <c r="Z43" s="15">
-        <f t="shared" si="276"/>
         <v>0.75113248815681721</v>
       </c>
       <c r="AA43" s="15">
-        <f t="shared" ref="AA43:AD43" si="277">(AA14+AA13+AA12)/AA16</f>
+        <f t="shared" ref="AA43:AD43" si="276">(AA14+AA13+AA12)/AA16</f>
         <v>0.74123944411197551</v>
       </c>
       <c r="AB43" s="15">
@@ -8702,11 +8703,11 @@
         <v>0.73982660637988962</v>
       </c>
       <c r="AC43" s="15">
-        <f t="shared" si="277"/>
-        <v>0.72942326274145686</v>
+        <f t="shared" si="276"/>
+        <v>0.72481582084302265</v>
       </c>
       <c r="AD43" s="15">
-        <f t="shared" si="277"/>
+        <f t="shared" si="276"/>
         <v>0.73508381911163501</v>
       </c>
       <c r="AE43" s="15"/>
@@ -8715,86 +8716,86 @@
       <c r="AH43" s="15"/>
       <c r="AI43" s="15"/>
       <c r="AO43" s="15">
-        <f t="shared" ref="AO43:BE43" si="278">(AO14+AO13+AO12)/AO16</f>
+        <f t="shared" ref="AO43:BE43" si="277">(AO14+AO13+AO12)/AO16</f>
         <v>0</v>
       </c>
       <c r="AP43" s="15"/>
       <c r="AQ43" s="15"/>
       <c r="AR43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.86218032565062463</v>
+      </c>
+      <c r="AS43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.85120487651568866</v>
+      </c>
+      <c r="AT43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.83290188252593333</v>
+      </c>
+      <c r="AU43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.80494392610408327</v>
+      </c>
+      <c r="AV43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.81314795623299452</v>
+      </c>
+      <c r="AW43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.79365073752987592</v>
+      </c>
+      <c r="AX43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.7737789286713469</v>
+      </c>
+      <c r="AY43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.75593255204018084</v>
+      </c>
+      <c r="AZ43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.73487887585492029</v>
+      </c>
+      <c r="BA43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.71928252582911278</v>
+      </c>
+      <c r="BB43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.70050991948780972</v>
+      </c>
+      <c r="BC43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.69824730111782551</v>
+      </c>
+      <c r="BD43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.69579633171436273</v>
+      </c>
+      <c r="BE43" s="15">
+        <f t="shared" si="277"/>
+        <v>0.68998169230045758</v>
+      </c>
+      <c r="BF43" s="15">
+        <f t="shared" ref="BF43:BJ43" si="278">(BF14+BF13+BF12)/BF16</f>
+        <v>0.68390955838298606</v>
+      </c>
+      <c r="BG43" s="15">
         <f t="shared" si="278"/>
-        <v>0.86218032565062463</v>
-      </c>
-      <c r="AS43" s="15">
+        <v>0.67758049614099292</v>
+      </c>
+      <c r="BH43" s="15">
         <f t="shared" si="278"/>
-        <v>0.85120487651568866</v>
-      </c>
-      <c r="AT43" s="15">
+        <v>0.67099568351947458</v>
+      </c>
+      <c r="BI43" s="15">
         <f t="shared" si="278"/>
-        <v>0.83290188252593333</v>
-      </c>
-      <c r="AU43" s="15">
+        <v>0.66415693641900764</v>
+      </c>
+      <c r="BJ43" s="15">
         <f t="shared" si="278"/>
-        <v>0.80494392610408327</v>
-      </c>
-      <c r="AV43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.81314795623299452</v>
-      </c>
-      <c r="AW43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.79365073752987592</v>
-      </c>
-      <c r="AX43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.7737789286713469</v>
-      </c>
-      <c r="AY43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.75593255204018084</v>
-      </c>
-      <c r="AZ43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.73650275762718898</v>
-      </c>
-      <c r="BA43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.72076682919118995</v>
-      </c>
-      <c r="BB43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.70185393187760137</v>
-      </c>
-      <c r="BC43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.69953855593636416</v>
-      </c>
-      <c r="BD43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.69703584702142884</v>
-      </c>
-      <c r="BE43" s="15">
-        <f t="shared" si="278"/>
-        <v>0.69118241102112221</v>
-      </c>
-      <c r="BF43" s="15">
-        <f t="shared" ref="BF43:BJ43" si="279">(BF14+BF13+BF12)/BF16</f>
-        <v>0.68507165633841605</v>
-      </c>
-      <c r="BG43" s="15">
-        <f t="shared" si="279"/>
-        <v>0.67870418182604764</v>
-      </c>
-      <c r="BH43" s="15">
-        <f t="shared" si="279"/>
-        <v>0.67208119890921347</v>
-      </c>
-      <c r="BI43" s="15">
-        <f t="shared" si="279"/>
-        <v>0.66520455766979758</v>
-      </c>
-      <c r="BJ43" s="15">
-        <f t="shared" si="279"/>
-        <v>0.65807677030951872</v>
+        <v>0.65706673227784385</v>
       </c>
     </row>
     <row r="45" spans="2:65" x14ac:dyDescent="0.25">
@@ -8806,51 +8807,51 @@
         <v>124580</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" ref="N45:O45" si="280">+N46-N64</f>
+        <f t="shared" ref="N45:O45" si="279">+N46-N64</f>
         <v>154381</v>
       </c>
       <c r="O45" s="11">
+        <f t="shared" si="279"/>
+        <v>149723</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" ref="P45:Y45" si="280">+P46-P64</f>
+        <v>140928</v>
+      </c>
+      <c r="Q45" s="11">
         <f t="shared" si="280"/>
-        <v>149723</v>
-      </c>
-      <c r="P45" s="11">
-        <f t="shared" ref="P45:Y45" si="281">+P46-P64</f>
-        <v>140928</v>
-      </c>
-      <c r="Q45" s="11">
-        <f t="shared" si="281"/>
         <v>132025</v>
       </c>
       <c r="R45" s="11">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>129553</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>132618</v>
       </c>
       <c r="T45" s="11">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>135851</v>
       </c>
       <c r="U45" s="11">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>137061</v>
       </c>
       <c r="V45" s="11">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>128671</v>
       </c>
       <c r="W45" s="11">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>128856</v>
       </c>
       <c r="X45" s="11">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>121659</v>
       </c>
       <c r="Y45" s="11">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>117110</v>
       </c>
       <c r="Z45" s="11">
@@ -8862,16 +8863,16 @@
         <v>135471</v>
       </c>
       <c r="AB45" s="11">
-        <f>+AA45+AB28</f>
-        <v>163667</v>
+        <f>+AB46-AB64</f>
+        <v>124115</v>
       </c>
       <c r="AC45" s="11">
-        <f>+AB45+AC28</f>
-        <v>190856.43126000001</v>
+        <f>+AC46-AC64</f>
+        <v>140689</v>
       </c>
       <c r="AD45" s="11">
         <f>+AC45+AD28</f>
-        <v>222121.00356400001</v>
+        <v>171953.572304</v>
       </c>
       <c r="AE45" s="11"/>
       <c r="AF45" s="11"/>
@@ -8895,47 +8896,47 @@
       </c>
       <c r="AZ45" s="3">
         <f>+AY45+AZ28</f>
-        <v>232283.57356399999</v>
+        <v>229339.14230399998</v>
       </c>
       <c r="BA45" s="3">
         <f>+AZ45+BA28</f>
-        <v>353727.42310919444</v>
+        <v>347783.29216891841</v>
       </c>
       <c r="BB45" s="3">
-        <f t="shared" ref="BB45:BE45" si="282">+BA45+BB28</f>
-        <v>497126.37087245833</v>
+        <f t="shared" ref="BB45:BE45" si="281">+BA45+BB28</f>
+        <v>488058.48802320904</v>
       </c>
       <c r="BC45" s="3">
-        <f t="shared" si="282"/>
-        <v>654634.93665147945</v>
+        <f t="shared" si="281"/>
+        <v>642244.73259842128</v>
       </c>
       <c r="BD45" s="3">
-        <f t="shared" si="282"/>
-        <v>829373.06316998845</v>
+        <f t="shared" si="281"/>
+        <v>813554.50988057279</v>
       </c>
       <c r="BE45" s="3">
-        <f t="shared" si="282"/>
-        <v>1020092.9827485809</v>
+        <f t="shared" si="281"/>
+        <v>1000719.8932622027</v>
       </c>
       <c r="BF45" s="3">
-        <f t="shared" ref="BF45" si="283">+BE45+BF28</f>
-        <v>1228069.8245807881</v>
+        <f t="shared" ref="BF45" si="282">+BE45+BF28</f>
+        <v>1205015.5366580705</v>
       </c>
       <c r="BG45" s="3">
-        <f t="shared" ref="BG45" si="284">+BF45+BG28</f>
-        <v>1454681.5908693876</v>
+        <f t="shared" ref="BG45" si="283">+BF45+BG28</f>
+        <v>1427819.3590581967</v>
       </c>
       <c r="BH45" s="3">
-        <f t="shared" ref="BH45" si="285">+BG45+BH28</f>
-        <v>1701417.9315207335</v>
+        <f t="shared" ref="BH45" si="284">+BG45+BH28</f>
+        <v>1670621.3703063945</v>
       </c>
       <c r="BI45" s="3">
-        <f t="shared" ref="BI45" si="286">+BH45+BI28</f>
-        <v>1969889.7116149901</v>
+        <f t="shared" ref="BI45" si="285">+BH45+BI28</f>
+        <v>1935033.2949292501</v>
       </c>
       <c r="BJ45" s="3">
-        <f t="shared" ref="BJ45" si="287">+BI45+BJ28</f>
-        <v>2261839.4464073614</v>
+        <f t="shared" ref="BJ45" si="286">+BI45+BJ28</f>
+        <v>2222799.0692905122</v>
       </c>
     </row>
     <row r="46" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9016,7 +9017,10 @@
         <f>95148+52574</f>
         <v>147722</v>
       </c>
-      <c r="AC46" s="11"/>
+      <c r="AC46" s="11">
+        <f>98496+63800</f>
+        <v>162296</v>
+      </c>
       <c r="AD46" s="11"/>
       <c r="AE46" s="11"/>
       <c r="AF46" s="11"/>
@@ -9032,7 +9036,7 @@
         <v>141924</v>
       </c>
       <c r="AY46" s="3">
-        <f t="shared" ref="AY46:AY55" si="288">Z46</f>
+        <f t="shared" ref="AY46:AY55" si="287">Z46</f>
         <v>133639</v>
       </c>
     </row>
@@ -9098,7 +9102,9 @@
       <c r="AB47" s="11">
         <v>55048</v>
       </c>
-      <c r="AC47" s="11"/>
+      <c r="AC47" s="11">
+        <v>57148</v>
+      </c>
       <c r="AD47" s="11"/>
       <c r="AE47" s="11"/>
       <c r="AF47" s="11"/>
@@ -9106,15 +9112,15 @@
       <c r="AH47" s="11"/>
       <c r="AI47" s="11"/>
       <c r="AW47" s="3">
-        <f t="shared" ref="AW47:AW55" si="289">R47</f>
+        <f t="shared" ref="AW47:AW55" si="288">R47</f>
         <v>40258</v>
       </c>
       <c r="AX47" s="3">
-        <f t="shared" ref="AX47:AX55" si="290">+V47</f>
+        <f t="shared" ref="AX47:AX55" si="289">+V47</f>
         <v>47964</v>
       </c>
       <c r="AY47" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>52340</v>
       </c>
     </row>
@@ -9180,7 +9186,9 @@
       <c r="AB48" s="11">
         <v>0</v>
       </c>
-      <c r="AC48" s="11"/>
+      <c r="AC48" s="11">
+        <v>0</v>
+      </c>
       <c r="AD48" s="11"/>
       <c r="AE48" s="11"/>
       <c r="AF48" s="11"/>
@@ -9188,15 +9196,15 @@
       <c r="AH48" s="11"/>
       <c r="AI48" s="11"/>
       <c r="AW48" s="3">
+        <f t="shared" si="288"/>
+        <v>0</v>
+      </c>
+      <c r="AX48" s="3">
         <f t="shared" si="289"/>
         <v>0</v>
       </c>
-      <c r="AX48" s="3">
-        <f t="shared" si="290"/>
-        <v>0</v>
-      </c>
       <c r="AY48" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
     </row>
@@ -9262,7 +9270,9 @@
       <c r="AB49" s="11">
         <v>0</v>
       </c>
-      <c r="AC49" s="11"/>
+      <c r="AC49" s="11">
+        <v>0</v>
+      </c>
       <c r="AD49" s="11"/>
       <c r="AE49" s="11"/>
       <c r="AF49" s="11"/>
@@ -9270,15 +9280,15 @@
       <c r="AH49" s="11"/>
       <c r="AI49" s="11"/>
       <c r="AW49" s="3">
+        <f t="shared" si="288"/>
+        <v>2670</v>
+      </c>
+      <c r="AX49" s="3">
         <f t="shared" si="289"/>
-        <v>2670</v>
-      </c>
-      <c r="AX49" s="3">
-        <f t="shared" si="290"/>
         <v>0</v>
       </c>
       <c r="AY49" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
     </row>
@@ -9344,7 +9354,9 @@
       <c r="AB50" s="11">
         <v>16020</v>
       </c>
-      <c r="AC50" s="11"/>
+      <c r="AC50" s="11">
+        <v>18303</v>
+      </c>
       <c r="AD50" s="11"/>
       <c r="AE50" s="11"/>
       <c r="AF50" s="11"/>
@@ -9352,15 +9364,15 @@
       <c r="AH50" s="11"/>
       <c r="AI50" s="11"/>
       <c r="AW50" s="3">
+        <f t="shared" si="288"/>
+        <v>8105</v>
+      </c>
+      <c r="AX50" s="3">
         <f t="shared" si="289"/>
-        <v>8105</v>
-      </c>
-      <c r="AX50" s="3">
-        <f t="shared" si="290"/>
         <v>12650</v>
       </c>
       <c r="AY50" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>15714</v>
       </c>
     </row>
@@ -9416,7 +9428,9 @@
       <c r="AB51" s="11">
         <v>19289</v>
       </c>
-      <c r="AC51" s="11"/>
+      <c r="AC51" s="11">
+        <v>10331</v>
+      </c>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
@@ -9424,15 +9438,15 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AW51" s="3">
+        <f t="shared" si="288"/>
+        <v>5261</v>
+      </c>
+      <c r="AX51" s="3">
         <f t="shared" si="289"/>
-        <v>5261</v>
-      </c>
-      <c r="AX51" s="3">
-        <f t="shared" si="290"/>
         <v>12169</v>
       </c>
       <c r="AY51" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>17180</v>
       </c>
     </row>
@@ -9488,7 +9502,9 @@
       <c r="AB52" s="11">
         <v>203231</v>
       </c>
-      <c r="AC52" s="11"/>
+      <c r="AC52" s="11">
+        <v>223787</v>
+      </c>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
       <c r="AF52" s="11"/>
@@ -9496,15 +9512,15 @@
       <c r="AH52" s="11"/>
       <c r="AI52" s="11"/>
       <c r="AW52" s="3">
+        <f t="shared" si="288"/>
+        <v>112668</v>
+      </c>
+      <c r="AX52" s="3">
         <f t="shared" si="289"/>
-        <v>112668</v>
-      </c>
-      <c r="AX52" s="3">
-        <f t="shared" si="290"/>
         <v>134345</v>
       </c>
       <c r="AY52" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>171036</v>
       </c>
     </row>
@@ -9560,7 +9576,9 @@
       <c r="AB53" s="11">
         <v>14255</v>
       </c>
-      <c r="AC53" s="11"/>
+      <c r="AC53" s="11">
+        <v>14524</v>
+      </c>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
@@ -9568,15 +9586,15 @@
       <c r="AH53" s="11"/>
       <c r="AI53" s="11"/>
       <c r="AW53" s="3">
+        <f t="shared" si="288"/>
+        <v>14381</v>
+      </c>
+      <c r="AX53" s="3">
         <f t="shared" si="289"/>
-        <v>14381</v>
-      </c>
-      <c r="AX53" s="3">
-        <f t="shared" si="290"/>
         <v>14091</v>
       </c>
       <c r="AY53" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>13588</v>
       </c>
     </row>
@@ -9641,7 +9659,9 @@
       <c r="AB54" s="11">
         <v>32335</v>
       </c>
-      <c r="AC54" s="11"/>
+      <c r="AC54" s="11">
+        <v>33269</v>
+      </c>
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
       <c r="AF54" s="11"/>
@@ -9649,15 +9669,15 @@
       <c r="AH54" s="11"/>
       <c r="AI54" s="11"/>
       <c r="AW54" s="3">
+        <f t="shared" si="288"/>
+        <v>31044</v>
+      </c>
+      <c r="AX54" s="3">
         <f t="shared" si="289"/>
-        <v>31044</v>
-      </c>
-      <c r="AX54" s="3">
-        <f t="shared" si="290"/>
         <v>29198</v>
       </c>
       <c r="AY54" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>31885</v>
       </c>
     </row>
@@ -9713,7 +9733,9 @@
       <c r="AB55" s="11">
         <v>14153</v>
       </c>
-      <c r="AC55" s="11"/>
+      <c r="AC55" s="11">
+        <v>16811</v>
+      </c>
       <c r="AD55" s="11"/>
       <c r="AE55" s="11"/>
       <c r="AF55" s="11"/>
@@ -9721,15 +9743,15 @@
       <c r="AH55" s="11"/>
       <c r="AI55" s="11"/>
       <c r="AW55" s="3">
+        <f t="shared" si="288"/>
+        <v>6623</v>
+      </c>
+      <c r="AX55" s="3">
         <f t="shared" si="289"/>
-        <v>6623</v>
-      </c>
-      <c r="AX55" s="3">
-        <f t="shared" si="290"/>
         <v>10051</v>
       </c>
       <c r="AY55" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>14874</v>
       </c>
     </row>
@@ -9742,55 +9764,55 @@
         <v>273403</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" ref="N56:Z56" si="291">SUM(N46:N55)</f>
+        <f t="shared" ref="N56:Z56" si="290">SUM(N46:N55)</f>
         <v>359268</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>357096</v>
       </c>
       <c r="P56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>355185</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>358255</v>
       </c>
       <c r="R56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>365264</v>
       </c>
       <c r="S56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>369491</v>
       </c>
       <c r="T56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>383044</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>396711</v>
       </c>
       <c r="V56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>402392</v>
       </c>
       <c r="W56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>407350</v>
       </c>
       <c r="X56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>414770</v>
       </c>
       <c r="Y56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>430266</v>
       </c>
       <c r="Z56" s="11">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>450256</v>
       </c>
       <c r="AA56" s="11">
@@ -9801,7 +9823,10 @@
         <f>SUM(AB46:AB55)</f>
         <v>502053</v>
       </c>
-      <c r="AC56" s="11"/>
+      <c r="AC56" s="11">
+        <f>SUM(AC46:AC55)</f>
+        <v>536469</v>
+      </c>
       <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
       <c r="AF56" s="11"/>
@@ -9897,7 +9922,9 @@
       <c r="AB58" s="11">
         <v>8347</v>
       </c>
-      <c r="AC58" s="11"/>
+      <c r="AC58" s="11">
+        <v>10546</v>
+      </c>
       <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
       <c r="AF58" s="11"/>
@@ -9905,11 +9932,11 @@
       <c r="AH58" s="11"/>
       <c r="AI58" s="11"/>
       <c r="AW58" s="3">
-        <f t="shared" ref="AW58:AW67" si="292">R58</f>
+        <f t="shared" ref="AW58:AW67" si="291">R58</f>
         <v>5128</v>
       </c>
       <c r="AX58" s="3">
-        <f t="shared" ref="AX58:AX67" si="293">+V58</f>
+        <f t="shared" ref="AX58:AX67" si="292">+V58</f>
         <v>7493</v>
       </c>
       <c r="AY58" s="3">
@@ -9969,7 +9996,9 @@
       <c r="AB59" s="11">
         <v>12168</v>
       </c>
-      <c r="AC59" s="11"/>
+      <c r="AC59" s="11">
+        <v>13944</v>
+      </c>
       <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
@@ -9977,15 +10006,15 @@
       <c r="AH59" s="11"/>
       <c r="AI59" s="11"/>
       <c r="AW59" s="3">
+        <f t="shared" si="291"/>
+        <v>14028</v>
+      </c>
+      <c r="AX59" s="3">
         <f t="shared" si="292"/>
-        <v>14028</v>
-      </c>
-      <c r="AX59" s="3">
-        <f t="shared" si="293"/>
         <v>15140</v>
       </c>
       <c r="AY59" s="3">
-        <f t="shared" ref="AY59:AY67" si="294">Z59</f>
+        <f t="shared" ref="AY59:AY67" si="293">Z59</f>
         <v>15069</v>
       </c>
     </row>
@@ -10041,7 +10070,9 @@
       <c r="AB60" s="11">
         <v>52039</v>
       </c>
-      <c r="AC60" s="11"/>
+      <c r="AC60" s="11">
+        <v>59437</v>
+      </c>
       <c r="AD60" s="11"/>
       <c r="AE60" s="11"/>
       <c r="AF60" s="11"/>
@@ -10049,15 +10080,15 @@
       <c r="AH60" s="11"/>
       <c r="AI60" s="11"/>
       <c r="AW60" s="3">
+        <f t="shared" si="291"/>
+        <v>37866</v>
+      </c>
+      <c r="AX60" s="3">
         <f t="shared" si="292"/>
-        <v>37866</v>
-      </c>
-      <c r="AX60" s="3">
+        <v>46168</v>
+      </c>
+      <c r="AY60" s="3">
         <f t="shared" si="293"/>
-        <v>46168</v>
-      </c>
-      <c r="AY60" s="3">
-        <f t="shared" si="294"/>
         <v>51228</v>
       </c>
     </row>
@@ -10113,7 +10144,9 @@
       <c r="AB61" s="11">
         <v>9787</v>
       </c>
-      <c r="AC61" s="11"/>
+      <c r="AC61" s="11">
+        <v>10081</v>
+      </c>
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
       <c r="AF61" s="11"/>
@@ -10121,15 +10154,15 @@
       <c r="AH61" s="11"/>
       <c r="AI61" s="11"/>
       <c r="AW61" s="3">
+        <f t="shared" si="291"/>
+        <v>8370</v>
+      </c>
+      <c r="AX61" s="3">
         <f t="shared" si="292"/>
-        <v>8370</v>
-      </c>
-      <c r="AX61" s="3">
+        <v>8876</v>
+      </c>
+      <c r="AY61" s="3">
         <f t="shared" si="293"/>
-        <v>8876</v>
-      </c>
-      <c r="AY61" s="3">
-        <f t="shared" si="294"/>
         <v>9802</v>
       </c>
     </row>
@@ -10198,7 +10231,9 @@
       <c r="AB62" s="11">
         <v>4969</v>
       </c>
-      <c r="AC62" s="11"/>
+      <c r="AC62" s="11">
+        <v>5542</v>
+      </c>
       <c r="AD62" s="11"/>
       <c r="AE62" s="11"/>
       <c r="AF62" s="11"/>
@@ -10206,15 +10241,15 @@
       <c r="AH62" s="11"/>
       <c r="AI62" s="11"/>
       <c r="AW62" s="3">
+        <f t="shared" si="291"/>
+        <v>4507</v>
+      </c>
+      <c r="AX62" s="3">
         <f t="shared" si="292"/>
-        <v>4507</v>
-      </c>
-      <c r="AX62" s="3">
+        <v>5048</v>
+      </c>
+      <c r="AY62" s="3">
         <f t="shared" si="293"/>
-        <v>5048</v>
-      </c>
-      <c r="AY62" s="3">
-        <f t="shared" si="294"/>
         <v>5036</v>
       </c>
     </row>
@@ -10283,7 +10318,9 @@
       <c r="AB63" s="11">
         <v>10027</v>
       </c>
-      <c r="AC63" s="11"/>
+      <c r="AC63" s="11">
+        <v>10072</v>
+      </c>
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
       <c r="AF63" s="11"/>
@@ -10291,15 +10328,15 @@
       <c r="AH63" s="11"/>
       <c r="AI63" s="11"/>
       <c r="AW63" s="3">
+        <f t="shared" si="291"/>
+        <v>9772</v>
+      </c>
+      <c r="AX63" s="3">
         <f t="shared" si="292"/>
-        <v>9772</v>
-      </c>
-      <c r="AX63" s="3">
+        <v>8959</v>
+      </c>
+      <c r="AY63" s="3">
         <f t="shared" si="293"/>
-        <v>8959</v>
-      </c>
-      <c r="AY63" s="3">
-        <f t="shared" si="294"/>
         <v>8782</v>
       </c>
     </row>
@@ -10356,7 +10393,9 @@
       <c r="AB64" s="11">
         <v>23607</v>
       </c>
-      <c r="AC64" s="11"/>
+      <c r="AC64" s="11">
+        <v>21607</v>
+      </c>
       <c r="AD64" s="11"/>
       <c r="AE64" s="11"/>
       <c r="AF64" s="11"/>
@@ -10364,15 +10403,15 @@
       <c r="AH64" s="11"/>
       <c r="AI64" s="11"/>
       <c r="AW64" s="3">
+        <f t="shared" si="291"/>
+        <v>14701</v>
+      </c>
+      <c r="AX64" s="3">
         <f t="shared" si="292"/>
-        <v>14701</v>
-      </c>
-      <c r="AX64" s="3">
+        <v>13253</v>
+      </c>
+      <c r="AY64" s="3">
         <f t="shared" si="293"/>
-        <v>13253</v>
-      </c>
-      <c r="AY64" s="3">
-        <f t="shared" si="294"/>
         <v>10883</v>
       </c>
     </row>
@@ -10428,7 +10467,9 @@
       <c r="AB65" s="11">
         <v>11952</v>
       </c>
-      <c r="AC65" s="11"/>
+      <c r="AC65" s="11">
+        <v>12106</v>
+      </c>
       <c r="AD65" s="11"/>
       <c r="AE65" s="11"/>
       <c r="AF65" s="11"/>
@@ -10436,15 +10477,15 @@
       <c r="AH65" s="11"/>
       <c r="AI65" s="11"/>
       <c r="AW65" s="3">
+        <f t="shared" si="291"/>
+        <v>12501</v>
+      </c>
+      <c r="AX65" s="3">
         <f t="shared" si="292"/>
-        <v>12501</v>
-      </c>
-      <c r="AX65" s="3">
+        <v>12460</v>
+      </c>
+      <c r="AY65" s="3">
         <f t="shared" si="293"/>
-        <v>12460</v>
-      </c>
-      <c r="AY65" s="3">
-        <f t="shared" si="294"/>
         <v>11691</v>
       </c>
     </row>
@@ -10500,7 +10541,9 @@
       <c r="AB66" s="11">
         <v>6241</v>
       </c>
-      <c r="AC66" s="11"/>
+      <c r="AC66" s="11">
+        <v>6267</v>
+      </c>
       <c r="AD66" s="11"/>
       <c r="AE66" s="11"/>
       <c r="AF66" s="11"/>
@@ -10508,15 +10551,15 @@
       <c r="AH66" s="11"/>
       <c r="AI66" s="11"/>
       <c r="AW66" s="3">
+        <f t="shared" si="291"/>
+        <v>2247</v>
+      </c>
+      <c r="AX66" s="3">
         <f t="shared" si="292"/>
-        <v>2247</v>
-      </c>
-      <c r="AX66" s="3">
+        <v>1616</v>
+      </c>
+      <c r="AY66" s="3">
         <f t="shared" si="293"/>
-        <v>1616</v>
-      </c>
-      <c r="AY66" s="3">
-        <f t="shared" si="294"/>
         <v>4694</v>
       </c>
     </row>
@@ -10572,7 +10615,9 @@
       <c r="AB67" s="11">
         <v>362916</v>
       </c>
-      <c r="AC67" s="11"/>
+      <c r="AC67" s="11">
+        <v>386867</v>
+      </c>
       <c r="AD67" s="11"/>
       <c r="AE67" s="11"/>
       <c r="AF67" s="11"/>
@@ -10580,15 +10625,15 @@
       <c r="AH67" s="11"/>
       <c r="AI67" s="11"/>
       <c r="AW67" s="3">
+        <f t="shared" si="291"/>
+        <v>256144</v>
+      </c>
+      <c r="AX67" s="3">
         <f t="shared" si="292"/>
-        <v>256144</v>
-      </c>
-      <c r="AX67" s="3">
+        <v>283379</v>
+      </c>
+      <c r="AY67" s="3">
         <f t="shared" si="293"/>
-        <v>283379</v>
-      </c>
-      <c r="AY67" s="3">
-        <f t="shared" si="294"/>
         <v>325084</v>
       </c>
     </row>
@@ -10601,66 +10646,69 @@
         <v>273403</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" ref="N68:AB68" si="295">SUM(N58:N67)</f>
+        <f t="shared" ref="N68:AC68" si="294">SUM(N58:N67)</f>
         <v>359268</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>357096</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>355185</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>358255</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>365264</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>369491</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>383044</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>396711</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>402392</v>
       </c>
       <c r="W68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>407350</v>
       </c>
       <c r="X68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>414770</v>
       </c>
       <c r="Y68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>430266</v>
       </c>
       <c r="Z68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>450256</v>
       </c>
       <c r="AA68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>475374</v>
       </c>
       <c r="AB68" s="11">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>502053</v>
       </c>
-      <c r="AC68" s="11"/>
+      <c r="AC68" s="11">
+        <f t="shared" si="294"/>
+        <v>536469</v>
+      </c>
       <c r="AD68" s="11"/>
       <c r="AE68" s="11"/>
       <c r="AF68" s="11"/>
@@ -10696,90 +10744,93 @@
         <v>6836</v>
       </c>
       <c r="H70" s="11">
-        <f t="shared" ref="H70:AB70" si="296">+H28</f>
+        <f t="shared" ref="H70:AC70" si="295">+H28</f>
         <v>6959</v>
       </c>
       <c r="I70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>11247</v>
       </c>
       <c r="J70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>15227</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>17930</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>18165</v>
       </c>
       <c r="M70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>18936</v>
       </c>
       <c r="N70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>20642</v>
       </c>
       <c r="O70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>16436</v>
       </c>
       <c r="P70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>16002</v>
       </c>
       <c r="Q70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>13910</v>
       </c>
       <c r="R70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>13624</v>
       </c>
       <c r="S70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>15051</v>
       </c>
       <c r="T70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>18368</v>
       </c>
       <c r="U70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>19689</v>
       </c>
       <c r="V70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>20216</v>
       </c>
       <c r="W70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>21419</v>
       </c>
       <c r="X70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>23619</v>
       </c>
       <c r="Y70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>23116</v>
       </c>
       <c r="Z70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>26603</v>
       </c>
       <c r="AA70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>22877.569999999992</v>
       </c>
       <c r="AB70" s="11">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>28196</v>
       </c>
-      <c r="AC70" s="11"/>
+      <c r="AC70" s="11">
+        <f t="shared" si="295"/>
+        <v>24245</v>
+      </c>
       <c r="AD70" s="11"/>
       <c r="AE70" s="11"/>
       <c r="AF70" s="11"/>
@@ -10866,7 +10917,9 @@
       <c r="AB71" s="11">
         <v>28196</v>
       </c>
-      <c r="AC71" s="11"/>
+      <c r="AC71" s="11">
+        <v>34979</v>
+      </c>
       <c r="AD71" s="11"/>
       <c r="AE71" s="11"/>
       <c r="AF71" s="11"/>
@@ -10874,11 +10927,11 @@
       <c r="AH71" s="11"/>
       <c r="AI71" s="11"/>
       <c r="AW71" s="3">
-        <f t="shared" ref="AW71:AW78" si="297">SUM(O71:R71)</f>
+        <f t="shared" ref="AW71:AW78" si="296">SUM(O71:R71)</f>
         <v>59972</v>
       </c>
       <c r="AX71" s="3">
-        <f t="shared" ref="AX71:AX78" si="298">SUM(S71:V71)</f>
+        <f t="shared" ref="AX71:AX78" si="297">SUM(S71:V71)</f>
         <v>73795</v>
       </c>
       <c r="AY71" s="3">
@@ -10954,7 +11007,9 @@
       <c r="AB72" s="11">
         <v>4998</v>
       </c>
-      <c r="AC72" s="11"/>
+      <c r="AC72" s="11">
+        <v>5611</v>
+      </c>
       <c r="AD72" s="11"/>
       <c r="AE72" s="11"/>
       <c r="AF72" s="11"/>
@@ -10962,15 +11017,15 @@
       <c r="AH72" s="11"/>
       <c r="AI72" s="11"/>
       <c r="AW72" s="3">
+        <f t="shared" si="296"/>
+        <v>15287</v>
+      </c>
+      <c r="AX72" s="3">
         <f t="shared" si="297"/>
-        <v>15287</v>
-      </c>
-      <c r="AX72" s="3">
-        <f t="shared" si="298"/>
         <v>13326</v>
       </c>
       <c r="AY72" s="3">
-        <f t="shared" ref="AY72:AY78" si="299">SUM(W72:Z72)</f>
+        <f t="shared" ref="AY72:AY78" si="298">SUM(W72:Z72)</f>
         <v>15311</v>
       </c>
     </row>
@@ -11039,7 +11094,9 @@
       <c r="AB73" s="11">
         <v>0</v>
       </c>
-      <c r="AC73" s="11"/>
+      <c r="AC73" s="11">
+        <v>0</v>
+      </c>
       <c r="AD73" s="11"/>
       <c r="AE73" s="11"/>
       <c r="AF73" s="11"/>
@@ -11047,15 +11104,15 @@
       <c r="AH73" s="11"/>
       <c r="AI73" s="11"/>
       <c r="AW73" s="3">
+        <f t="shared" si="296"/>
+        <v>641</v>
+      </c>
+      <c r="AX73" s="3">
         <f t="shared" si="297"/>
-        <v>641</v>
-      </c>
-      <c r="AX73" s="3">
+        <v>373</v>
+      </c>
+      <c r="AY73" s="3">
         <f t="shared" si="298"/>
-        <v>373</v>
-      </c>
-      <c r="AY73" s="3">
-        <f t="shared" si="299"/>
         <v>0</v>
       </c>
     </row>
@@ -11127,7 +11184,9 @@
       <c r="AB74" s="11">
         <v>5998</v>
       </c>
-      <c r="AC74" s="11"/>
+      <c r="AC74" s="11">
+        <v>6368</v>
+      </c>
       <c r="AD74" s="11"/>
       <c r="AE74" s="11"/>
       <c r="AF74" s="11"/>
@@ -11135,15 +11194,15 @@
       <c r="AH74" s="11"/>
       <c r="AI74" s="11"/>
       <c r="AW74" s="3">
+        <f t="shared" si="296"/>
+        <v>19362</v>
+      </c>
+      <c r="AX74" s="3">
         <f t="shared" si="297"/>
-        <v>19362</v>
-      </c>
-      <c r="AX74" s="3">
+        <v>22460</v>
+      </c>
+      <c r="AY74" s="3">
         <f t="shared" si="298"/>
-        <v>22460</v>
-      </c>
-      <c r="AY74" s="3">
-        <f t="shared" si="299"/>
         <v>22785</v>
       </c>
     </row>
@@ -11215,7 +11274,9 @@
       <c r="AB75" s="11">
         <v>-444</v>
       </c>
-      <c r="AC75" s="11"/>
+      <c r="AC75" s="11">
+        <v>8726</v>
+      </c>
       <c r="AD75" s="11"/>
       <c r="AE75" s="11"/>
       <c r="AF75" s="11"/>
@@ -11223,15 +11284,15 @@
       <c r="AH75" s="11"/>
       <c r="AI75" s="11"/>
       <c r="AW75" s="3">
+        <f t="shared" si="296"/>
+        <v>-8081</v>
+      </c>
+      <c r="AX75" s="3">
         <f t="shared" si="297"/>
-        <v>-8081</v>
-      </c>
-      <c r="AX75" s="3">
+        <v>-7763</v>
+      </c>
+      <c r="AY75" s="3">
         <f t="shared" si="298"/>
-        <v>-7763</v>
-      </c>
-      <c r="AY75" s="3">
-        <f t="shared" si="299"/>
         <v>-5257</v>
       </c>
     </row>
@@ -11303,7 +11364,9 @@
       <c r="AB76" s="11">
         <v>-1451</v>
       </c>
-      <c r="AC76" s="11"/>
+      <c r="AC76" s="11">
+        <v>-10855</v>
+      </c>
       <c r="AD76" s="11"/>
       <c r="AE76" s="11"/>
       <c r="AF76" s="11"/>
@@ -11311,15 +11374,15 @@
       <c r="AH76" s="11"/>
       <c r="AI76" s="11"/>
       <c r="AW76" s="3">
+        <f t="shared" si="296"/>
+        <v>5519</v>
+      </c>
+      <c r="AX76" s="3">
         <f t="shared" si="297"/>
-        <v>5519</v>
-      </c>
-      <c r="AX76" s="3">
+        <v>823</v>
+      </c>
+      <c r="AY76" s="3">
         <f t="shared" si="298"/>
-        <v>823</v>
-      </c>
-      <c r="AY76" s="3">
-        <f t="shared" si="299"/>
         <v>-2671</v>
       </c>
     </row>
@@ -11391,7 +11454,9 @@
       <c r="AB77" s="11">
         <v>560</v>
       </c>
-      <c r="AC77" s="11"/>
+      <c r="AC77" s="11">
+        <v>-198</v>
+      </c>
       <c r="AD77" s="11"/>
       <c r="AE77" s="11"/>
       <c r="AF77" s="11"/>
@@ -11399,15 +11464,15 @@
       <c r="AH77" s="11"/>
       <c r="AI77" s="11"/>
       <c r="AW77" s="3">
+        <f t="shared" si="296"/>
+        <v>1030</v>
+      </c>
+      <c r="AX77" s="3">
         <f t="shared" si="297"/>
-        <v>1030</v>
-      </c>
-      <c r="AX77" s="3">
+        <v>2577</v>
+      </c>
+      <c r="AY77" s="3">
         <f t="shared" si="298"/>
-        <v>2577</v>
-      </c>
-      <c r="AY77" s="3">
-        <f t="shared" si="299"/>
         <v>3419</v>
       </c>
     </row>
@@ -11492,7 +11557,10 @@
         <f>-2839-9631-1479+553+3485-335+136</f>
         <v>-10110</v>
       </c>
-      <c r="AC78" s="11"/>
+      <c r="AC78" s="11">
+        <f>-2381-858-1293-444+7759+319+681</f>
+        <v>3783</v>
+      </c>
       <c r="AD78" s="11"/>
       <c r="AE78" s="11"/>
       <c r="AF78" s="11"/>
@@ -11500,15 +11568,15 @@
       <c r="AH78" s="11"/>
       <c r="AI78" s="11"/>
       <c r="AW78" s="3">
+        <f t="shared" si="296"/>
+        <v>-2235</v>
+      </c>
+      <c r="AX78" s="3">
         <f t="shared" si="297"/>
-        <v>-2235</v>
-      </c>
-      <c r="AX78" s="3">
+        <v>-3845</v>
+      </c>
+      <c r="AY78" s="3">
         <f t="shared" si="298"/>
-        <v>-3845</v>
-      </c>
-      <c r="AY78" s="3">
-        <f t="shared" si="299"/>
         <v>-8406</v>
       </c>
     </row>
@@ -11541,43 +11609,43 @@
         <v>25539</v>
       </c>
       <c r="N79" s="11">
-        <f t="shared" ref="N79:AB79" si="300">SUM(N71:N78)</f>
+        <f t="shared" ref="N79:AC79" si="299">SUM(N71:N78)</f>
         <v>0</v>
       </c>
       <c r="O79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>25106</v>
       </c>
       <c r="P79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>19422</v>
       </c>
       <c r="Q79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>23353</v>
       </c>
       <c r="R79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>23614</v>
       </c>
       <c r="S79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>23509</v>
       </c>
       <c r="T79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>28666</v>
       </c>
       <c r="U79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>30656</v>
       </c>
       <c r="V79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>18915</v>
       </c>
       <c r="W79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>28848</v>
       </c>
       <c r="X79" s="11">
@@ -11585,22 +11653,25 @@
         <v>26640</v>
       </c>
       <c r="Y79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>30698</v>
       </c>
       <c r="Z79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>39113</v>
       </c>
       <c r="AA79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>36150</v>
       </c>
       <c r="AB79" s="11">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>27747</v>
       </c>
-      <c r="AC79" s="11"/>
+      <c r="AC79" s="11">
+        <f t="shared" si="299"/>
+        <v>48414</v>
+      </c>
       <c r="AD79" s="11"/>
       <c r="AE79" s="11"/>
       <c r="AF79" s="11"/>
@@ -11740,33 +11811,29 @@
         <v>-22446</v>
       </c>
       <c r="AC81" s="11">
-        <f>+AB81-500</f>
-        <v>-22946</v>
-      </c>
-      <c r="AD81" s="11">
-        <f>+AC81-500</f>
-        <v>-23446</v>
-      </c>
+        <v>-23953</v>
+      </c>
+      <c r="AD81" s="11"/>
       <c r="AE81" s="11"/>
       <c r="AF81" s="11"/>
       <c r="AG81" s="11"/>
       <c r="AH81" s="11"/>
       <c r="AI81" s="11"/>
       <c r="AW81" s="3">
-        <f t="shared" ref="AW81:AW84" si="301">SUM(O81:R81)</f>
+        <f t="shared" ref="AW81:AW84" si="300">SUM(O81:R81)</f>
         <v>-31485</v>
       </c>
       <c r="AX81" s="3">
-        <f t="shared" ref="AX81:AX84" si="302">SUM(S81:V81)</f>
+        <f t="shared" ref="AX81:AX84" si="301">SUM(S81:V81)</f>
         <v>-32251</v>
       </c>
       <c r="AY81" s="3">
-        <f t="shared" ref="AY81:AY84" si="303">SUM(W81:Z81)</f>
+        <f t="shared" ref="AY81:AY84" si="302">SUM(W81:Z81)</f>
         <v>-52535</v>
       </c>
       <c r="AZ81" s="3">
         <f>SUM(AA81:AD81)</f>
-        <v>-86035</v>
+        <v>-63596</v>
       </c>
     </row>
     <row r="82" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11844,7 +11911,10 @@
         <f>-21417+20585-1354+614</f>
         <v>-1572</v>
       </c>
-      <c r="AC82" s="11"/>
+      <c r="AC82" s="11">
+        <f>-20964+20371-1000+323</f>
+        <v>-1270</v>
+      </c>
       <c r="AD82" s="11"/>
       <c r="AE82" s="11"/>
       <c r="AF82" s="11"/>
@@ -11852,15 +11922,15 @@
       <c r="AH82" s="11"/>
       <c r="AI82" s="11"/>
       <c r="AW82" s="3">
+        <f t="shared" si="300"/>
+        <v>5266</v>
+      </c>
+      <c r="AX82" s="3">
         <f t="shared" si="301"/>
-        <v>5266</v>
-      </c>
-      <c r="AX82" s="3">
+        <v>6734</v>
+      </c>
+      <c r="AY82" s="3">
         <f t="shared" si="302"/>
-        <v>6734</v>
-      </c>
-      <c r="AY82" s="3">
-        <f t="shared" si="303"/>
         <v>12597</v>
       </c>
     </row>
@@ -11928,7 +11998,9 @@
       <c r="AB83" s="11">
         <v>-13</v>
       </c>
-      <c r="AC83" s="11"/>
+      <c r="AC83" s="11">
+        <v>-1072</v>
+      </c>
       <c r="AD83" s="11"/>
       <c r="AE83" s="11"/>
       <c r="AF83" s="11"/>
@@ -11936,15 +12008,15 @@
       <c r="AH83" s="11"/>
       <c r="AI83" s="11"/>
       <c r="AW83" s="3">
+        <f t="shared" si="300"/>
+        <v>-1320</v>
+      </c>
+      <c r="AX83" s="3">
         <f t="shared" si="301"/>
-        <v>-1320</v>
-      </c>
-      <c r="AX83" s="3">
+        <v>-495</v>
+      </c>
+      <c r="AY83" s="3">
         <f t="shared" si="302"/>
-        <v>-495</v>
-      </c>
-      <c r="AY83" s="3">
-        <f t="shared" si="303"/>
         <v>-2931</v>
       </c>
     </row>
@@ -12012,7 +12084,9 @@
       <c r="AB84" s="11">
         <v>-513</v>
       </c>
-      <c r="AC84" s="11"/>
+      <c r="AC84" s="11">
+        <v>-1482</v>
+      </c>
       <c r="AD84" s="11"/>
       <c r="AE84" s="11"/>
       <c r="AF84" s="11"/>
@@ -12020,15 +12094,15 @@
       <c r="AH84" s="11"/>
       <c r="AI84" s="11"/>
       <c r="AW84" s="3">
+        <f t="shared" si="300"/>
+        <v>798</v>
+      </c>
+      <c r="AX84" s="3">
         <f t="shared" si="301"/>
-        <v>798</v>
-      </c>
-      <c r="AX84" s="3">
+        <v>-1051</v>
+      </c>
+      <c r="AY84" s="3">
         <f t="shared" si="302"/>
-        <v>-1051</v>
-      </c>
-      <c r="AY84" s="3">
-        <f t="shared" si="303"/>
         <v>-2667</v>
       </c>
     </row>
@@ -12064,50 +12138,53 @@
       </c>
       <c r="Q85" s="11"/>
       <c r="R85" s="11">
-        <f t="shared" ref="R85:AB85" si="304">SUM(R81:R84)</f>
+        <f t="shared" ref="R85:AB85" si="303">SUM(R81:R84)</f>
         <v>-6227</v>
       </c>
       <c r="S85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-2946</v>
       </c>
       <c r="T85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-10800</v>
       </c>
       <c r="U85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-7150</v>
       </c>
       <c r="V85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-6167</v>
       </c>
       <c r="W85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-8564</v>
       </c>
       <c r="X85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-2781</v>
       </c>
       <c r="Y85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-18011</v>
       </c>
       <c r="Z85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-16180</v>
       </c>
       <c r="AA85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-16194</v>
       </c>
       <c r="AB85" s="11">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>-24544</v>
       </c>
-      <c r="AC85" s="11"/>
+      <c r="AC85" s="11">
+        <f>SUM(AC81:AC84)</f>
+        <v>-27777</v>
+      </c>
       <c r="AD85" s="11"/>
       <c r="AE85" s="11"/>
       <c r="AF85" s="11"/>
@@ -12226,7 +12303,9 @@
       <c r="AB87" s="11">
         <v>-2621</v>
       </c>
-      <c r="AC87" s="11"/>
+      <c r="AC87" s="11">
+        <v>-3270</v>
+      </c>
       <c r="AD87" s="11"/>
       <c r="AE87" s="11"/>
       <c r="AF87" s="11"/>
@@ -12234,15 +12313,15 @@
       <c r="AH87" s="11"/>
       <c r="AI87" s="11"/>
       <c r="AW87" s="3">
-        <f t="shared" ref="AW87:AW93" si="305">SUM(O87:R87)</f>
+        <f t="shared" ref="AW87:AW93" si="304">SUM(O87:R87)</f>
         <v>-7259</v>
       </c>
       <c r="AX87" s="3">
-        <f t="shared" ref="AX87:AX91" si="306">SUM(S87:V87)</f>
+        <f t="shared" ref="AX87:AX91" si="305">SUM(S87:V87)</f>
         <v>-9837</v>
       </c>
       <c r="AY87" s="3">
-        <f t="shared" ref="AY87:AY93" si="307">SUM(W87:Z87)</f>
+        <f t="shared" ref="AY87:AY93" si="306">SUM(W87:Z87)</f>
         <v>-12190</v>
       </c>
     </row>
@@ -12310,7 +12389,9 @@
       <c r="AB88" s="11">
         <v>-13638</v>
       </c>
-      <c r="AC88" s="11"/>
+      <c r="AC88" s="11">
+        <v>-11504</v>
+      </c>
       <c r="AD88" s="11"/>
       <c r="AE88" s="11"/>
       <c r="AF88" s="11"/>
@@ -12318,15 +12399,15 @@
       <c r="AH88" s="11"/>
       <c r="AI88" s="11"/>
       <c r="AW88" s="3">
+        <f t="shared" si="304"/>
+        <v>-43904</v>
+      </c>
+      <c r="AX88" s="3">
         <f t="shared" si="305"/>
-        <v>-43904</v>
-      </c>
-      <c r="AX88" s="3">
+        <v>-61504</v>
+      </c>
+      <c r="AY88" s="3">
         <f t="shared" si="306"/>
-        <v>-61504</v>
-      </c>
-      <c r="AY88" s="3">
-        <f t="shared" si="307"/>
         <v>-62222</v>
       </c>
     </row>
@@ -12375,7 +12456,9 @@
       <c r="AB89" s="11">
         <v>-2543</v>
       </c>
-      <c r="AC89" s="11"/>
+      <c r="AC89" s="11">
+        <v>-2537</v>
+      </c>
       <c r="AD89" s="11"/>
       <c r="AE89" s="11"/>
       <c r="AF89" s="11"/>
@@ -12383,15 +12466,15 @@
       <c r="AH89" s="11"/>
       <c r="AI89" s="11"/>
       <c r="AW89" s="3">
+        <f t="shared" si="304"/>
+        <v>0</v>
+      </c>
+      <c r="AX89" s="3">
         <f t="shared" si="305"/>
         <v>0</v>
       </c>
-      <c r="AX89" s="3">
+      <c r="AY89" s="3">
         <f t="shared" si="306"/>
-        <v>0</v>
-      </c>
-      <c r="AY89" s="3">
-        <f t="shared" si="307"/>
         <v>-7363</v>
       </c>
     </row>
@@ -12470,7 +12553,10 @@
         <f>26846-13876</f>
         <v>12970</v>
       </c>
-      <c r="AC90" s="11"/>
+      <c r="AC90" s="11">
+        <f>6624-7696</f>
+        <v>-1072</v>
+      </c>
       <c r="AD90" s="11"/>
       <c r="AE90" s="11"/>
       <c r="AF90" s="11"/>
@@ -12478,15 +12564,15 @@
       <c r="AH90" s="11"/>
       <c r="AI90" s="11"/>
       <c r="AW90" s="3">
+        <f t="shared" si="304"/>
+        <v>-522</v>
+      </c>
+      <c r="AX90" s="3">
         <f t="shared" si="305"/>
-        <v>-522</v>
-      </c>
-      <c r="AX90" s="3">
+        <v>-760</v>
+      </c>
+      <c r="AY90" s="3">
         <f t="shared" si="306"/>
-        <v>-760</v>
-      </c>
-      <c r="AY90" s="3">
-        <f t="shared" si="307"/>
         <v>888</v>
       </c>
     </row>
@@ -12554,7 +12640,9 @@
       <c r="AB91" s="11">
         <v>0</v>
       </c>
-      <c r="AC91" s="11"/>
+      <c r="AC91" s="11">
+        <v>0</v>
+      </c>
       <c r="AD91" s="11"/>
       <c r="AE91" s="11"/>
       <c r="AF91" s="11"/>
@@ -12562,15 +12650,15 @@
       <c r="AH91" s="11"/>
       <c r="AI91" s="11"/>
       <c r="AW91" s="3">
+        <f t="shared" si="304"/>
+        <v>25</v>
+      </c>
+      <c r="AX91" s="3">
         <f t="shared" si="305"/>
-        <v>25</v>
-      </c>
-      <c r="AX91" s="3">
+        <v>8</v>
+      </c>
+      <c r="AY91" s="3">
         <f t="shared" si="306"/>
-        <v>8</v>
-      </c>
-      <c r="AY91" s="3">
-        <f t="shared" si="307"/>
         <v>1154</v>
       </c>
     </row>
@@ -12606,50 +12694,53 @@
       </c>
       <c r="Q92" s="11"/>
       <c r="R92" s="11">
-        <f t="shared" ref="R92:AB92" si="308">SUM(R87:R91)</f>
+        <f t="shared" ref="R92:AC92" si="307">SUM(R87:R91)</f>
         <v>-17629</v>
       </c>
       <c r="S92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-16568</v>
       </c>
       <c r="T92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-17835</v>
       </c>
       <c r="U92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-18382</v>
       </c>
       <c r="V92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-19308</v>
       </c>
       <c r="W92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-19714</v>
       </c>
       <c r="X92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-20889</v>
       </c>
       <c r="Y92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-20094</v>
       </c>
       <c r="Z92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-19036</v>
       </c>
       <c r="AA92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-20201</v>
       </c>
       <c r="AB92" s="11">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>-5832</v>
       </c>
-      <c r="AC92" s="11"/>
+      <c r="AC92" s="11">
+        <f t="shared" si="307"/>
+        <v>-18383</v>
+      </c>
       <c r="AD92" s="11"/>
       <c r="AE92" s="11"/>
       <c r="AF92" s="11"/>
@@ -12733,7 +12824,9 @@
       <c r="AB93" s="11">
         <v>401</v>
       </c>
-      <c r="AC93" s="11"/>
+      <c r="AC93" s="11">
+        <v>-200</v>
+      </c>
       <c r="AD93" s="11"/>
       <c r="AE93" s="11"/>
       <c r="AF93" s="11"/>
@@ -12741,7 +12834,7 @@
       <c r="AH93" s="11"/>
       <c r="AI93" s="11"/>
       <c r="AW93" s="3">
-        <f t="shared" si="305"/>
+        <f t="shared" si="304"/>
         <v>-131</v>
       </c>
       <c r="AX93" s="3">
@@ -12749,7 +12842,7 @@
         <v>-421</v>
       </c>
       <c r="AY93" s="3">
-        <f t="shared" si="307"/>
+        <f t="shared" si="306"/>
         <v>-612</v>
       </c>
     </row>
@@ -12785,50 +12878,53 @@
       </c>
       <c r="Q94" s="11"/>
       <c r="R94" s="11">
-        <f t="shared" ref="R94:AB94" si="309">+R93+R92+R85+R79</f>
+        <f t="shared" ref="R94:AC94" si="308">+R93+R92+R85+R79</f>
         <v>-105</v>
       </c>
       <c r="S94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>4045</v>
       </c>
       <c r="T94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>5</v>
       </c>
       <c r="U94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>4773</v>
       </c>
       <c r="V94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>-6654</v>
       </c>
       <c r="W94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>445</v>
       </c>
       <c r="X94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>2732</v>
       </c>
       <c r="Y94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>-7266</v>
       </c>
       <c r="Z94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>3507</v>
       </c>
       <c r="AA94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>-202</v>
       </c>
       <c r="AB94" s="11">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>-2228</v>
       </c>
-      <c r="AC94" s="11"/>
+      <c r="AC94" s="11">
+        <f t="shared" si="308"/>
+        <v>2054</v>
+      </c>
       <c r="AD94" s="11"/>
       <c r="AE94" s="11"/>
       <c r="AF94" s="11"/>
@@ -12912,62 +13008,65 @@
         <v>6383</v>
       </c>
       <c r="O96" s="11">
-        <f t="shared" ref="O96:AB96" si="310">O79+O81</f>
+        <f t="shared" ref="O96:AC96" si="309">O79+O81</f>
         <v>15320</v>
       </c>
       <c r="P96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>12594</v>
       </c>
       <c r="Q96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>16077</v>
       </c>
       <c r="R96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>16019</v>
       </c>
       <c r="S96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>17220</v>
       </c>
       <c r="T96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>21778</v>
       </c>
       <c r="U96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>22601</v>
       </c>
       <c r="V96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>7896</v>
       </c>
       <c r="W96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>16836</v>
       </c>
       <c r="X96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>13454</v>
       </c>
       <c r="Y96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>17637</v>
       </c>
       <c r="Z96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>24837</v>
       </c>
       <c r="AA96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>18953</v>
       </c>
       <c r="AB96" s="11">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>5301</v>
       </c>
-      <c r="AC96" s="11"/>
+      <c r="AC96" s="11">
+        <f t="shared" si="309"/>
+        <v>24461</v>
+      </c>
       <c r="AD96" s="11"/>
       <c r="AE96" s="11"/>
       <c r="AF96" s="11"/>
@@ -13003,51 +13102,51 @@
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10">
-        <f t="shared" ref="N97:T97" si="311">SUM(K96:N96)</f>
+        <f t="shared" ref="N97:T97" si="310">SUM(K96:N96)</f>
         <v>63972</v>
       </c>
       <c r="O97" s="10">
+        <f t="shared" si="310"/>
+        <v>54061</v>
+      </c>
+      <c r="P97" s="10">
+        <f t="shared" si="310"/>
+        <v>66655</v>
+      </c>
+      <c r="Q97" s="10">
+        <f t="shared" si="310"/>
+        <v>50374</v>
+      </c>
+      <c r="R97" s="10">
+        <f t="shared" si="310"/>
+        <v>60010</v>
+      </c>
+      <c r="S97" s="10">
+        <f t="shared" si="310"/>
+        <v>61910</v>
+      </c>
+      <c r="T97" s="10">
+        <f t="shared" si="310"/>
+        <v>71094</v>
+      </c>
+      <c r="U97" s="10">
+        <f t="shared" ref="U97:Y97" si="311">SUM(R96:U96)</f>
+        <v>77618</v>
+      </c>
+      <c r="V97" s="10">
         <f t="shared" si="311"/>
-        <v>54061</v>
-      </c>
-      <c r="P97" s="10">
+        <v>69495</v>
+      </c>
+      <c r="W97" s="10">
         <f t="shared" si="311"/>
-        <v>66655</v>
-      </c>
-      <c r="Q97" s="10">
+        <v>69111</v>
+      </c>
+      <c r="X97" s="10">
         <f t="shared" si="311"/>
-        <v>50374</v>
-      </c>
-      <c r="R97" s="10">
+        <v>60787</v>
+      </c>
+      <c r="Y97" s="10">
         <f t="shared" si="311"/>
-        <v>60010</v>
-      </c>
-      <c r="S97" s="10">
-        <f t="shared" si="311"/>
-        <v>61910</v>
-      </c>
-      <c r="T97" s="10">
-        <f t="shared" si="311"/>
-        <v>71094</v>
-      </c>
-      <c r="U97" s="10">
-        <f t="shared" ref="U97:Y97" si="312">SUM(R96:U96)</f>
-        <v>77618</v>
-      </c>
-      <c r="V97" s="10">
-        <f t="shared" si="312"/>
-        <v>69495</v>
-      </c>
-      <c r="W97" s="10">
-        <f t="shared" si="312"/>
-        <v>69111</v>
-      </c>
-      <c r="X97" s="10">
-        <f t="shared" si="312"/>
-        <v>60787</v>
-      </c>
-      <c r="Y97" s="10">
-        <f t="shared" si="312"/>
         <v>55823</v>
       </c>
       <c r="Z97" s="10">
@@ -13062,7 +13161,10 @@
         <f>SUM(Y96:AB96)</f>
         <v>66728</v>
       </c>
-      <c r="AC97" s="10"/>
+      <c r="AC97" s="10">
+        <f>SUM(Z96:AC96)</f>
+        <v>73552</v>
+      </c>
       <c r="AD97" s="10"/>
       <c r="AE97" s="10"/>
       <c r="AF97" s="10"/>
@@ -13101,30 +13203,33 @@
       <c r="U98" s="10"/>
       <c r="V98" s="10"/>
       <c r="W98" s="16">
-        <f t="shared" ref="W98" si="313">W97/S97-1</f>
+        <f t="shared" ref="W98" si="312">W97/S97-1</f>
         <v>0.11631400419964466</v>
       </c>
       <c r="X98" s="16">
-        <f t="shared" ref="X98" si="314">X97/T97-1</f>
+        <f t="shared" ref="X98" si="313">X97/T97-1</f>
         <v>-0.14497707260809634</v>
       </c>
       <c r="Y98" s="16">
-        <f t="shared" ref="Y98:AA98" si="315">Y97/U97-1</f>
+        <f t="shared" ref="Y98:AA98" si="314">Y97/U97-1</f>
         <v>-0.28079826844288691</v>
       </c>
       <c r="Z98" s="16">
-        <f t="shared" si="315"/>
+        <f t="shared" si="314"/>
         <v>4.7039355349305811E-2</v>
       </c>
       <c r="AA98" s="16">
-        <f t="shared" si="315"/>
+        <f t="shared" si="314"/>
         <v>8.3488880207202909E-2</v>
       </c>
       <c r="AB98" s="16">
         <f>AB97/X97-1</f>
         <v>9.7734713014295815E-2</v>
       </c>
-      <c r="AC98" s="10"/>
+      <c r="AC98" s="16">
+        <f>AC97/Y97-1</f>
+        <v>0.31759310678394215</v>
+      </c>
       <c r="AD98" s="10"/>
       <c r="AE98" s="10"/>
       <c r="AF98" s="10"/>
@@ -13208,7 +13313,9 @@
       <c r="AB100" s="11">
         <v>187103</v>
       </c>
-      <c r="AC100" s="11"/>
+      <c r="AC100" s="11">
+        <v>190167</v>
+      </c>
       <c r="AD100" s="11"/>
       <c r="AE100" s="11"/>
       <c r="AF100" s="11"/>
@@ -13216,11 +13323,11 @@
       <c r="AH100" s="11"/>
       <c r="AI100" s="11"/>
       <c r="AW100" s="3">
-        <f t="shared" ref="AW100:AX100" si="316">R100</f>
+        <f t="shared" ref="AW100:AX100" si="315">R100</f>
         <v>190234</v>
       </c>
       <c r="AX100" s="3">
-        <f t="shared" si="316"/>
+        <f t="shared" si="315"/>
         <v>190711</v>
       </c>
       <c r="AY100" s="3">
@@ -13233,60 +13340,64 @@
         <v>81</v>
       </c>
       <c r="O101" s="15">
-        <f t="shared" ref="O101:AB101" si="317">+O100/K100-1</f>
+        <f t="shared" ref="O101:AC101" si="316">+O100/K100-1</f>
         <v>0.17079895710561099</v>
       </c>
       <c r="P101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>0.20796079302493475</v>
       </c>
       <c r="Q101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>0.24496094062441687</v>
       </c>
       <c r="R101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>0.21555271565495215</v>
       </c>
       <c r="S101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>0.16353885763791443</v>
       </c>
       <c r="T101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>4.4732033054811771E-2</v>
       </c>
       <c r="U101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>-2.3546544311726647E-2</v>
       </c>
       <c r="V101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>-4.0644679710251541E-2</v>
       </c>
       <c r="W101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>-5.1470549679882072E-2</v>
       </c>
       <c r="X101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="Y101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>-6.0971263453978297E-3</v>
       </c>
       <c r="Z101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>-9.8081116919268574E-4</v>
       </c>
       <c r="AA101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>2.6667403742502538E-2</v>
       </c>
       <c r="AB101" s="15">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>2.9180739062035776E-2</v>
+      </c>
+      <c r="AC101" s="15">
+        <f t="shared" si="316"/>
+        <v>4.9087268093275682E-2</v>
       </c>
       <c r="AX101" s="5">
         <f>+AX100/AW100-1</f>
@@ -13306,76 +13417,80 @@
         <v>334.49548143813797</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" ref="K102:AB102" si="318">+K16/K100*1000</f>
+        <f t="shared" ref="K102:AC102" si="317">+K16/K100*1000</f>
         <v>395.11411121825779</v>
       </c>
       <c r="L102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>429.55517298828232</v>
       </c>
       <c r="M102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>434.03897939051376</v>
       </c>
       <c r="N102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>481.30990415335464</v>
       </c>
       <c r="O102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>414.93905043134475</v>
       </c>
       <c r="P102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>400.45628512648409</v>
       </c>
       <c r="Q102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>369.91310586307884</v>
       </c>
       <c r="R102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>399.76029521536634</v>
       </c>
       <c r="S102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>365.93064899245451</v>
       </c>
       <c r="T102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>410.36755079813861</v>
       </c>
       <c r="U102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>420.50981187733373</v>
       </c>
       <c r="V102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>472.92632409507837</v>
       </c>
       <c r="W102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>445.22513060062471</v>
       </c>
       <c r="X102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>466.1327407342215</v>
       </c>
       <c r="Y102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>486.9448168192024</v>
       </c>
       <c r="Z102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>529.11042490525062</v>
       </c>
       <c r="AA102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>485.86305116870108</v>
       </c>
       <c r="AB102" s="11">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>515.37388497244831</v>
+      </c>
+      <c r="AC102" s="11">
+        <f t="shared" si="317"/>
+        <v>538.19011710759492</v>
       </c>
       <c r="AW102" s="11">
         <f>+AW16/AW100*1000</f>
